--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/WPI Course Schedule Optimization MQP (‘23 - ‘24)/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="11_DB06C888C27AE9E56777B826B3AFCEA16EA9919B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5284EA-9460-42DD-BB08-BD6693A363D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9087E9B-9F31-1A45-973F-5276D1F4AF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="OIE_MAJOR" sheetId="3" r:id="rId3"/>
     <sheet name="MATH_OIE_DOUBLE" sheetId="4" r:id="rId4"/>
     <sheet name="DS_MASTER" sheetId="5" r:id="rId5"/>
-    <sheet name="DS_DS_BSMS" sheetId="7" r:id="rId6"/>
-    <sheet name="DS_MAJOR" sheetId="8" r:id="rId7"/>
+    <sheet name="DS_DS_BSMS" sheetId="6" r:id="rId6"/>
+    <sheet name="DS_MAJOR" sheetId="7" r:id="rId7"/>
+    <sheet name="CS_MAJOR" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="774">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -1048,60 +1049,894 @@
     <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_ADV_CRYPT']</t>
   </si>
   <si>
+    <t>AR DEPT, TH DEPT, MUS_DEPT</t>
+  </si>
+  <si>
+    <t>['AR_DEPT', 'TH_DEPT', 'MUS_DEPT']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE', 'HUA_DEPTH_SL_0', 'HUA_ART_MAX']</t>
+  </si>
+  <si>
+    <t>AB_DEPT, CN_DEPT, GN_DEPT, SP_DEPT</t>
+  </si>
+  <si>
+    <t>['AB_DEPT', 'CN_DEPT', 'GN_DEPT', 'SP_DEPT']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE', 'HUA_DEPTH_SL_1']</t>
+  </si>
+  <si>
+    <t>EN_DEPT, WR_DEPT</t>
+  </si>
+  <si>
+    <t>['EN_DEPT', 'WR_DEPT']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE', 'HUA_DEPTH_SL_2', 'HUA_WR_MAX']</t>
+  </si>
+  <si>
+    <t>HI_DEPT, HU_DEPT, INTL_DEPT</t>
+  </si>
+  <si>
+    <t>['HI_DEPT', 'HU_DEPT', 'INTL_DEPT']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE', 'HUA_DEPTH_SL_3', 'HUA_HI_MAX']</t>
+  </si>
+  <si>
+    <t>PY_DEPT, RE_DEPT</t>
+  </si>
+  <si>
+    <t>['PY_DEPT', 'RE_DEPT']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE', 'HUA_DEPTH_SL_4', 'HUA_PY_MAX']</t>
+  </si>
+  <si>
+    <t>HU_DPE</t>
+  </si>
+  <si>
+    <t>PY_2731, PY_2713, RE_2731</t>
+  </si>
+  <si>
+    <t>['PY_2731', 'PY_2713', 'RE_2731']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>HU_3900 OR HU_3910</t>
+  </si>
+  <si>
+    <t>['HU_3900', 'HU_3910']</t>
+  </si>
+  <si>
+    <t>['HUA_PROJ']</t>
+  </si>
+  <si>
+    <t>IQP OFF CAMPUS</t>
+  </si>
+  <si>
+    <t>['IQP_A', 'IQP_B', 'IQP_C', 'IQP_D', 'IQP_OFF_CAMPUS']</t>
+  </si>
+  <si>
+    <t>['IQP']</t>
+  </si>
+  <si>
+    <t>IQP ON CAMPUS</t>
+  </si>
+  <si>
+    <t>['IQP_ON_CAMPUS']</t>
+  </si>
+  <si>
+    <t>['IQP', 'ON_OFF_CAMPUS']</t>
+  </si>
+  <si>
+    <t>['ID_2050']</t>
+  </si>
+  <si>
+    <t>['SOC_SCI_REQ', 'ON_OFF_CAMPUS']</t>
+  </si>
+  <si>
+    <t>ECON_DEPT, ENV_DEPT, GOV_DEPT, PSY_DEPT, SD_DEPT, SOC_DEPT, SS_DEPT, STS_DEPT, DEV_DEPT</t>
+  </si>
+  <si>
+    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT']</t>
+  </si>
+  <si>
+    <t>['SOC_SCI_REQ']</t>
+  </si>
+  <si>
+    <t>SS_DPE</t>
+  </si>
+  <si>
+    <t>GOV_2314, GOV_2315, GOV_2313</t>
+  </si>
+  <si>
+    <t>['GOV_2314', 'GOV_2315', 'GOV_2313']</t>
+  </si>
+  <si>
+    <t>['SOC_SCI_REQ', 'DS_DPE']</t>
+  </si>
+  <si>
     <t>DS_CORE</t>
   </si>
   <si>
+    <t>DS_1010 AND DS_2010 AND DS_3010</t>
+  </si>
+  <si>
+    <t>['DS_1010', 'DS_2010', 'DS_3010']</t>
+  </si>
+  <si>
+    <t>['DS_C']</t>
+  </si>
+  <si>
+    <t>MATH_DE</t>
+  </si>
+  <si>
+    <t>CS_2022, MA_2201, MA_3257, MA_1023, MA_1024, MA_1033, MA_1034, MA_2051, MA_2073, MA_2210, MA_2431, MA_2621, MA_2631, MA_3231, MA_3233, MA_3627, MA_3631</t>
+  </si>
+  <si>
+    <t>['CS_2022', 'MA_2201', 'MA_3257', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_2621', 'MA_2631', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>CS_DE</t>
+  </si>
+  <si>
+    <t>CS_2301, CS_2303, CS_3041, CS_3133, CS_3733</t>
+  </si>
+  <si>
+    <t>['CS_2301', 'CS_2303', 'CS_3041', 'CS_3133', 'CS_3733']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS']</t>
+  </si>
+  <si>
+    <t>SOC_IMPS</t>
+  </si>
+  <si>
+    <t>['CS_3043']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>DB_I</t>
+  </si>
+  <si>
+    <t>CS_3431</t>
+  </si>
+  <si>
+    <t>['CS_3431']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DAM', 'UGG_REST_DB_I']</t>
+  </si>
+  <si>
+    <t>ANALYSIS_ALGOS</t>
+  </si>
+  <si>
+    <t>CS_4120</t>
+  </si>
+  <si>
+    <t>['CS_4120']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>CS_4000_NOT_DC</t>
+  </si>
+  <si>
+    <t>CS_4233, CS_4241, CS_4804</t>
+  </si>
+  <si>
+    <t>['CS_4233', 'CS_4241', 'CS_4804']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>UG_AI</t>
+  </si>
+  <si>
+    <t>CS_4341</t>
+  </si>
+  <si>
+    <t>['CS_4341']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'UGG_REST_AI']</t>
+  </si>
+  <si>
+    <t>UG_ML</t>
+  </si>
+  <si>
+    <t>CS_4342</t>
+  </si>
+  <si>
+    <t>['CS_4342']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'DS_DMML', 'UGG_REST_MACH_LEARN']</t>
+  </si>
+  <si>
+    <t>UG_DB_II</t>
+  </si>
+  <si>
+    <t>CS_4432</t>
+  </si>
+  <si>
+    <t>['CS_4432']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'DS_DAM', 'UGG_REST_DB_MGMT_SYS']</t>
+  </si>
+  <si>
+    <t>BIG_DATA</t>
+  </si>
+  <si>
+    <t>CS_4433 OR DS_4433</t>
+  </si>
+  <si>
+    <t>['CS_4433', 'DS_4433']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_4LDER', 'DS_DAM', 'C_REST_BIG_DATA']</t>
+  </si>
+  <si>
+    <t>UG_DM</t>
+  </si>
+  <si>
+    <t>CS_4445</t>
+  </si>
+  <si>
+    <t>['CS_4445']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'DS_DMML', 'UGG_REST_DAT_MIN']</t>
+  </si>
+  <si>
+    <t>UG_BIOVIS</t>
+  </si>
+  <si>
+    <t>CS_4802 OR BCB_4002</t>
+  </si>
+  <si>
+    <t>['CS_4802', 'BCB_4002']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_BIOVIS', 'UGG_REST_BIOVIS']</t>
+  </si>
+  <si>
+    <t>UG_BIOMED_DM</t>
+  </si>
+  <si>
+    <t>CS_4803 OR BCB_4003</t>
+  </si>
+  <si>
+    <t>['CS_4803', 'BCB_4003']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_BIOMED_DM', 'UGG_REST_BIOMED_DAT_MIN']</t>
+  </si>
+  <si>
+    <t>UG_STAT_BIO</t>
+  </si>
+  <si>
+    <t>BCB_4004 OR MA_4603</t>
+  </si>
+  <si>
+    <t>['BCB_4004', 'MA_4603']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_STAT_BIO', 'UGG_REST_STAT_BIO']</t>
+  </si>
+  <si>
+    <t>4000_MA_DE_NOT_DC</t>
+  </si>
+  <si>
+    <t>CS_4032, MA_4213, MA_4214, MA_4222, MA_4237</t>
+  </si>
+  <si>
+    <t>['CS_4032', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4237']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>UG_STAT_LEARN</t>
+  </si>
+  <si>
+    <t>DS_4635 OR MA_4635</t>
+  </si>
+  <si>
+    <t>['DS_4635', 'MA_4635']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_DA_STAT_LEARN', 'UGG_REST_DA_STAT_LEARN']</t>
+  </si>
+  <si>
+    <t>MATH_OPT</t>
+  </si>
+  <si>
+    <t>MA_4235</t>
+  </si>
+  <si>
+    <t>['MA_4235']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>UG_PROB_STATS_I</t>
+  </si>
+  <si>
+    <t>MA_4631</t>
+  </si>
+  <si>
+    <t>['MA_4631']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'UGG_REST_PROB_I']</t>
+  </si>
+  <si>
+    <t>UG_PROB_STATS_II</t>
+  </si>
+  <si>
+    <t>MA_4632</t>
+  </si>
+  <si>
+    <t>['MA_4632']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'UGG_REST_PROB_II']</t>
+  </si>
+  <si>
+    <t>MIS_DB</t>
+  </si>
+  <si>
+    <t>MIS_3720</t>
+  </si>
+  <si>
+    <t>['MIS_3720']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>BUS_DE</t>
+  </si>
+  <si>
+    <t>MIS_3787, MKT_3650, OIE_3460</t>
+  </si>
+  <si>
+    <t>['MIS_3787', 'MKT_3650', 'OIE_3460']</t>
+  </si>
+  <si>
+    <t>['DS_DE']</t>
+  </si>
+  <si>
+    <t>BUS_4000_DE</t>
+  </si>
+  <si>
+    <t>MIS_4720, MIS_4741</t>
+  </si>
+  <si>
+    <t>['MIS_4720', 'MIS_4741']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>G_AI</t>
+  </si>
+  <si>
+    <t>CS_534</t>
+  </si>
+  <si>
+    <t>['CS_534']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_AI']</t>
+  </si>
+  <si>
+    <t>G_ML</t>
+  </si>
+  <si>
+    <t>CS_539</t>
+  </si>
+  <si>
+    <t>['CS_539']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_DMML', 'DS_M_DAT_MIN', 'UGG_REST_MACH_LEARN']</t>
+  </si>
+  <si>
+    <t>G_DB</t>
+  </si>
+  <si>
+    <t>CS_542</t>
+  </si>
+  <si>
+    <t>['CS_542']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_DAM', 'DS_M_DAT_MAN', 'UGG_REST_DB_MGMT_SYS', 'UGG_REST_DB_I']</t>
+  </si>
+  <si>
+    <t>G_DM</t>
+  </si>
+  <si>
+    <t>CS_548</t>
+  </si>
+  <si>
+    <t>['CS_548']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_DMML', 'DS_M_DAT_MIN', 'UGG_REST_DAT_MIN']</t>
+  </si>
+  <si>
+    <t>G_MOB_UB</t>
+  </si>
+  <si>
+    <t>CS_528</t>
+  </si>
+  <si>
+    <t>['CS_528']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_MOB_UB_COMP']</t>
+  </si>
+  <si>
+    <t>G_BIOVIS</t>
+  </si>
+  <si>
+    <t>CS_582 OR BCB_502</t>
+  </si>
+  <si>
+    <t>['CS_582', 'BCB_502']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'C_REST_G_BIOVIS', 'UGG_REST_BIOVIS']</t>
+  </si>
+  <si>
+    <t>G_BIOMED_DM</t>
+  </si>
+  <si>
+    <t>CS_583 OR BCB_503</t>
+  </si>
+  <si>
+    <t>['CS_583', 'BCB_503']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'C_REST_G_BIO_DM', 'UGG_REST_BIOMED_DAT_MIN']</t>
+  </si>
+  <si>
+    <t>G_PROB_STATS_I</t>
+  </si>
+  <si>
+    <t>MA_540</t>
+  </si>
+  <si>
+    <t>['MA_540']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_PROB_I']</t>
+  </si>
+  <si>
+    <t>G_PROB_STATS_II</t>
+  </si>
+  <si>
+    <t>MA_541</t>
+  </si>
+  <si>
+    <t>['MA_541']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_PROB_II']</t>
+  </si>
+  <si>
+    <t>G_STAT_LEARN</t>
+  </si>
+  <si>
+    <t>MA_543 OR DS_502</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_MATH_ANALYTICS', 'C_REST_G_STAT_LEARN', 'UGG_REST_DA_STAT_LEARN']</t>
+  </si>
+  <si>
+    <t>M_MATH_ANALYTICS</t>
+  </si>
+  <si>
+    <t>MA_542 OR MA_554</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_MATH_ANALYTICS']</t>
+  </si>
+  <si>
+    <t>M_MIS_DB</t>
+  </si>
+  <si>
+    <t>MIS_571</t>
+  </si>
+  <si>
+    <t>['MIS_571']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MAN']</t>
+  </si>
+  <si>
+    <t>M_ADV_DB</t>
+  </si>
+  <si>
+    <t>CS_561</t>
+  </si>
+  <si>
+    <t>['CS_561']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MAN']</t>
+  </si>
+  <si>
+    <t>M_BIG_DATA_MAN</t>
+  </si>
+  <si>
+    <t>CS_585 OR DS_503</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MAN', 'C_REST_G_BIG_DATA_M']</t>
+  </si>
+  <si>
+    <t>M_DEEP_LEARN</t>
+  </si>
+  <si>
+    <t>DS_541 OR CS_541</t>
+  </si>
+  <si>
+    <t>['DS_541', 'CS_541']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MIN', 'C_REST_G_DEEP_LEARN']</t>
+  </si>
+  <si>
+    <t>M_BIG_DATA_AN</t>
+  </si>
+  <si>
+    <t>CS_586 OR DS_504</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MIN', 'C_REST_G_BIG_DATA_A']</t>
+  </si>
+  <si>
+    <t>M_BI</t>
+  </si>
+  <si>
+    <t>MIS_584</t>
+  </si>
+  <si>
+    <t>['MIS_584']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_BMP', 'DS_M_BI_CASE']</t>
+  </si>
+  <si>
+    <t>M_BI_OTHER</t>
+  </si>
+  <si>
+    <t>MIS_587, MKT_568</t>
+  </si>
+  <si>
+    <t>['MIS_587', 'MKT_568']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_BI_CASE']</t>
+  </si>
+  <si>
+    <t>CALC_I_II</t>
+  </si>
+  <si>
+    <t>MA_1020, MA_1021, MA_1022, MA_1120</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1021', 'MA_1022', 'MA_1120']</t>
+  </si>
+  <si>
+    <t>['DS_MS']</t>
+  </si>
+  <si>
+    <t>G_STAT_BIO</t>
+  </si>
+  <si>
+    <t>MA_584 OR BCB_504</t>
+  </si>
+  <si>
+    <t>['MA_584', 'BCB_504']</t>
+  </si>
+  <si>
+    <t>['DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'C_REST_G_STAT_BIO', 'UGG_REST_STAT_BIO']</t>
+  </si>
+  <si>
+    <t>ENG_ENTR</t>
+  </si>
+  <si>
+    <t>BUS_1010, ETR_1100, BUS_3010, ETR_3633, OBC_1010, MIS_3010</t>
+  </si>
+  <si>
+    <t>['BUS_1010', 'ETR_1100', 'BUS_3010', 'ETR_3633', 'OBC_1010', 'MIS_3010']</t>
+  </si>
+  <si>
+    <t>['DS_EI']</t>
+  </si>
+  <si>
+    <t>BUS_ANALYSIS</t>
+  </si>
+  <si>
+    <t>BUS_2080 OR OIE_2081</t>
+  </si>
+  <si>
+    <t>['BUS_2080', 'OIE_2081']</t>
+  </si>
+  <si>
+    <t>['DS_BA']</t>
+  </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>MA_2611 AND MA_2612</t>
+  </si>
+  <si>
+    <t>['MA_2611', 'MA_2612']</t>
+  </si>
+  <si>
+    <t>['DS_STATS']</t>
+  </si>
+  <si>
+    <t>LIN_ALG</t>
+  </si>
+  <si>
+    <t>MA_2071 OR MA_2072</t>
+  </si>
+  <si>
+    <t>['MA_2071', 'MA_2072']</t>
+  </si>
+  <si>
+    <t>['DS_LA']</t>
+  </si>
+  <si>
+    <t>ALGO</t>
+  </si>
+  <si>
+    <t>CS_2223</t>
+  </si>
+  <si>
+    <t>['CS_2223']</t>
+  </si>
+  <si>
+    <t>['DS_ALGOS']</t>
+  </si>
+  <si>
+    <t>SCI_ENG</t>
+  </si>
+  <si>
+    <t>AE_DEPT, AREN_DEPT, BB_DEPT, BME_DEPT, CHE_DEPT, CE_DEPT, CH_DEPT, ECE_DEPT, GE_DEPT, ME_DEPT, PH_DEPT, RBE_DEPT</t>
+  </si>
+  <si>
+    <t>['AE_DEPT', 'AREN_DEPT', 'BB_DEPT', 'BME_DEPT', 'CHE_DEPT', 'CE_DEPT', 'CH_DEPT', 'ECE_DEPT', 'GE_DEPT', 'ME_DEPT', 'PH_DEPT', 'RBE_DEPT']</t>
+  </si>
+  <si>
+    <t>['DS_NES']</t>
+  </si>
+  <si>
+    <t>1000_CS</t>
+  </si>
+  <si>
+    <t>CS_1004 OR CS_1101 OR CS_1102</t>
+  </si>
+  <si>
+    <t>['CS_1004', 'CS_1101', 'CS_1102']</t>
+  </si>
+  <si>
+    <t>['DS_CS', 'DS_CS_1000_L']</t>
+  </si>
+  <si>
+    <t>INTRO_CS</t>
+  </si>
+  <si>
+    <t>CS_2102 OR CS_2103 OR CS_2119</t>
+  </si>
+  <si>
+    <t>['CS_2102', 'CS_2103', 'CS_2119']</t>
+  </si>
+  <si>
+    <t>['DS_CS']</t>
+  </si>
+  <si>
+    <t>UG_MOB_UB</t>
+  </si>
+  <si>
+    <t>CS_4518</t>
+  </si>
+  <si>
+    <t>['CS_4518']</t>
+  </si>
+  <si>
+    <t>['DS_DOUBLE', 'UGG_REST_MOB_UB_COMP']</t>
+  </si>
+  <si>
+    <t>G_PRES_ANALYTICS</t>
+  </si>
+  <si>
+    <t>OIE_559</t>
+  </si>
+  <si>
+    <t>['OIE_559']</t>
+  </si>
+  <si>
+    <t>['DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_BMP', 'UGG_REST_PRES_ANALYTICS', 'DS_DE', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>M_ELECTIVES</t>
+  </si>
+  <si>
+    <t>BUS_500, FIN_500, FIN_503, MIS_500, MIS_573, MIS_576, MIS_581, MIS_583, MIS_585, OBC_505, OBC_506, OIE_501, OIE_542, OIE_544, OIE_552, CS_5007, CS_504, CS_509, CS_525, CS_536, CS_545, CS_546, CS_549, CS_573, MA_511, MA_529, MA_546, MA_547, MA_549, MA_550, MA_552, MA_556, PSY_505, BCB_501, BME_595, ECE_502, ECE_503, ECE_504, ECE_630, ECE_5311, DS_501</t>
+  </si>
+  <si>
+    <t>['BUS_500', 'FIN_500', 'FIN_503', 'MIS_500', 'MIS_573', 'MIS_576', 'MIS_581', 'MIS_583', 'MIS_585', 'OBC_505', 'OBC_506', 'OIE_501', 'OIE_542', 'OIE_544', 'OIE_552', 'CS_5007', 'CS_504', 'CS_509', 'CS_525', 'CS_536', 'CS_545', 'CS_546', 'CS_549', 'CS_573', 'MA_511', 'MA_529', 'MA_546', 'MA_547', 'MA_549', 'MA_550', 'MA_552', 'MA_556', 'PSY_505', 'BCB_501', 'BME_595', 'ECE_502', 'ECE_503', 'ECE_504', 'ECE_630', 'ECE_5311', 'DS_501']</t>
+  </si>
+  <si>
+    <t>M_ALGOS</t>
+  </si>
+  <si>
+    <t>CS_5084 OR CS_584</t>
+  </si>
+  <si>
+    <t>['CS_5084', 'CS_584']</t>
+  </si>
+  <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_ALGO']</t>
+  </si>
+  <si>
+    <t>M_INFO_RET</t>
+  </si>
+  <si>
+    <t>CS_547 OR DS_547</t>
+  </si>
+  <si>
+    <t>M_MATH_FOUND_DS</t>
+  </si>
+  <si>
+    <t>MA_517 OR DS_517</t>
+  </si>
+  <si>
+    <t>M_USER_MODEL</t>
+  </si>
+  <si>
+    <t>CS_565 OR SEME_565</t>
+  </si>
+  <si>
+    <t>['CS_565', 'SEME_565']</t>
+  </si>
+  <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_USER_MODEL']</t>
+  </si>
+  <si>
+    <t>M_GRAPH_UNCERT</t>
+  </si>
+  <si>
+    <t>CS_566 OR SEME_566</t>
+  </si>
+  <si>
+    <t>['CS_566', 'SEME_566']</t>
+  </si>
+  <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_GRAPH_UNCERT']</t>
+  </si>
+  <si>
+    <t>M_EMP_HCC</t>
+  </si>
+  <si>
+    <t>CS_567 OR SEME_567</t>
+  </si>
+  <si>
+    <t>['CS_567', 'SEME_567']</t>
+  </si>
+  <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_EMP_HCC']</t>
+  </si>
+  <si>
+    <t>M_CRYPT</t>
+  </si>
+  <si>
+    <t>ECE_578 OR CS_578</t>
+  </si>
+  <si>
+    <t>M_ADV_CRYPT</t>
+  </si>
+  <si>
+    <t>ECE_673 OR CS_673</t>
+  </si>
+  <si>
+    <t>4000_BI</t>
+  </si>
+  <si>
+    <t>MIS_4084</t>
+  </si>
+  <si>
+    <t>['MIS_4084']</t>
+  </si>
+  <si>
+    <t>['DS_4LDER', 'DS_BMP', 'DS_DE']</t>
+  </si>
+  <si>
+    <t>4000_PA</t>
+  </si>
+  <si>
+    <t>OIE_4430</t>
+  </si>
+  <si>
+    <t>['OIE_4430']</t>
+  </si>
+  <si>
+    <t>['UGG_REST_PRES_ANALYTICS', 'DS_4LDER', 'DS_BMP', 'DS_DE']</t>
+  </si>
+  <si>
+    <t>DPE_LEFTOVER</t>
+  </si>
+  <si>
+    <t>RBE_3100</t>
+  </si>
+  <si>
+    <t>['RBE_3100']</t>
+  </si>
+  <si>
+    <t>['DS_DPE']</t>
+  </si>
+  <si>
+    <t>M_AI_AET</t>
+  </si>
+  <si>
+    <t>CS_568 OR SEME_568</t>
+  </si>
+  <si>
+    <t>['CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>['C_REST_G_AI_AET']</t>
+  </si>
+  <si>
+    <t>HUA_DPE</t>
+  </si>
+  <si>
+    <t>SOC_SCI_DPE</t>
+  </si>
+  <si>
     <t>DS_1010, DS_2010, DS_3010</t>
   </si>
   <si>
-    <t>['DS_1010', 'DS_2010', 'DS_3010']</t>
-  </si>
-  <si>
-    <t>['DS_C']</t>
-  </si>
-  <si>
     <t>MA_ELECT</t>
   </si>
   <si>
     <t>Math Disciplinary Electives</t>
   </si>
   <si>
-    <t>['CS_2022', 'MA_2201', 'MA_3257', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_2621', 'MA_2631', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS']</t>
-  </si>
-  <si>
     <t>CS_ELECT</t>
   </si>
   <si>
     <t>Computer Science Disciplinary Electives</t>
   </si>
   <si>
-    <t>['CS_2301', 'CS_2303', 'CS_3041', 'CS_3133', 'CS_3733']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS']</t>
-  </si>
-  <si>
     <t>DIS_DPE</t>
   </si>
   <si>
-    <t>['CS_3043']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_DPE']</t>
-  </si>
-  <si>
     <t>3000L_CS_DAM</t>
   </si>
   <si>
-    <t>CS_3431</t>
-  </si>
-  <si>
-    <t>['CS_3431']</t>
-  </si>
-  <si>
     <t>['DS_DE', 'DS_CS', 'DS_DAM']</t>
   </si>
   <si>
@@ -1114,7 +1949,13 @@
     <t>['CS_4120', 'CS_4233', 'CS_4241', 'CS_4341', 'CS_4804']</t>
   </si>
   <si>
-    <t>['DS_DE', 'DS_CS', 'DS_4LDER']</t>
+    <t>500L_CS_ELECT</t>
+  </si>
+  <si>
+    <t>500-Level CS Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>['CS_534', 'CS_528', 'CS_582', 'CS_583', 'CS_561', 'CS_585', 'DS_503', 'DS_541', 'CS_541', 'CS_586', 'DS_504']</t>
   </si>
   <si>
     <t>DAT_MIN</t>
@@ -1129,6 +1970,12 @@
     <t>['DS_DE', 'DS_CS', 'DS_4LDER', 'DS_DMML']</t>
   </si>
   <si>
+    <t>500_L_DAT_MIN</t>
+  </si>
+  <si>
+    <t>500-Level CS Data Mining &amp; Machine Learning</t>
+  </si>
+  <si>
     <t>4000L_CS_DAM</t>
   </si>
   <si>
@@ -1141,16 +1988,28 @@
     <t>['DS_DE', 'DS_CS', 'DS_4LDER', 'DS_DAM']</t>
   </si>
   <si>
+    <t>500L_CS_DAM</t>
+  </si>
+  <si>
+    <t>500-Level CS Data Access and Management</t>
+  </si>
+  <si>
     <t>4000L_ELECT</t>
   </si>
   <si>
-    <t>MIS_4720, MIS_4741</t>
-  </si>
-  <si>
-    <t>['MIS_4720', 'MIS_4741']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_4LDER']</t>
+    <t>4000-Level Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>['BCB_4004', 'MIS_4720', 'MIS_4741']</t>
+  </si>
+  <si>
+    <t>500L_ELECT</t>
+  </si>
+  <si>
+    <t>500-Level Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>['MIS_571', 'MIS_587', 'MKT_568']</t>
   </si>
   <si>
     <t>4000L_MA_DE</t>
@@ -1159,31 +2018,40 @@
     <t>4000-Level Math Disciplinary Electives</t>
   </si>
   <si>
-    <t>['DS_DE', 'DS_MS', 'DS_4LDER']</t>
+    <t>['MA_4603', 'CS_4032', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632']</t>
+  </si>
+  <si>
+    <t>500L_MA_DE</t>
+  </si>
+  <si>
+    <t>500-Level Math Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>['MA_540', 'MA_541', 'MA_543', 'DS_502', 'MA_542', 'MA_554']</t>
   </si>
   <si>
     <t>BUS_DAM</t>
   </si>
   <si>
-    <t>MIS_3720</t>
-  </si>
-  <si>
-    <t>['MIS_3720']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_DAM']</t>
-  </si>
-  <si>
-    <t>BUS_DE</t>
-  </si>
-  <si>
-    <t>MIS_3787, MKT_3650, OIE_3460</t>
-  </si>
-  <si>
-    <t>['MIS_3787', 'MKT_3650', 'OIE_3460']</t>
-  </si>
-  <si>
-    <t>['DS_DE']</t>
+    <t>4000L_BMP</t>
+  </si>
+  <si>
+    <t>MIS_4084, OIE_4430</t>
+  </si>
+  <si>
+    <t>['MIS_4084', 'OIE_4430']</t>
+  </si>
+  <si>
+    <t>['DS_DE', 'DS_4LDER', 'DS_BMP']</t>
+  </si>
+  <si>
+    <t>500L_BMP</t>
+  </si>
+  <si>
+    <t>MIS_584, OIE_559</t>
+  </si>
+  <si>
+    <t>['MIS_584', 'OIE_559']</t>
   </si>
   <si>
     <t>MATH</t>
@@ -1192,902 +2060,302 @@
     <t>Calc I &amp; II</t>
   </si>
   <si>
-    <t>['MA_1020', 'MA_1021', 'MA_1022', 'MA_1120']</t>
-  </si>
-  <si>
-    <t>['DS_MS']</t>
-  </si>
-  <si>
     <t>ENTR_INV</t>
   </si>
   <si>
     <t>Entrepreneurship and Innovation</t>
   </si>
   <si>
-    <t>['BUS_1010', 'ETR_1100', 'BUS_3010', 'ETR_3633', 'OBC_1010', 'MIS_3010']</t>
-  </si>
-  <si>
-    <t>['DS_EI']</t>
-  </si>
-  <si>
-    <t>BUS_ANALYSIS</t>
-  </si>
-  <si>
-    <t>BUS_2080 OR OIE_2081</t>
-  </si>
-  <si>
-    <t>['BUS_2080', 'OIE_2081']</t>
-  </si>
-  <si>
-    <t>['DS_BA']</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
-    <t>MA_2611 AND MA_2612</t>
-  </si>
-  <si>
-    <t>['MA_2611', 'MA_2612']</t>
-  </si>
-  <si>
-    <t>['DS_STATS']</t>
-  </si>
-  <si>
-    <t>LIN_ALG</t>
-  </si>
-  <si>
-    <t>MA_2071 OR MA_2072</t>
-  </si>
-  <si>
-    <t>['MA_2071', 'MA_2072']</t>
-  </si>
-  <si>
-    <t>['DS_LA']</t>
-  </si>
-  <si>
-    <t>4000L_BMP</t>
-  </si>
-  <si>
-    <t>MIS_4084, OIE_4430</t>
-  </si>
-  <si>
-    <t>['MIS_4084', 'OIE_4430']</t>
-  </si>
-  <si>
-    <t>ALGO</t>
-  </si>
-  <si>
-    <t>CS_2223</t>
-  </si>
-  <si>
-    <t>['CS_2223']</t>
-  </si>
-  <si>
-    <t>['DS_ALGOS']</t>
-  </si>
-  <si>
     <t>ENG_SCI</t>
   </si>
   <si>
     <t>Natural and Engineering Sciences</t>
   </si>
   <si>
-    <t>['AE_DEPT', 'AREN_DEPT', 'BB_DEPT', 'BME_DEPT', 'CHE_DEPT', 'CE_DEPT', 'CH_DEPT', 'ECE_DEPT', 'GE_DEPT', 'ME_DEPT', 'PH_DEPT', 'RBE_DEPT']</t>
-  </si>
-  <si>
-    <t>['DS_NES']</t>
-  </si>
-  <si>
     <t>1000L_CS</t>
   </si>
   <si>
-    <t>CS_1004 OR CS_1101 OR CS_1102</t>
-  </si>
-  <si>
-    <t>['CS_1004', 'CS_1101', 'CS_1102']</t>
-  </si>
-  <si>
-    <t>['DS_CS', 'DS_CS_1000_L']</t>
-  </si>
-  <si>
-    <t>INTRO_CS</t>
-  </si>
-  <si>
-    <t>CS_2102 OR CS_2103 OR CS_2119</t>
-  </si>
-  <si>
-    <t>['CS_2102', 'CS_2103', 'CS_2119']</t>
-  </si>
-  <si>
-    <t>['DS_CS']</t>
-  </si>
-  <si>
-    <t>HUA_DPE</t>
-  </si>
-  <si>
-    <t>PY_2731, PY_2713, RE_2731</t>
-  </si>
-  <si>
-    <t>['PY_2731', 'PY_2713', 'RE_2731']</t>
-  </si>
-  <si>
-    <t>SOC_SCI_DPE</t>
-  </si>
-  <si>
-    <t>GOV_2314, GOV_2315, GOV_2313</t>
-  </si>
-  <si>
-    <t>['GOV_2314', 'GOV_2315', 'GOV_2313']</t>
-  </si>
-  <si>
     <t>DPE</t>
   </si>
   <si>
     <t>Data Privacy and Ethics</t>
   </si>
   <si>
-    <t>['RBE_3100']</t>
-  </si>
-  <si>
-    <t>['DS_DPE']</t>
-  </si>
-  <si>
-    <t>AR DEPT, TH DEPT, MUS_DEPT</t>
-  </si>
-  <si>
-    <t>['AR_DEPT', 'TH_DEPT', 'MUS_DEPT']</t>
-  </si>
-  <si>
-    <t>['HUA_CORE', 'HUA_DEPTH_SL_0', 'HUA_ART_MAX']</t>
-  </si>
-  <si>
-    <t>AB_DEPT, CN_DEPT, GN_DEPT, SP_DEPT</t>
-  </si>
-  <si>
-    <t>['AB_DEPT', 'CN_DEPT', 'GN_DEPT', 'SP_DEPT']</t>
-  </si>
-  <si>
-    <t>['HUA_CORE', 'HUA_DEPTH_SL_1']</t>
-  </si>
-  <si>
-    <t>EN_DEPT, WR_DEPT</t>
-  </si>
-  <si>
-    <t>['EN_DEPT', 'WR_DEPT']</t>
-  </si>
-  <si>
-    <t>['HUA_CORE', 'HUA_DEPTH_SL_2', 'HUA_WR_MAX']</t>
-  </si>
-  <si>
-    <t>HI_DEPT, HU_DEPT, INTL_DEPT</t>
-  </si>
-  <si>
-    <t>['HI_DEPT', 'HU_DEPT', 'INTL_DEPT']</t>
-  </si>
-  <si>
-    <t>['HUA_CORE', 'HUA_DEPTH_SL_3', 'HUA_HI_MAX']</t>
-  </si>
-  <si>
-    <t>PY_DEPT, RE_DEPT</t>
-  </si>
-  <si>
-    <t>['PY_DEPT', 'RE_DEPT']</t>
-  </si>
-  <si>
-    <t>['HUA_CORE', 'HUA_DEPTH_SL_4', 'HUA_PY_MAX']</t>
-  </si>
-  <si>
-    <t>HU_DPE</t>
-  </si>
-  <si>
-    <t>['HUA_CORE', 'DS_DPE']</t>
-  </si>
-  <si>
-    <t>HU_3900 OR HU_3910</t>
-  </si>
-  <si>
-    <t>['HU_3900', 'HU_3910']</t>
-  </si>
-  <si>
-    <t>['HUA_PROJ']</t>
-  </si>
-  <si>
-    <t>IQP OFF CAMPUS</t>
-  </si>
-  <si>
-    <t>['IQP_A', 'IQP_B', 'IQP_C', 'IQP_D', 'IQP_OFF_CAMPUS']</t>
-  </si>
-  <si>
-    <t>['IQP']</t>
-  </si>
-  <si>
-    <t>IQP ON CAMPUS</t>
-  </si>
-  <si>
-    <t>['IQP_ON_CAMPUS']</t>
-  </si>
-  <si>
-    <t>['IQP', 'ON_OFF_CAMPUS']</t>
-  </si>
-  <si>
-    <t>['ID_2050']</t>
-  </si>
-  <si>
-    <t>['SOC_SCI_REQ', 'ON_OFF_CAMPUS']</t>
-  </si>
-  <si>
-    <t>ECON_DEPT, ENV_DEPT, GOV_DEPT, PSY_DEPT, SD_DEPT, SOC_DEPT, SS_DEPT, STS_DEPT, DEV_DEPT</t>
-  </si>
-  <si>
-    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT']</t>
-  </si>
-  <si>
-    <t>['SOC_SCI_REQ']</t>
-  </si>
-  <si>
-    <t>SS_DPE</t>
-  </si>
-  <si>
-    <t>['SOC_SCI_REQ', 'DS_DPE']</t>
-  </si>
-  <si>
-    <t>DS_1010 AND DS_2010 AND DS_3010</t>
-  </si>
-  <si>
-    <t>MATH_DE</t>
-  </si>
-  <si>
-    <t>CS_2022, MA_2201, MA_3257, MA_1023, MA_1024, MA_1033, MA_1034, MA_2051, MA_2073, MA_2210, MA_2431, MA_2621, MA_2631, MA_3231, MA_3233, MA_3627, MA_3631</t>
-  </si>
-  <si>
-    <t>CS_DE</t>
-  </si>
-  <si>
-    <t>CS_2301, CS_2303, CS_3041, CS_3133, CS_3733</t>
-  </si>
-  <si>
-    <t>SOC_IMPS</t>
-  </si>
-  <si>
-    <t>DB_I</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DAM', 'UGG_REST_DB_I']</t>
-  </si>
-  <si>
-    <t>ANALYSIS_ALGOS</t>
-  </si>
-  <si>
-    <t>CS_4120</t>
-  </si>
-  <si>
-    <t>['CS_4120']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>CS_4000_NOT_DC</t>
-  </si>
-  <si>
-    <t>CS_4233, CS_4241, CS_4804</t>
-  </si>
-  <si>
-    <t>['CS_4233', 'CS_4241', 'CS_4804']</t>
-  </si>
-  <si>
-    <t>UG_AI</t>
-  </si>
-  <si>
-    <t>CS_4341</t>
-  </si>
-  <si>
-    <t>['CS_4341']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'UGG_REST_AI']</t>
-  </si>
-  <si>
-    <t>UG_ML</t>
-  </si>
-  <si>
-    <t>CS_4342</t>
-  </si>
-  <si>
-    <t>['CS_4342']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'DS_DMML', 'UGG_REST_MACH_LEARN']</t>
-  </si>
-  <si>
-    <t>UG_DB_II</t>
-  </si>
-  <si>
-    <t>CS_4432</t>
-  </si>
-  <si>
-    <t>['CS_4432']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'DS_DAM', 'UGG_REST_DB_MGMT_SYS']</t>
-  </si>
-  <si>
-    <t>BIG_DATA</t>
-  </si>
-  <si>
-    <t>CS_4433 OR DS_4433</t>
-  </si>
-  <si>
-    <t>['CS_4433', 'DS_4433']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_4LDER', 'DS_DAM', 'C_REST_BIG_DATA']</t>
-  </si>
-  <si>
-    <t>UG_DM</t>
-  </si>
-  <si>
-    <t>CS_4445</t>
-  </si>
-  <si>
-    <t>['CS_4445']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'DS_DMML', 'UGG_REST_DAT_MIN']</t>
-  </si>
-  <si>
-    <t>UG_BIOVIS</t>
-  </si>
-  <si>
-    <t>CS_4802 OR BCB_4002</t>
-  </si>
-  <si>
-    <t>['CS_4802', 'BCB_4002']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_BIOVIS', 'UGG_REST_BIOVIS']</t>
-  </si>
-  <si>
-    <t>UG_BIOMED_DM</t>
-  </si>
-  <si>
-    <t>CS_4803 OR BCB_4003</t>
-  </si>
-  <si>
-    <t>['CS_4803', 'BCB_4003']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_BIOMED_DM', 'UGG_REST_BIOMED_DAT_MIN']</t>
-  </si>
-  <si>
-    <t>UG_STAT_BIO</t>
-  </si>
-  <si>
-    <t>BCB_4004 OR MA_4603</t>
-  </si>
-  <si>
-    <t>['BCB_4004', 'MA_4603']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_STAT_BIO', 'UGG_REST_STAT_BIO']</t>
-  </si>
-  <si>
-    <t>4000_MA_DE_NOT_DC</t>
-  </si>
-  <si>
-    <t>CS_4032, MA_4213, MA_4214, MA_4222, MA_4237</t>
-  </si>
-  <si>
-    <t>['CS_4032', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4237']</t>
-  </si>
-  <si>
-    <t>UG_STAT_LEARN</t>
-  </si>
-  <si>
-    <t>DS_4635 OR MA_4635</t>
-  </si>
-  <si>
-    <t>['DS_4635', 'MA_4635']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'C_REST_DA_STAT_LEARN', 'UGG_REST_DA_STAT_LEARN']</t>
-  </si>
-  <si>
-    <t>MATH_OPT</t>
-  </si>
-  <si>
-    <t>MA_4235</t>
-  </si>
-  <si>
-    <t>['MA_4235']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>UG_PROB_STATS_I</t>
-  </si>
-  <si>
-    <t>MA_4631</t>
-  </si>
-  <si>
-    <t>['MA_4631']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'UGG_REST_PROB_I']</t>
-  </si>
-  <si>
-    <t>UG_PROB_STATS_II</t>
-  </si>
-  <si>
-    <t>MA_4632</t>
-  </si>
-  <si>
-    <t>['MA_4632']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_4LDER', 'UGG_REST_PROB_II']</t>
-  </si>
-  <si>
-    <t>MIS_DB</t>
-  </si>
-  <si>
-    <t>BUS_4000_DE</t>
-  </si>
-  <si>
-    <t>G_AI</t>
-  </si>
-  <si>
-    <t>CS_534</t>
-  </si>
-  <si>
-    <t>['CS_534']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_AI']</t>
-  </si>
-  <si>
-    <t>G_ML</t>
-  </si>
-  <si>
-    <t>CS_539</t>
-  </si>
-  <si>
-    <t>['CS_539']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_DMML', 'DS_M_DAT_MIN', 'UGG_REST_MACH_LEARN']</t>
-  </si>
-  <si>
-    <t>G_DB</t>
-  </si>
-  <si>
-    <t>CS_542</t>
-  </si>
-  <si>
-    <t>['CS_542']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_DAM', 'DS_M_DAT_MAN', 'UGG_REST_DB_MGMT_SYS', 'UGG_REST_DB_I']</t>
-  </si>
-  <si>
-    <t>G_DM</t>
-  </si>
-  <si>
-    <t>CS_548</t>
-  </si>
-  <si>
-    <t>['CS_548']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_DMML', 'DS_M_DAT_MIN', 'UGG_REST_DAT_MIN']</t>
-  </si>
-  <si>
-    <t>G_MOB_UB</t>
-  </si>
-  <si>
-    <t>CS_528</t>
-  </si>
-  <si>
-    <t>['CS_528']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_MOB_UB_COMP']</t>
-  </si>
-  <si>
-    <t>G_BIOVIS</t>
-  </si>
-  <si>
-    <t>CS_582 OR BCB_502</t>
-  </si>
-  <si>
-    <t>['CS_582', 'BCB_502']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'C_REST_G_BIOVIS', 'UGG_REST_BIOVIS']</t>
-  </si>
-  <si>
-    <t>G_BIOMED_DM</t>
-  </si>
-  <si>
-    <t>CS_583 OR BCB_503</t>
-  </si>
-  <si>
-    <t>['CS_583', 'BCB_503']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'C_REST_G_BIO_DM', 'UGG_REST_BIOMED_DAT_MIN']</t>
-  </si>
-  <si>
-    <t>G_PROB_STATS_I</t>
-  </si>
-  <si>
-    <t>MA_540</t>
-  </si>
-  <si>
-    <t>['MA_540']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_PROB_I']</t>
-  </si>
-  <si>
-    <t>G_PROB_STATS_II</t>
-  </si>
-  <si>
-    <t>MA_541</t>
-  </si>
-  <si>
-    <t>['MA_541']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'UGG_REST_PROB_II']</t>
-  </si>
-  <si>
-    <t>G_STAT_LEARN</t>
-  </si>
-  <si>
-    <t>MA_543 OR DS_502</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_MATH_ANALYTICS', 'C_REST_G_STAT_LEARN', 'UGG_REST_DA_STAT_LEARN']</t>
-  </si>
-  <si>
-    <t>M_MATH_ANALYTICS</t>
-  </si>
-  <si>
-    <t>MA_542 OR MA_554</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_MATH_ANALYTICS']</t>
-  </si>
-  <si>
-    <t>M_MIS_DB</t>
-  </si>
-  <si>
-    <t>MIS_571</t>
-  </si>
-  <si>
-    <t>['MIS_571']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MAN']</t>
-  </si>
-  <si>
-    <t>M_ADV_DB</t>
-  </si>
-  <si>
-    <t>CS_561</t>
-  </si>
-  <si>
-    <t>['CS_561']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MAN']</t>
-  </si>
-  <si>
-    <t>M_BIG_DATA_MAN</t>
-  </si>
-  <si>
-    <t>CS_585 OR DS_503</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MAN', 'C_REST_G_BIG_DATA_M']</t>
-  </si>
-  <si>
-    <t>M_DEEP_LEARN</t>
-  </si>
-  <si>
-    <t>DS_541 OR CS_541</t>
-  </si>
-  <si>
-    <t>['DS_541', 'CS_541']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MIN', 'C_REST_G_DEEP_LEARN']</t>
-  </si>
-  <si>
-    <t>M_BIG_DATA_AN</t>
-  </si>
-  <si>
-    <t>CS_586 OR DS_504</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_CS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_DAT_MIN', 'C_REST_G_BIG_DATA_A']</t>
-  </si>
-  <si>
-    <t>M_BI</t>
-  </si>
-  <si>
-    <t>MIS_584</t>
-  </si>
-  <si>
-    <t>['MIS_584']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_BMP', 'DS_M_BI_CASE']</t>
-  </si>
-  <si>
-    <t>M_BI_OTHER</t>
-  </si>
-  <si>
-    <t>MIS_587, MKT_568</t>
-  </si>
-  <si>
-    <t>['MIS_587', 'MKT_568']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_4LDER', 'DS_M_BI_CASE']</t>
-  </si>
-  <si>
-    <t>CALC_I_II</t>
-  </si>
-  <si>
-    <t>MA_1020, MA_1021, MA_1022, MA_1120</t>
-  </si>
-  <si>
-    <t>G_STAT_BIO</t>
-  </si>
-  <si>
-    <t>MA_584 OR BCB_504</t>
-  </si>
-  <si>
-    <t>['MA_584', 'BCB_504']</t>
-  </si>
-  <si>
-    <t>['DS_MS', 'DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'C_REST_G_STAT_BIO', 'UGG_REST_STAT_BIO']</t>
-  </si>
-  <si>
-    <t>ENG_ENTR</t>
-  </si>
-  <si>
-    <t>BUS_1010, ETR_1100, BUS_3010, ETR_3633, OBC_1010, MIS_3010</t>
-  </si>
-  <si>
-    <t>STATS</t>
-  </si>
-  <si>
-    <t>SCI_ENG</t>
-  </si>
-  <si>
-    <t>AE_DEPT, AREN_DEPT, BB_DEPT, BME_DEPT, CHE_DEPT, CE_DEPT, CH_DEPT, ECE_DEPT, GE_DEPT, ME_DEPT, PH_DEPT, RBE_DEPT</t>
-  </si>
-  <si>
-    <t>1000_CS</t>
-  </si>
-  <si>
-    <t>UG_MOB_UB</t>
-  </si>
-  <si>
-    <t>CS_4518</t>
-  </si>
-  <si>
-    <t>['CS_4518']</t>
-  </si>
-  <si>
-    <t>['DS_DOUBLE', 'UGG_REST_MOB_UB_COMP']</t>
-  </si>
-  <si>
-    <t>G_PRES_ANALYTICS</t>
-  </si>
-  <si>
-    <t>OIE_559</t>
-  </si>
-  <si>
-    <t>['OIE_559']</t>
-  </si>
-  <si>
-    <t>M_ELECTIVES</t>
-  </si>
-  <si>
-    <t>BUS_500, FIN_500, FIN_503, MIS_500, MIS_573, MIS_576, MIS_581, MIS_583, MIS_585, OBC_505, OBC_506, OIE_501, OIE_542, OIE_544, OIE_552, CS_5007, CS_504, CS_509, CS_525, CS_536, CS_545, CS_546, CS_549, CS_573, MA_511, MA_529, MA_546, MA_547, MA_549, MA_550, MA_552, MA_556, PSY_505, BCB_501, BME_595, ECE_502, ECE_503, ECE_504, ECE_630, ECE_5311, DS_501</t>
-  </si>
-  <si>
-    <t>['BUS_500', 'FIN_500', 'FIN_503', 'MIS_500', 'MIS_573', 'MIS_576', 'MIS_581', 'MIS_583', 'MIS_585', 'OBC_505', 'OBC_506', 'OIE_501', 'OIE_542', 'OIE_544', 'OIE_552', 'CS_5007', 'CS_504', 'CS_509', 'CS_525', 'CS_536', 'CS_545', 'CS_546', 'CS_549', 'CS_573', 'MA_511', 'MA_529', 'MA_546', 'MA_547', 'MA_549', 'MA_550', 'MA_552', 'MA_556', 'PSY_505', 'BCB_501', 'BME_595', 'ECE_502', 'ECE_503', 'ECE_504', 'ECE_630', 'ECE_5311', 'DS_501']</t>
-  </si>
-  <si>
-    <t>M_ALGOS</t>
-  </si>
-  <si>
-    <t>CS_5084 OR CS_584</t>
-  </si>
-  <si>
-    <t>['CS_5084', 'CS_584']</t>
-  </si>
-  <si>
-    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_ALGO']</t>
-  </si>
-  <si>
-    <t>M_INFO_RET</t>
-  </si>
-  <si>
-    <t>CS_547 OR DS_547</t>
-  </si>
-  <si>
-    <t>M_MATH_FOUND_DS</t>
-  </si>
-  <si>
-    <t>MA_517 OR DS_517</t>
-  </si>
-  <si>
-    <t>M_USER_MODEL</t>
-  </si>
-  <si>
-    <t>CS_565 OR SEME_565</t>
-  </si>
-  <si>
-    <t>['CS_565', 'SEME_565']</t>
-  </si>
-  <si>
-    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_USER_MODEL']</t>
-  </si>
-  <si>
-    <t>M_GRAPH_UNCERT</t>
-  </si>
-  <si>
-    <t>CS_566 OR SEME_566</t>
-  </si>
-  <si>
-    <t>['CS_566', 'SEME_566']</t>
-  </si>
-  <si>
-    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_GRAPH_UNCERT']</t>
-  </si>
-  <si>
-    <t>M_EMP_HCC</t>
-  </si>
-  <si>
-    <t>CS_567 OR SEME_567</t>
-  </si>
-  <si>
-    <t>['CS_567', 'SEME_567']</t>
-  </si>
-  <si>
-    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_EMP_HCC']</t>
-  </si>
-  <si>
-    <t>M_CRYPT</t>
-  </si>
-  <si>
-    <t>ECE_578 OR CS_578</t>
-  </si>
-  <si>
-    <t>M_ADV_CRYPT</t>
-  </si>
-  <si>
-    <t>ECE_673 OR CS_673</t>
-  </si>
-  <si>
-    <t>DPE_LEFTOVER</t>
-  </si>
-  <si>
-    <t>RBE_3100</t>
-  </si>
-  <si>
-    <t>M_AI_AET</t>
-  </si>
-  <si>
-    <t>CS_568 OR SEME_568</t>
-  </si>
-  <si>
-    <t>['CS_568', 'SEME_568']</t>
-  </si>
-  <si>
-    <t>['C_REST_G_AI_AET']</t>
-  </si>
-  <si>
-    <t>['DS_DE', 'DS_4LDER', 'DS_BMP']</t>
-  </si>
-  <si>
-    <t>4000-Level Disciplinary Electives</t>
-  </si>
-  <si>
-    <t>['CS_534', 'CS_528', 'CS_582', 'CS_583', 'CS_561', 'CS_585', 'DS_503', 'DS_541', 'CS_541', 'CS_586', 'DS_504']</t>
-  </si>
-  <si>
-    <t>500-Level CS Disciplinary Electives</t>
-  </si>
-  <si>
-    <t>500L_CS_ELECT</t>
-  </si>
-  <si>
-    <t>500_L_DAT_MIN</t>
-  </si>
-  <si>
-    <t>500L_CS_DAM</t>
-  </si>
-  <si>
-    <t>500L_ELECT</t>
-  </si>
-  <si>
-    <t>500L_MA_DE</t>
-  </si>
-  <si>
-    <t>500L_BMP</t>
-  </si>
-  <si>
-    <t>500-Level CS Data Mining &amp; Machine Learning</t>
-  </si>
-  <si>
-    <t>500-Level CS Data Access and Management</t>
-  </si>
-  <si>
-    <t>500-Level Disciplinary Electives</t>
-  </si>
-  <si>
-    <t>500-Level Math Disciplinary Electives</t>
-  </si>
-  <si>
-    <t>MIS_584, OIE_559</t>
-  </si>
-  <si>
-    <t>['MA_4603', 'CS_4032', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632']</t>
-  </si>
-  <si>
-    <t>['MA_540', 'MA_541', 'MA_543', 'DS_502', 'MA_542', 'MA_554']</t>
-  </si>
-  <si>
-    <t>['MIS_584', 'OIE_559']</t>
-  </si>
-  <si>
-    <t>['BCB_4004', 'MIS_4720', 'MIS_4741']</t>
-  </si>
-  <si>
-    <t>['MIS_571', 'MIS_587', 'MKT_568']</t>
-  </si>
-  <si>
-    <t>['DS_4LDER', 'DS_BMP', 'DS_DE']</t>
-  </si>
-  <si>
-    <t>OIE_4430</t>
-  </si>
-  <si>
-    <t>['DS_DOUBLE', 'DS_M_TOTAL_CREDITS', 'DS_BMP', 'UGG_REST_PRES_ANALYTICS', 'DS_DE', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>MIS_4084</t>
-  </si>
-  <si>
-    <t>4000_BI</t>
-  </si>
-  <si>
-    <t>4000_PA</t>
-  </si>
-  <si>
-    <t>['MIS_4084']</t>
-  </si>
-  <si>
-    <t>['OIE_4430']</t>
-  </si>
-  <si>
-    <t>['UGG_REST_PRES_ANALYTICS', 'DS_4LDER', 'DS_BMP', 'DS_DE']</t>
+    <t>CS_INTRO_OTHER_CORE</t>
+  </si>
+  <si>
+    <t>['CS_1101', 'CS_1102', 'CS_2011', 'CS_2102', 'CS_2103', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3041', 'CS_3431', 'CS_3516']</t>
+  </si>
+  <si>
+    <t>['CS_CORE']</t>
+  </si>
+  <si>
+    <t>DISCRETE_MA</t>
+  </si>
+  <si>
+    <t>CS_2022, MA_2201</t>
+  </si>
+  <si>
+    <t>['CS_2022', 'MA_2201']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH']</t>
+  </si>
+  <si>
+    <t>CS_OS</t>
+  </si>
+  <si>
+    <t>CS_3013</t>
+  </si>
+  <si>
+    <t>['CS_3013']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_SYS']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_SOC_IMPS']</t>
+  </si>
+  <si>
+    <t>CS_FOUND</t>
+  </si>
+  <si>
+    <t>CS_3133</t>
+  </si>
+  <si>
+    <t>['CS_3133']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_THRY']</t>
+  </si>
+  <si>
+    <t>CS_SOFT_ENG</t>
+  </si>
+  <si>
+    <t>CS_3733</t>
+  </si>
+  <si>
+    <t>['CS_3733']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_DESIGN']</t>
+  </si>
+  <si>
+    <t>CS_4000_UP</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_UPLVL_MIN']</t>
+  </si>
+  <si>
+    <t>['CS_4032', 'MA_3257']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH', 'CS_UPLVL_MIN']</t>
+  </si>
+  <si>
+    <t>['CS_4120', 'CS_4123', 'CS_4533', 'CS_4536', 'CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_UPLVL_MIN', 'CS_THRY']</t>
+  </si>
+  <si>
+    <t>['CS_4233', 'CS_509', 'CS_542', 'CS_546', 'CS_561', 'CS_562']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_UPLVL_MIN', 'CS_DESIGN']</t>
+  </si>
+  <si>
+    <t>['CS_4513', 'CS_4515', 'CS_4516', 'CS_502', 'CS_533', 'CS_535']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_UPLVL_MIN', 'CS_SYS']</t>
+  </si>
+  <si>
+    <t>['MA_2621', 'MA_2631']</t>
+  </si>
+  <si>
+    <t>['CS_PROB', 'CS_GEN_MATH']</t>
+  </si>
+  <si>
+    <t>['CS_STATS', 'CS_GEN_MATH']</t>
+  </si>
+  <si>
+    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541', 'MA_2071', 'MA_2072']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH']</t>
+  </si>
+  <si>
+    <t>['PH_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_0']</t>
+  </si>
+  <si>
+    <t>['CH_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_1']</t>
+  </si>
+  <si>
+    <t>['BB_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_2']</t>
+  </si>
+  <si>
+    <t>['GE_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_3']</t>
+  </si>
+  <si>
+    <t>['BME_DEPT', 'CE_DEPT', 'CHE_DEPT', 'ECE_DEPT', 'ES_DEPT', 'ME_DEPT', 'RBE_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_SCI_ENG']</t>
+  </si>
+  <si>
+    <t>['HUA_CORE']</t>
+  </si>
+  <si>
+    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2313']</t>
+  </si>
+  <si>
+    <t>['GOV_2314', 'GOV_2315']</t>
+  </si>
+  <si>
+    <t>['SOC_SCI_REQ', 'CS_SOC_IMPS']</t>
+  </si>
+  <si>
+    <t>['CS 3041', 'CS 3431']</t>
+  </si>
+  <si>
+    <t>['CS_DESIGN']</t>
+  </si>
+  <si>
+    <t>['ID_2314', 'IMGD_2000', 'RBE_3100']</t>
+  </si>
+  <si>
+    <t>['CS_SOC_IMPS']</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_528', 'CS_529', 'ECE_581', 'CS_534', 'CS_538', 'CS_539', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_5008', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>NUM_METHODS</t>
+  </si>
+  <si>
+    <t>CS_4032, MA_3257</t>
+  </si>
+  <si>
+    <t>UPR_LVL_THEORY</t>
+  </si>
+  <si>
+    <t>UPR_LVL_DESIGN</t>
+  </si>
+  <si>
+    <t>UPR_LVL_SYSTEMS</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>MA_2611, MA_2612</t>
+  </si>
+  <si>
+    <t>PH_DEPT</t>
+  </si>
+  <si>
+    <t>CH_DEPT</t>
+  </si>
+  <si>
+    <t>BB_DEPT</t>
+  </si>
+  <si>
+    <t>GE_DEPT</t>
+  </si>
+  <si>
+    <t>Engineering Electives</t>
+  </si>
+  <si>
+    <t>Humanities Capstone</t>
+  </si>
+  <si>
+    <t>SOC_SCI</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>GOV_2314, GOV_2315</t>
+  </si>
+  <si>
+    <t>Design Electives</t>
+  </si>
+  <si>
+    <t>Other Social Imps Classes</t>
+  </si>
+  <si>
+    <t>Math Electives</t>
+  </si>
+  <si>
+    <t>Humanities Social Imps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000+ Theory </t>
+  </si>
+  <si>
+    <t>4000+ Design</t>
+  </si>
+  <si>
+    <t>4000+ Systems</t>
+  </si>
+  <si>
+    <t>4000+ CS Courses</t>
+  </si>
+  <si>
+    <t>ENG_ELECT</t>
+  </si>
+  <si>
+    <t>FL_CON</t>
+  </si>
+  <si>
+    <t>HU_SOC_IMPS</t>
+  </si>
+  <si>
+    <t>HU_CAP</t>
+  </si>
+  <si>
+    <t>IQP_OFF</t>
+  </si>
+  <si>
+    <t>IQP_ON</t>
+  </si>
+  <si>
+    <t>SOC_IMP_GOVS</t>
+  </si>
+  <si>
+    <t>CS_DES_3000</t>
+  </si>
+  <si>
+    <t>OTHER_SOC_IMPS</t>
+  </si>
+  <si>
+    <t>Core CS classes</t>
+  </si>
+  <si>
+    <t>MA_2621, MA_2631</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,6 +2402,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2143,7 +2417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2207,11 +2481,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2259,6 +2548,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2580,19 +2875,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2616,7 +2911,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +2957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2685,7 +2980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2708,7 +3003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2731,7 +3026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2754,7 +3049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2777,7 +3072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2800,7 +3095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +3118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2860,16 +3155,16 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="58.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="58.5" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +3187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2915,7 +3210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2938,7 +3233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2961,7 +3256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -2984,7 +3279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -3007,7 +3302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -3030,7 +3325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -3053,7 +3348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -3076,7 +3371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -3099,7 +3394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -3122,7 +3417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -3145,7 +3440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -3168,7 +3463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -3191,7 +3486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -3214,7 +3509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -3237,7 +3532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +3555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -3306,7 +3601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3329,7 +3624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3352,7 +3647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3398,7 +3693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3421,7 +3716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +3739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -3467,7 +3762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -3484,18 +3779,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3815,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -3544,7 +3839,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -3568,7 +3863,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -3592,7 +3887,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -3616,7 +3911,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -3640,7 +3935,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -3664,7 +3959,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -3688,7 +3983,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -3712,7 +4007,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -3736,7 +4031,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -3760,7 +4055,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -3784,7 +4079,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -3808,7 +4103,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -3832,7 +4127,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -3856,7 +4151,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -3880,7 +4175,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -3904,7 +4199,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -3928,7 +4223,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -3952,7 +4247,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -3976,7 +4271,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -4000,7 +4295,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -4024,7 +4319,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -4048,7 +4343,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -4072,7 +4367,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -4095,7 +4390,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -4118,7 +4413,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -4141,7 +4436,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -4164,7 +4459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -4210,7 +4505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -4233,7 +4528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -4256,7 +4551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -4279,7 +4574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -4302,7 +4597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -4325,7 +4620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -4348,7 +4643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -4385,18 +4680,18 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +4715,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4444,7 +4739,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4468,7 +4763,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4492,7 +4787,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4516,7 +4811,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -4540,7 +4835,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -4564,7 +4859,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -4588,7 +4883,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -4612,7 +4907,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -4636,7 +4931,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -4660,7 +4955,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -4684,7 +4979,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -4708,7 +5003,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -4732,7 +5027,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -4756,7 +5051,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -4780,7 +5075,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -4804,7 +5099,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -4828,7 +5123,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -4852,7 +5147,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -4876,7 +5171,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -4900,7 +5195,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -4924,7 +5219,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -4948,7 +5243,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -4972,7 +5267,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
@@ -4996,7 +5291,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -5020,7 +5315,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -5044,7 +5339,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -5068,7 +5363,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -5092,7 +5387,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -5116,7 +5411,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -5140,7 +5435,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -5164,7 +5459,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -5188,7 +5483,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -5212,7 +5507,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -5236,7 +5531,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -5260,7 +5555,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -5284,7 +5579,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -5308,7 +5603,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -5331,7 +5626,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -5354,7 +5649,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -5377,7 +5672,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -5400,7 +5695,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -5423,7 +5718,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -5446,7 +5741,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +5764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -5492,7 +5787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -5515,7 +5810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -5538,7 +5833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -5561,7 +5856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -5584,7 +5879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -5607,7 +5902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -5630,7 +5925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -5653,7 +5948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -5690,17 +5985,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5723,7 +6018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -5746,7 +6041,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -5769,7 +6064,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -5792,7 +6087,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -5815,7 +6110,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -5838,7 +6133,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -5861,7 +6156,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -5884,7 +6179,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -5907,7 +6202,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -5930,7 +6225,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -5953,7 +6248,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -5976,7 +6271,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -5999,7 +6294,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -6022,7 +6317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -6045,7 +6340,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -6068,7 +6363,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -6097,22 +6392,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" customWidth="1"/>
+    <col min="7" max="7" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +6430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -6149,16 +6444,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6172,16 +6467,16 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -6195,16 +6490,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -6218,16 +6513,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -6241,18 +6536,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -6264,16 +6559,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="F7" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -6287,16 +6582,16 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>360</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -6310,16 +6605,16 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>455</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>363</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6333,16 +6628,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>366</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6359,13 +6654,13 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -6379,18 +6674,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -6402,18 +6697,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -6425,18 +6720,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>469</v>
+        <v>381</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -6448,18 +6743,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -6471,18 +6766,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>386</v>
       </c>
       <c r="F16" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6497,15 +6792,15 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6517,18 +6812,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6540,18 +6835,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="F19" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -6563,18 +6858,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>483</v>
+        <v>404</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6586,18 +6881,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>406</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>487</v>
+        <v>408</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6609,18 +6904,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>410</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6632,18 +6927,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -6655,18 +6950,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
-        <v>497</v>
+        <v>418</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6678,18 +6973,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="F25" t="s">
-        <v>501</v>
+        <v>422</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -6701,18 +6996,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="F26" t="s">
-        <v>505</v>
+        <v>426</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -6724,18 +7019,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="F27" t="s">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>432</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -6747,18 +7042,18 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>512</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -6770,18 +7065,18 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>516</v>
+        <v>437</v>
       </c>
       <c r="F29" t="s">
-        <v>517</v>
+        <v>438</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>518</v>
+        <v>440</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -6793,18 +7088,18 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="F30" t="s">
-        <v>520</v>
+        <v>442</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6816,18 +7111,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="F31" t="s">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>526</v>
+        <v>448</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6839,18 +7134,18 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>527</v>
+        <v>449</v>
       </c>
       <c r="F32" t="s">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>452</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6862,18 +7157,18 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>531</v>
+        <v>453</v>
       </c>
       <c r="F33" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>534</v>
+        <v>456</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6885,18 +7180,18 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="F34" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -6908,18 +7203,18 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="F35" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>535</v>
+        <v>464</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -6931,18 +7226,18 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>372</v>
+        <v>465</v>
       </c>
       <c r="F36" t="s">
-        <v>373</v>
+        <v>466</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -6954,18 +7249,18 @@
         <v>4.5</v>
       </c>
       <c r="E37" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="F37" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6977,18 +7272,18 @@
         <v>4.5</v>
       </c>
       <c r="E38" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="F38" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7000,18 +7295,18 @@
         <v>4.5</v>
       </c>
       <c r="E39" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="F39" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7023,18 +7318,18 @@
         <v>4.5</v>
       </c>
       <c r="E40" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="F40" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7046,18 +7341,18 @@
         <v>4.5</v>
       </c>
       <c r="E41" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="F41" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -7069,18 +7364,18 @@
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="F42" t="s">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -7092,18 +7387,18 @@
         <v>4.5</v>
       </c>
       <c r="E43" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="F43" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>564</v>
+        <v>496</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7115,18 +7410,18 @@
         <v>4.5</v>
       </c>
       <c r="E44" t="s">
-        <v>565</v>
+        <v>497</v>
       </c>
       <c r="F44" t="s">
-        <v>566</v>
+        <v>498</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>568</v>
+        <v>500</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7138,18 +7433,18 @@
         <v>4.5</v>
       </c>
       <c r="E45" t="s">
-        <v>569</v>
+        <v>501</v>
       </c>
       <c r="F45" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -7161,18 +7456,18 @@
         <v>4.5</v>
       </c>
       <c r="E46" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="F46" t="s">
         <v>318</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -7184,18 +7479,18 @@
         <v>4.5</v>
       </c>
       <c r="E47" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="F47" t="s">
         <v>314</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -7207,18 +7502,18 @@
         <v>4.5</v>
       </c>
       <c r="E48" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="F48" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7230,18 +7525,18 @@
         <v>4.5</v>
       </c>
       <c r="E49" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="F49" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -7253,18 +7548,18 @@
         <v>4.5</v>
       </c>
       <c r="E50" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="F50" t="s">
         <v>302</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>589</v>
+        <v>521</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -7276,18 +7571,18 @@
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="F51" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -7299,18 +7594,18 @@
         <v>4.5</v>
       </c>
       <c r="E52" t="s">
-        <v>594</v>
+        <v>526</v>
       </c>
       <c r="F52" t="s">
         <v>306</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>596</v>
+        <v>528</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7322,18 +7617,18 @@
         <v>4.5</v>
       </c>
       <c r="E53" t="s">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="F53" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>600</v>
+        <v>532</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7345,18 +7640,18 @@
         <v>4.5</v>
       </c>
       <c r="E54" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="F54" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -7368,18 +7663,18 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="F55" t="s">
-        <v>388</v>
+        <v>538</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -7391,18 +7686,18 @@
         <v>4.5</v>
       </c>
       <c r="E56" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="F56" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -7414,18 +7709,18 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="F57" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>548</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7437,18 +7732,18 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>395</v>
+        <v>549</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7460,18 +7755,18 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
+        <v>554</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>402</v>
+        <v>556</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -7483,18 +7778,18 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>403</v>
+        <v>557</v>
       </c>
       <c r="F60" t="s">
-        <v>404</v>
+        <v>558</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>560</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7506,18 +7801,18 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>562</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -7529,18 +7824,18 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>566</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -7552,18 +7847,18 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>570</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>572</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -7575,18 +7870,18 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
       <c r="F64" t="s">
-        <v>423</v>
+        <v>574</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7598,18 +7893,18 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="F65" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7621,18 +7916,18 @@
         <v>4.5</v>
       </c>
       <c r="E66" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="F66" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="B67">
         <v>41</v>
@@ -7644,18 +7939,18 @@
         <v>4.5</v>
       </c>
       <c r="E67" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="F67" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -7667,18 +7962,18 @@
         <v>4.5</v>
       </c>
       <c r="E68" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="F68" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -7690,7 +7985,7 @@
         <v>4.5</v>
       </c>
       <c r="E69" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="F69" t="s">
         <v>298</v>
@@ -7699,9 +7994,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -7713,7 +8008,7 @@
         <v>4.5</v>
       </c>
       <c r="E70" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
       <c r="F70" t="s">
         <v>310</v>
@@ -7722,9 +8017,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -7736,18 +8031,18 @@
         <v>4.5</v>
       </c>
       <c r="E71" t="s">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="F71" t="s">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -7759,18 +8054,18 @@
         <v>4.5</v>
       </c>
       <c r="E72" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="F72" t="s">
-        <v>640</v>
+        <v>601</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -7782,18 +8077,18 @@
         <v>4.5</v>
       </c>
       <c r="E73" t="s">
-        <v>643</v>
+        <v>604</v>
       </c>
       <c r="F73" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -7805,7 +8100,7 @@
         <v>4.5</v>
       </c>
       <c r="E74" t="s">
-        <v>647</v>
+        <v>608</v>
       </c>
       <c r="F74" t="s">
         <v>334</v>
@@ -7814,9 +8109,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -7828,7 +8123,7 @@
         <v>4.5</v>
       </c>
       <c r="E75" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="F75" t="s">
         <v>338</v>
@@ -7837,9 +8132,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7851,18 +8146,18 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="F76" t="s">
-        <v>682</v>
+        <v>613</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7874,18 +8169,18 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="F77" t="s">
-        <v>683</v>
+        <v>617</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7897,18 +8192,18 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="F78" t="s">
-        <v>433</v>
+        <v>621</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -7920,13 +8215,13 @@
         <v>4.5</v>
       </c>
       <c r="E79" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -7935,22 +8230,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7973,7 +8268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -7990,13 +8285,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -8013,13 +8308,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -8036,13 +8331,13 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -8059,13 +8354,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -8082,15 +8377,15 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>627</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -8102,16 +8397,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="F7" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -8128,13 +8423,13 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>360</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -8151,13 +8446,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>363</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -8174,14 +8469,14 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>366</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -8195,16 +8490,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="F11" t="s">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -8221,15 +8516,15 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>628</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -8244,15 +8539,15 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -8264,18 +8559,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>341</v>
+        <v>629</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>630</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -8287,18 +8582,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>631</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>632</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -8310,18 +8605,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>634</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -8336,15 +8631,15 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>635</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -8356,18 +8651,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>637</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -8379,18 +8674,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>360</v>
+        <v>638</v>
       </c>
       <c r="F19" t="s">
-        <v>361</v>
+        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -8402,18 +8697,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="F20" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>643</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -8425,18 +8720,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>364</v>
+        <v>644</v>
       </c>
       <c r="F21" t="s">
-        <v>365</v>
+        <v>645</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -8448,18 +8743,18 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>649</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -8471,18 +8766,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>368</v>
+        <v>650</v>
       </c>
       <c r="F23" t="s">
-        <v>369</v>
+        <v>651</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -8494,18 +8789,18 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F24" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>655</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -8517,18 +8812,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>656</v>
+      </c>
+      <c r="F25" t="s">
         <v>657</v>
       </c>
-      <c r="F25" t="s">
-        <v>674</v>
-      </c>
       <c r="G25" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -8540,18 +8835,18 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="F26" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>661</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -8563,16 +8858,16 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>376</v>
+        <v>662</v>
       </c>
       <c r="F27" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>664</v>
       </c>
@@ -8586,87 +8881,87 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
+        <v>665</v>
+      </c>
+      <c r="F28" t="s">
+        <v>666</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>667</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>457</v>
+      </c>
+      <c r="F29" t="s">
+        <v>458</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" t="s">
+        <v>462</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>668</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>669</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F31" t="s">
+        <v>670</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>672</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>378</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>379</v>
-      </c>
-      <c r="F29" t="s">
-        <v>380</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>383</v>
-      </c>
-      <c r="F30" t="s">
-        <v>384</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>406</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>407</v>
-      </c>
-      <c r="F31" t="s">
-        <v>408</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>665</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -8678,18 +8973,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>675</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -8701,18 +8996,18 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>387</v>
+        <v>676</v>
       </c>
       <c r="F33" t="s">
-        <v>388</v>
+        <v>538</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>677</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -8724,18 +9019,18 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>391</v>
+        <v>678</v>
       </c>
       <c r="F34" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>394</v>
+        <v>548</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8747,18 +9042,18 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>395</v>
+        <v>549</v>
       </c>
       <c r="F35" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>679</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -8770,18 +9065,18 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>554</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>556</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -8793,18 +9088,18 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>403</v>
+        <v>557</v>
       </c>
       <c r="F37" t="s">
-        <v>404</v>
+        <v>558</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>409</v>
+        <v>560</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8816,18 +9111,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="F38" t="s">
-        <v>411</v>
+        <v>562</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>413</v>
+        <v>680</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -8839,18 +9134,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>414</v>
+        <v>681</v>
       </c>
       <c r="F39" t="s">
-        <v>415</v>
+        <v>566</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>417</v>
+        <v>682</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -8862,18 +9157,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>570</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>421</v>
+        <v>572</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -8885,18 +9180,18 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
       <c r="F41" t="s">
-        <v>423</v>
+        <v>574</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>431</v>
+        <v>683</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8908,13 +9203,819 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>432</v>
+        <v>684</v>
       </c>
       <c r="F42" t="s">
-        <v>433</v>
+        <v>621</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>434</v>
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B8">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>762</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>740</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>759</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>760</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>744</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>773</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>745</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>757</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>746</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>747</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>748</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>748</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>750</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>764</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>765</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>758</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>766</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>751</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>767</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>768</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>752</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>753</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>754</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>770</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>755</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>771</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>756</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9087E9B-9F31-1A45-973F-5276D1F4AF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0142B-DD9B-7A4A-B28B-D0E78B277EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="DS_MASTER" sheetId="5" r:id="rId5"/>
     <sheet name="DS_DS_BSMS" sheetId="6" r:id="rId6"/>
     <sheet name="DS_MAJOR" sheetId="7" r:id="rId7"/>
-    <sheet name="CS_MAJOR" sheetId="9" r:id="rId8"/>
+    <sheet name="CS_MAJOR" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="785">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -2087,7 +2087,7 @@
     <t>CS_INTRO_OTHER_CORE</t>
   </si>
   <si>
-    <t>['CS_1101', 'CS_1102', 'CS_2011', 'CS_2102', 'CS_2103', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3041', 'CS_3431', 'CS_3516']</t>
+    <t>Core CS classes</t>
   </si>
   <si>
     <t>['CS_CORE']</t>
@@ -2135,106 +2135,232 @@
     <t>CS_SOFT_ENG</t>
   </si>
   <si>
-    <t>CS_3733</t>
-  </si>
-  <si>
-    <t>['CS_3733']</t>
-  </si>
-  <si>
     <t>['CS_CORE', 'CS_DESIGN']</t>
   </si>
   <si>
-    <t>CS_4000_UP</t>
+    <t>CS_4000</t>
+  </si>
+  <si>
+    <t>4000 CS Courses</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804']</t>
   </si>
   <si>
     <t>['CS_CORE', 'CS_UPLVL_MIN']</t>
   </si>
   <si>
+    <t>CS_GRAD</t>
+  </si>
+  <si>
+    <t>Grad CS Courses</t>
+  </si>
+  <si>
+    <t>['BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_528', 'CS_529', 'ECE_581', 'CS_534', 'CS_538', 'CS_539', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_5008', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>NUM_METHODS</t>
+  </si>
+  <si>
+    <t>CS_4032 OR MA_3257</t>
+  </si>
+  <si>
     <t>['CS_4032', 'MA_3257']</t>
   </si>
   <si>
     <t>['CS_CORE', 'CS_GEN_MATH', 'CS_UPLVL_MIN']</t>
   </si>
   <si>
-    <t>['CS_4120', 'CS_4123', 'CS_4533', 'CS_4536', 'CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
+    <t>4000_LVL_THEORY</t>
+  </si>
+  <si>
+    <t>CS_4120, CS_4123, CS_4533, CS_4536</t>
+  </si>
+  <si>
+    <t>['CS_4120', 'CS_4123', 'CS_4533', 'CS_4536']</t>
   </si>
   <si>
     <t>['CS_CORE', 'CS_UPLVL_MIN', 'CS_THRY']</t>
   </si>
   <si>
-    <t>['CS_4233', 'CS_509', 'CS_542', 'CS_546', 'CS_561', 'CS_562']</t>
+    <t>GRAD_LVL_THEORY</t>
+  </si>
+  <si>
+    <t>CS_503, CS_536, CS_544, CS_584, CS_5003, CS_5084]</t>
+  </si>
+  <si>
+    <t>['CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
+  </si>
+  <si>
+    <t>4000_LVL_DESIGN</t>
+  </si>
+  <si>
+    <t>CS_4233</t>
+  </si>
+  <si>
+    <t>['CS_4233']</t>
   </si>
   <si>
     <t>['CS_CORE', 'CS_UPLVL_MIN', 'CS_DESIGN']</t>
   </si>
   <si>
-    <t>['CS_4513', 'CS_4515', 'CS_4516', 'CS_502', 'CS_533', 'CS_535']</t>
+    <t>GRAD_LVL_DESIGN</t>
+  </si>
+  <si>
+    <t>CS_509, CS_542, CS_546, CS_561, CS_562</t>
+  </si>
+  <si>
+    <t>['CS_509', 'CS_542', 'CS_546', 'CS_561', 'CS_562']</t>
+  </si>
+  <si>
+    <t>4000_LVL_SYSTEMS</t>
+  </si>
+  <si>
+    <t>CS_4513, CS_4515, CS_4516</t>
+  </si>
+  <si>
+    <t>['CS_4513', 'CS_4515', 'CS_4516']</t>
   </si>
   <si>
     <t>['CS_CORE', 'CS_UPLVL_MIN', 'CS_SYS']</t>
   </si>
   <si>
+    <t>GRAD_LVL_SYSTEMS</t>
+  </si>
+  <si>
+    <t>CS_502, CS_533, CS_535</t>
+  </si>
+  <si>
+    <t>['CS_502', 'CS_533', 'CS_535']</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>MA_2621, MA_2631</t>
+  </si>
+  <si>
     <t>['MA_2621', 'MA_2631']</t>
   </si>
   <si>
     <t>['CS_PROB', 'CS_GEN_MATH']</t>
   </si>
   <si>
+    <t>MA_2611, MA_2612</t>
+  </si>
+  <si>
     <t>['CS_STATS', 'CS_GEN_MATH']</t>
   </si>
   <si>
-    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541', 'MA_2071', 'MA_2072']</t>
+    <t>MATH_UG</t>
+  </si>
+  <si>
+    <t>Math Electives</t>
   </si>
   <si>
     <t>['CS_GEN_MATH']</t>
   </si>
   <si>
+    <t>MATH_GRAD</t>
+  </si>
+  <si>
+    <t>PH_DEPT</t>
+  </si>
+  <si>
     <t>['PH_DEPT']</t>
   </si>
   <si>
     <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_0']</t>
   </si>
   <si>
+    <t>CH_DEPT</t>
+  </si>
+  <si>
     <t>['CH_DEPT']</t>
   </si>
   <si>
     <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_1']</t>
   </si>
   <si>
+    <t>BB_DEPT</t>
+  </si>
+  <si>
     <t>['BB_DEPT']</t>
   </si>
   <si>
     <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_2']</t>
   </si>
   <si>
+    <t>GE_DEPT</t>
+  </si>
+  <si>
     <t>['GE_DEPT']</t>
   </si>
   <si>
     <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_3']</t>
   </si>
   <si>
+    <t>ENG_ELECT</t>
+  </si>
+  <si>
+    <t>Engineering Electives</t>
+  </si>
+  <si>
     <t>['BME_DEPT', 'CE_DEPT', 'CHE_DEPT', 'ECE_DEPT', 'ES_DEPT', 'ME_DEPT', 'RBE_DEPT']</t>
   </si>
   <si>
     <t>['CS_SCI_ENG']</t>
   </si>
   <si>
+    <t>FL_CON</t>
+  </si>
+  <si>
+    <t>HU_SOC_IMPS</t>
+  </si>
+  <si>
+    <t>Humanities Social Imps</t>
+  </si>
+  <si>
     <t>['HUA_CORE']</t>
   </si>
   <si>
+    <t>HU_CAP</t>
+  </si>
+  <si>
+    <t>Humanities Capstone</t>
+  </si>
+  <si>
+    <t>IQP_OFF</t>
+  </si>
+  <si>
+    <t>IQP_ON</t>
+  </si>
+  <si>
+    <t>SOC_SCI</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
     <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2313']</t>
   </si>
   <si>
+    <t>SOC_IMP_GOVS</t>
+  </si>
+  <si>
+    <t>GOV_2314, GOV_2315</t>
+  </si>
+  <si>
     <t>['GOV_2314', 'GOV_2315']</t>
   </si>
   <si>
     <t>['SOC_SCI_REQ', 'CS_SOC_IMPS']</t>
   </si>
   <si>
-    <t>['CS 3041', 'CS 3431']</t>
-  </si>
-  <si>
-    <t>['CS_DESIGN']</t>
+    <t>OTHER_SOC_IMPS</t>
+  </si>
+  <si>
+    <t>Other Social Imps Classes</t>
   </si>
   <si>
     <t>['ID_2314', 'IMGD_2000', 'RBE_3100']</t>
@@ -2243,112 +2369,19 @@
     <t>['CS_SOC_IMPS']</t>
   </si>
   <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_528', 'CS_529', 'ECE_581', 'CS_534', 'CS_538', 'CS_539', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_5008', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
-  </si>
-  <si>
-    <t>NUM_METHODS</t>
-  </si>
-  <si>
-    <t>CS_4032, MA_3257</t>
-  </si>
-  <si>
-    <t>UPR_LVL_THEORY</t>
-  </si>
-  <si>
-    <t>UPR_LVL_DESIGN</t>
-  </si>
-  <si>
-    <t>UPR_LVL_SYSTEMS</t>
-  </si>
-  <si>
-    <t>PROB</t>
-  </si>
-  <si>
-    <t>MA_2611, MA_2612</t>
-  </si>
-  <si>
-    <t>PH_DEPT</t>
-  </si>
-  <si>
-    <t>CH_DEPT</t>
-  </si>
-  <si>
-    <t>BB_DEPT</t>
-  </si>
-  <si>
-    <t>GE_DEPT</t>
-  </si>
-  <si>
-    <t>Engineering Electives</t>
-  </si>
-  <si>
-    <t>Humanities Capstone</t>
-  </si>
-  <si>
-    <t>SOC_SCI</t>
-  </si>
-  <si>
-    <t>Social Sciences</t>
-  </si>
-  <si>
-    <t>GOV_2314, GOV_2315</t>
-  </si>
-  <si>
-    <t>Design Electives</t>
-  </si>
-  <si>
-    <t>Other Social Imps Classes</t>
-  </si>
-  <si>
-    <t>Math Electives</t>
-  </si>
-  <si>
-    <t>Humanities Social Imps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000+ Theory </t>
-  </si>
-  <si>
-    <t>4000+ Design</t>
-  </si>
-  <si>
-    <t>4000+ Systems</t>
-  </si>
-  <si>
-    <t>4000+ CS Courses</t>
-  </si>
-  <si>
-    <t>ENG_ELECT</t>
-  </si>
-  <si>
-    <t>FL_CON</t>
-  </si>
-  <si>
-    <t>HU_SOC_IMPS</t>
-  </si>
-  <si>
-    <t>HU_CAP</t>
-  </si>
-  <si>
-    <t>IQP_OFF</t>
-  </si>
-  <si>
-    <t>IQP_ON</t>
-  </si>
-  <si>
-    <t>SOC_IMP_GOVS</t>
-  </si>
-  <si>
-    <t>CS_DES_3000</t>
-  </si>
-  <si>
-    <t>OTHER_SOC_IMPS</t>
-  </si>
-  <si>
-    <t>Core CS classes</t>
-  </si>
-  <si>
-    <t>MA_2621, MA_2631</t>
+    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632',  'MA_2071', 'MA_2072']</t>
+  </si>
+  <si>
+    <t>['DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
+  </si>
+  <si>
+    <t>['CS 3041', 'CS 3431', 'CS_3733']</t>
+  </si>
+  <si>
+    <t>CS_3041, CS_3431, CS_3733</t>
+  </si>
+  <si>
+    <t>['CS_1101', 'CS_1102', 'CS_2011', 'CS_2102', 'CS_2103', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3516']</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -8233,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8489,8 +8522,8 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>374</v>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>368</v>
@@ -8535,8 +8568,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
+      <c r="E13" t="s">
+        <v>374</v>
       </c>
       <c r="F13" t="s">
         <v>375</v>
@@ -9218,11 +9251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9236,7 +9269,7 @@
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -9259,7 +9292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -9267,22 +9300,22 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>686</v>
+        <v>784</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>688</v>
       </c>
@@ -9305,7 +9338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>692</v>
       </c>
@@ -9313,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9328,7 +9361,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -9336,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -9351,7 +9384,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>697</v>
       </c>
@@ -9359,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -9374,124 +9407,124 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>701</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>703</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="160" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F8" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="B8">
-        <v>83</v>
-      </c>
-      <c r="C8">
-        <v>83</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>762</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>711</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>759</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>742</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>760</v>
+        <v>715</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -9500,522 +9533,614 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="s">
+        <v>719</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>721</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>722</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>725</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>726</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>728</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>732</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>735</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>736</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>739</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>742</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>744</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>4.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>742</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>745</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>748</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>748</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>751</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>751</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>754</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>757</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>758</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>761</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>744</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>762</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>763</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>765</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>766</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>767</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>768</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>769</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>770</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>772</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>773</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>552</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>745</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>675</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>757</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>746</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>746</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>747</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>747</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>748</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>748</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>749</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>749</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>763</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>750</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>764</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>765</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>766</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>751</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>767</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>768</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>752</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>753</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>769</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>754</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>770</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>755</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>771</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>756</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>737</v>
+      <c r="F37" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>776</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>777</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0142B-DD9B-7A4A-B28B-D0E78B277EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C23C9-787D-C041-BCDA-9D019FAE5F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="DS_DS_BSMS" sheetId="6" r:id="rId6"/>
     <sheet name="DS_MAJOR" sheetId="7" r:id="rId7"/>
     <sheet name="CS_MAJOR" sheetId="8" r:id="rId8"/>
+    <sheet name="CS_MAJOR3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="808">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -2084,9 +2085,6 @@
     <t>Data Privacy and Ethics</t>
   </si>
   <si>
-    <t>CS_INTRO_OTHER_CORE</t>
-  </si>
-  <si>
     <t>Core CS classes</t>
   </si>
   <si>
@@ -2135,6 +2133,12 @@
     <t>CS_SOFT_ENG</t>
   </si>
   <si>
+    <t>CS_3041, CS_3431, CS_3733</t>
+  </si>
+  <si>
+    <t>['CS 3041', 'CS 3431', 'CS_3733']</t>
+  </si>
+  <si>
     <t>['CS_CORE', 'CS_DESIGN']</t>
   </si>
   <si>
@@ -2258,12 +2262,18 @@
     <t>Math Electives</t>
   </si>
   <si>
+    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632',  'MA_2071', 'MA_2072']</t>
+  </si>
+  <si>
     <t>['CS_GEN_MATH']</t>
   </si>
   <si>
     <t>MATH_GRAD</t>
   </si>
   <si>
+    <t>['DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
+  </si>
+  <si>
     <t>PH_DEPT</t>
   </si>
   <si>
@@ -2369,26 +2379,86 @@
     <t>['CS_SOC_IMPS']</t>
   </si>
   <si>
-    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632',  'MA_2071', 'MA_2072']</t>
-  </si>
-  <si>
-    <t>['DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
-  </si>
-  <si>
-    <t>['CS 3041', 'CS 3431', 'CS_3733']</t>
-  </si>
-  <si>
-    <t>CS_3041, CS_3431, CS_3733</t>
-  </si>
-  <si>
-    <t>['CS_1101', 'CS_1102', 'CS_2011', 'CS_2102', 'CS_2103', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3516']</t>
+    <t>['CS_CORE', 'CS_1000_REST']</t>
+  </si>
+  <si>
+    <t>['CS_1101', 'CS_1102']</t>
+  </si>
+  <si>
+    <t>['CS_2011', 'CS_2223', 'CS_3041', 'CS_3431', 'CS_3516']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_OBJ_OR_REST']</t>
+  </si>
+  <si>
+    <t>['CS_2102', 'CS_2103']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_SYS_REST']</t>
+  </si>
+  <si>
+    <t>['CS_2301', 'CS_2303']</t>
+  </si>
+  <si>
+    <t>['CS_3733']</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_528', 'CS_529', 'ECE_581', 'CS_534', 'CS_538', 'CS_539', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_5008', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>['CS_4120', 'CS_4123', 'CS_4533', 'CS_4536', 'CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
+  </si>
+  <si>
+    <t>['CS_4233', 'CS_509', 'CS_542', 'CS_546', 'CS_561', 'CS_562']</t>
+  </si>
+  <si>
+    <t>['CS_4513', 'CS_4515', 'CS_4516', 'CS_502', 'CS_533', 'CS_535']</t>
+  </si>
+  <si>
+    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541', 'MA_2071', 'MA_2072']</t>
+  </si>
+  <si>
+    <t>['CS_DESIGN']</t>
+  </si>
+  <si>
+    <t>['CS 3041', 'CS 3431']</t>
+  </si>
+  <si>
+    <t>['CS_OBJ_OR_REST']</t>
+  </si>
+  <si>
+    <t>['CS_210X']</t>
+  </si>
+  <si>
+    <t>CS_1101 OR CS_1102</t>
+  </si>
+  <si>
+    <t>CS_1000</t>
+  </si>
+  <si>
+    <t>CS_OOP</t>
+  </si>
+  <si>
+    <t>CS_2102 OR CS_2103</t>
+  </si>
+  <si>
+    <t>CS_SYS</t>
+  </si>
+  <si>
+    <t>CS_2301 OR CS_2303</t>
+  </si>
+  <si>
+    <t>['CS_2011', 'CS_2223', 'CS_3516']</t>
+  </si>
+  <si>
+    <t>CS_INTRO_OTHER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2441,6 +2511,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2450,7 +2526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2529,11 +2605,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2587,6 +2678,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9252,10 +9346,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9294,10 +9388,10 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>807</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>65</v>
@@ -9306,41 +9400,41 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>686</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>688</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>690</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9352,13 +9446,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="18" t="s">
         <v>694</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9381,12 +9475,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9398,41 +9492,41 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="18" t="s">
         <v>699</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>701</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>783</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>782</v>
+        <v>702</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -9444,18 +9538,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -9467,18 +9561,18 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -9490,18 +9584,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -9513,18 +9607,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -9536,18 +9630,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9559,18 +9653,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -9582,18 +9676,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -9605,18 +9699,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -9628,18 +9722,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -9651,13 +9745,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9674,18 +9768,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -9697,18 +9791,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -9720,18 +9814,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -9743,18 +9837,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -9766,18 +9860,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -9789,18 +9883,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -9812,18 +9906,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -9835,13 +9929,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9849,7 +9943,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -9869,10 +9963,10 @@
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -9895,7 +9989,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -9918,7 +10012,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -9941,7 +10035,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -9961,7 +10055,7 @@
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -9973,18 +10067,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -9996,7 +10090,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -10007,10 +10101,10 @@
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -10030,10 +10124,10 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -10076,7 +10170,7 @@
     </row>
     <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -10088,10 +10182,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
@@ -10099,7 +10193,7 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -10111,18 +10205,18 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -10134,13 +10228,753 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
+        <v>780</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>801</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>101</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>800</v>
+      </c>
+      <c r="F39" t="s">
+        <v>784</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>802</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>101</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>803</v>
+      </c>
+      <c r="F40" t="s">
+        <v>787</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>804</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>805</v>
+      </c>
+      <c r="F41" t="s">
+        <v>789</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="73" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>787</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>789</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>698</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>790</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>791</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>713</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>793</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>794</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>738</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>554</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>795</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>749</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>752</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>755</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>758</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>762</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>774</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
         <v>777</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G35" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>779</v>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>797</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>799</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>781</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/WPI Course Schedule Optimization MQP (‘23 - ‘24)/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="11_DB06C888C27AE9E56777B826B3AFCEA16EA9919B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5284EA-9460-42DD-BB08-BD6693A363D2}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_DB06C888C27AE9E56777B826B3AFCEA16EA9919B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D93BDC1-7F63-4FD5-AF83-A82D4262FC4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -2856,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3481,7 +3481,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6100,8 +6100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7938,8 +7938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8194,8 +8194,8 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>429</v>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>461</v>
@@ -8240,8 +8240,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
+      <c r="E13" t="s">
+        <v>429</v>
       </c>
       <c r="F13" t="s">
         <v>430</v>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C23C9-787D-C041-BCDA-9D019FAE5F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E337C6-A488-934A-9E75-029652B1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="DS_MAJOR" sheetId="7" r:id="rId7"/>
     <sheet name="CS_MAJOR" sheetId="8" r:id="rId8"/>
     <sheet name="CS_MAJOR3" sheetId="9" r:id="rId9"/>
+    <sheet name="ME_MAJOR" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="874">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -2085,9 +2086,15 @@
     <t>Data Privacy and Ethics</t>
   </si>
   <si>
+    <t>CS_INTRO_OTHER</t>
+  </si>
+  <si>
     <t>Core CS classes</t>
   </si>
   <si>
+    <t>['CS_2011', 'CS_2223', 'CS_3516']</t>
+  </si>
+  <si>
     <t>['CS_CORE']</t>
   </si>
   <si>
@@ -2379,27 +2386,45 @@
     <t>['CS_SOC_IMPS']</t>
   </si>
   <si>
+    <t>CS_1000</t>
+  </si>
+  <si>
+    <t>CS_1101 OR CS_1102</t>
+  </si>
+  <si>
+    <t>['CS_1101', 'CS_1102']</t>
+  </si>
+  <si>
     <t>['CS_CORE', 'CS_1000_REST']</t>
   </si>
   <si>
-    <t>['CS_1101', 'CS_1102']</t>
+    <t>CS_OOP</t>
+  </si>
+  <si>
+    <t>CS_2102 OR CS_2103</t>
+  </si>
+  <si>
+    <t>['CS_2102', 'CS_2103']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_OBJ_OR_REST']</t>
+  </si>
+  <si>
+    <t>CS_SYS</t>
+  </si>
+  <si>
+    <t>CS_2301 OR CS_2303</t>
+  </si>
+  <si>
+    <t>['CS_2301', 'CS_2303']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_SYS_REST']</t>
   </si>
   <si>
     <t>['CS_2011', 'CS_2223', 'CS_3041', 'CS_3431', 'CS_3516']</t>
   </si>
   <si>
-    <t>['CS_CORE', 'CS_OBJ_OR_REST']</t>
-  </si>
-  <si>
-    <t>['CS_2102', 'CS_2103']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'CS_SYS_REST']</t>
-  </si>
-  <si>
-    <t>['CS_2301', 'CS_2303']</t>
-  </si>
-  <si>
     <t>['CS_3733']</t>
   </si>
   <si>
@@ -2418,47 +2443,221 @@
     <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541', 'MA_2071', 'MA_2072']</t>
   </si>
   <si>
+    <t>['CS 3041', 'CS 3431']</t>
+  </si>
+  <si>
     <t>['CS_DESIGN']</t>
   </si>
   <si>
-    <t>['CS 3041', 'CS 3431']</t>
+    <t>['CS_210X']</t>
   </si>
   <si>
     <t>['CS_OBJ_OR_REST']</t>
   </si>
   <si>
-    <t>['CS_210X']</t>
-  </si>
-  <si>
-    <t>CS_1101 OR CS_1102</t>
-  </si>
-  <si>
-    <t>CS_1000</t>
-  </si>
-  <si>
-    <t>CS_OOP</t>
-  </si>
-  <si>
-    <t>CS_2102 OR CS_2103</t>
-  </si>
-  <si>
-    <t>CS_SYS</t>
-  </si>
-  <si>
-    <t>CS_2301 OR CS_2303</t>
-  </si>
-  <si>
-    <t>['CS_2011', 'CS_2223', 'CS_3516']</t>
-  </si>
-  <si>
-    <t>CS_INTRO_OTHER</t>
+    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2314', 'GOV_2315', 'GOV_2313']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_CHEM']</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_PHY']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'ME_PHY']</t>
+  </si>
+  <si>
+    <t>['PH_2101']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'ME_CHEM', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>['CH_3510']</t>
+  </si>
+  <si>
+    <t>['ME_M']</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
+  </si>
+  <si>
+    <t>['ME_MABS']</t>
+  </si>
+  <si>
+    <t>['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT']</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_MS_CORE']</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503']</t>
+  </si>
+  <si>
+    <t>['ME_MS']</t>
+  </si>
+  <si>
+    <t>['ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_TS_CORE']</t>
+  </si>
+  <si>
+    <t>['ES_3003', 'ES_3004']</t>
+  </si>
+  <si>
+    <t>['ME_TS']</t>
+  </si>
+  <si>
+    <t>['ME_4422', 'ME_4429']</t>
+  </si>
+  <si>
+    <t>['ME_MAT_SCI']</t>
+  </si>
+  <si>
+    <t>['ES_2001']</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E']</t>
+  </si>
+  <si>
+    <t>['ME_EXP']</t>
+  </si>
+  <si>
+    <t>['ME_3901', 'ME_3902']</t>
+  </si>
+  <si>
+    <t>['ME_PROG']</t>
+  </si>
+  <si>
+    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>['ES_3001']</t>
+  </si>
+  <si>
+    <t>['ME_E']</t>
+  </si>
+  <si>
+    <t>['ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT', 'CE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT']</t>
+  </si>
+  <si>
+    <t>['ME_OTHER_ECE']</t>
+  </si>
+  <si>
+    <t>['ECE_1799']</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>PH_2101</t>
+  </si>
+  <si>
+    <t>CH_3510</t>
+  </si>
+  <si>
+    <t>Math Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math or Basic Science </t>
+  </si>
+  <si>
+    <t>Mechanical Systems Core</t>
+  </si>
+  <si>
+    <t>ME_4320, ME_4322, RBE_4322, ME_4323, ME_4324</t>
+  </si>
+  <si>
+    <t>Thermofluid Systems Core</t>
+  </si>
+  <si>
+    <t>ME_4222 OR ME_4429</t>
+  </si>
+  <si>
+    <t>ES_2001</t>
+  </si>
+  <si>
+    <t>['ECE_DEPT', 'ECE_2010']</t>
+  </si>
+  <si>
+    <t>ECE classes</t>
+  </si>
+  <si>
+    <t>ME_3901 OR ME_3902</t>
+  </si>
+  <si>
+    <t>BME_1004, CS_1004, CS_1101, ME_2312, ME_4512</t>
+  </si>
+  <si>
+    <t>ES_3001</t>
+  </si>
+  <si>
+    <t>CHEM</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>CHEM_THERMO</t>
+  </si>
+  <si>
+    <t>PH_THERMO</t>
+  </si>
+  <si>
+    <t>MABS</t>
+  </si>
+  <si>
+    <t>MECH_SYS_CORE</t>
+  </si>
+  <si>
+    <t>MECH_SYS_4000</t>
+  </si>
+  <si>
+    <t>THERMO_CORE</t>
+  </si>
+  <si>
+    <t>THERMO_4000</t>
+  </si>
+  <si>
+    <t>MAT_SCI</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ME_EXP</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>THERMO_INTRO</t>
+  </si>
+  <si>
+    <t>ECE_NOT</t>
+  </si>
+  <si>
+    <t>HOW DID THIS SHOW UP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2517,6 +2716,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2526,7 +2731,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2620,11 +2825,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2681,6 +2901,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3274,6 +3500,671 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="43" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>775</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>858</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>842</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>859</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>843</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>844</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>845</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>846</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>862</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>847</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>848</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>864</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>865</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>850</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>866</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>851</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>867</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>852</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>868</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>854</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>869</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>855</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>870</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>856</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>871</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>857</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>872</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>873</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
@@ -9348,7 +10239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="116" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9388,7 +10279,7 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>807</v>
+        <v>685</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -9400,18 +10291,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>806</v>
+        <v>687</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9423,18 +10314,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9446,13 +10337,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9475,12 +10366,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9492,18 +10383,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -9515,18 +10406,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -9538,18 +10429,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -9561,18 +10452,18 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
+        <v>711</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>709</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -9584,18 +10475,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -9607,18 +10498,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -9630,18 +10521,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
+        <v>722</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>720</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9653,18 +10544,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -9676,18 +10567,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
+        <v>729</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>727</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -9699,18 +10590,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -9722,18 +10613,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
+        <v>736</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>734</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -9745,13 +10636,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9768,18 +10659,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -9791,18 +10682,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -9814,18 +10705,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>747</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -9837,18 +10728,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -9860,18 +10751,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -9883,18 +10774,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -9906,18 +10797,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -9929,13 +10820,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9963,7 +10854,7 @@
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -10055,7 +10946,7 @@
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -10067,18 +10958,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -10090,7 +10981,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -10101,7 +10992,7 @@
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -10124,7 +11015,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10170,7 +11061,7 @@
     </row>
     <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -10182,10 +11073,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
@@ -10193,7 +11084,7 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -10205,18 +11096,18 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -10228,18 +11119,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -10251,18 +11142,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="F39" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -10274,18 +11165,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F40" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10297,13 +11188,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F41" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -10359,10 +11250,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -10376,10 +11267,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -10393,10 +11284,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -10410,10 +11301,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -10427,10 +11318,10 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -10444,10 +11335,10 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10464,7 +11355,7 @@
         <v>390</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -10478,10 +11369,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -10495,10 +11386,10 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -10512,10 +11403,10 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -10529,10 +11420,10 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -10546,10 +11437,10 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -10563,10 +11454,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -10580,10 +11471,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -10597,10 +11488,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -10617,7 +11508,7 @@
         <v>554</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -10631,10 +11522,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -10648,10 +11539,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -10665,10 +11556,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -10682,10 +11573,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -10699,10 +11590,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -10716,10 +11607,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -10821,7 +11712,7 @@
         <v>357</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -10903,7 +11794,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>372</v>
@@ -10920,10 +11811,10 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -10937,10 +11828,10 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -10954,10 +11845,10 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -10971,10 +11862,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C23C9-787D-C041-BCDA-9D019FAE5F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E91C23C9-787D-C041-BCDA-9D019FAE5F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EB176A1-18C9-410C-A6F0-F261A6754D24}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -3002,19 +3002,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -3282,16 +3282,16 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -3906,18 +3906,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -4803,22 +4803,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -5394,15 +5394,15 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -5418,15 +5418,15 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -6112,17 +6112,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -6526,15 +6526,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.5" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -8364,15 +8364,15 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>627</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>630</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>634</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>637</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>640</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>647</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>649</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>655</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>658</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>661</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>664</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>667</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>668</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>672</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>675</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>677</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>679</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>680</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>682</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>683</v>
       </c>
@@ -9348,22 +9348,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>807</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>687</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>700</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>704</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>708</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>711</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>715</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>719</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>726</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>729</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>733</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>736</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>742</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>746</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>748</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>751</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>754</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>757</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>760</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>764</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>765</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>768</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>770</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>771</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>772</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>775</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>779</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>801</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>802</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>804</v>
       </c>
@@ -10319,13 +10319,13 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="73" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>83</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>6</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>6</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>35</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>3</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>3</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>10</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E337C6-A488-934A-9E75-029652B1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{88E337C6-A488-934A-9E75-029652B1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F69C0F-BB23-438D-AE0B-AC4AE6D3404B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -3228,19 +3228,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -3504,19 +3504,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>772</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>773</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>858</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>859</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>861</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>860</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>675</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>862</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>863</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>864</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>865</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>866</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>867</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>868</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>869</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>870</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>871</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>762</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>872</v>
       </c>
@@ -4173,16 +4173,16 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -4797,18 +4797,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -5694,22 +5694,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -6285,15 +6285,15 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -6309,15 +6309,15 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -7003,17 +7003,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -7417,15 +7417,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.5" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -9255,15 +9255,15 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>627</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>630</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>634</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>637</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>640</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>647</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>649</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>655</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>658</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>661</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>664</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>667</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>668</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>672</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>675</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>677</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>679</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>680</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>682</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>683</v>
       </c>
@@ -10243,18 +10243,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>689</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>693</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>698</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>702</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>706</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>710</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>713</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>717</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>721</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>724</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>728</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>731</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>735</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>738</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>744</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>750</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>756</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>759</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>762</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>766</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>767</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>770</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>772</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>773</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>774</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>777</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>781</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>785</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>789</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>793</v>
       </c>
@@ -11210,13 +11210,13 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="73" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>83</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>6</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>6</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>35</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>3</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>3</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>10</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{88E337C6-A488-934A-9E75-029652B1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F69C0F-BB23-438D-AE0B-AC4AE6D3404B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D89BFB-2D29-564D-B418-0C0B94C60051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="CS_MAJOR" sheetId="8" r:id="rId8"/>
     <sheet name="CS_MAJOR3" sheetId="9" r:id="rId9"/>
     <sheet name="ME_MAJOR" sheetId="10" r:id="rId10"/>
+    <sheet name="CS_DS_DOUBLE" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="927">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -2458,206 +2459,365 @@
     <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2314', 'GOV_2315', 'GOV_2313']</t>
   </si>
   <si>
+    <t>CHEM</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020']</t>
+  </si>
+  <si>
     <t>['ME_BSCAP', 'ME_CHEM']</t>
   </si>
   <si>
-    <t>['CH_1010', 'CH_1020']</t>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121']</t>
   </si>
   <si>
     <t>['ME_BSCAP', 'ME_PHY']</t>
   </si>
   <si>
-    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121']</t>
+    <t>PH_THERMO</t>
+  </si>
+  <si>
+    <t>PH_2101</t>
+  </si>
+  <si>
+    <t>['PH_2101']</t>
   </si>
   <si>
     <t>['ME_BSCAP', 'ME_MABS', 'ME_PHY']</t>
   </si>
   <si>
-    <t>['PH_2101']</t>
+    <t>CHEM_THERMO</t>
+  </si>
+  <si>
+    <t>CH_3510</t>
+  </si>
+  <si>
+    <t>['CH_3510']</t>
   </si>
   <si>
     <t>['ME_BSCAP', 'ME_MABS', 'ME_CHEM', 'ME_ES_3001_EQ']</t>
   </si>
   <si>
-    <t>['CH_3510']</t>
+    <t>Math Core</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
   </si>
   <si>
     <t>['ME_M']</t>
   </si>
   <si>
-    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
+    <t>MABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math or Basic Science </t>
+  </si>
+  <si>
+    <t>['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT']</t>
   </si>
   <si>
     <t>['ME_MABS']</t>
   </si>
   <si>
-    <t>['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT']</t>
+    <t>MECH_SYS_CORE</t>
+  </si>
+  <si>
+    <t>Mechanical Systems Core</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503']</t>
   </si>
   <si>
     <t>['ME_MS', 'ME_MS_CORE']</t>
   </si>
   <si>
-    <t>['ES_2501', 'ES_2502', 'ES_2503']</t>
+    <t>MECH_SYS_4000</t>
+  </si>
+  <si>
+    <t>ME_4320, ME_4322, RBE_4322, ME_4323, ME_4324</t>
+  </si>
+  <si>
+    <t>['ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
   </si>
   <si>
     <t>['ME_MS']</t>
   </si>
   <si>
-    <t>['ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
+    <t>THERMO_CORE</t>
+  </si>
+  <si>
+    <t>Thermofluid Systems Core</t>
+  </si>
+  <si>
+    <t>['ES_3003', 'ES_3004']</t>
   </si>
   <si>
     <t>['ME_TS', 'ME_TS_CORE']</t>
   </si>
   <si>
-    <t>['ES_3003', 'ES_3004']</t>
+    <t>THERMO_4000</t>
+  </si>
+  <si>
+    <t>ME_4222 OR ME_4429</t>
+  </si>
+  <si>
+    <t>['ME_4422', 'ME_4429']</t>
   </si>
   <si>
     <t>['ME_TS']</t>
   </si>
   <si>
-    <t>['ME_4422', 'ME_4429']</t>
+    <t>MAT_SCI</t>
+  </si>
+  <si>
+    <t>ES_2001</t>
+  </si>
+  <si>
+    <t>['ES_2001']</t>
   </si>
   <si>
     <t>['ME_MAT_SCI']</t>
   </si>
   <si>
-    <t>['ES_2001']</t>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ECE classes</t>
+  </si>
+  <si>
+    <t>['ECE_DEPT', 'ECE_2010']</t>
   </si>
   <si>
     <t>['ME_ECE', 'ME_E']</t>
   </si>
   <si>
+    <t>ME_EXP</t>
+  </si>
+  <si>
+    <t>ME_3901 OR ME_3902</t>
+  </si>
+  <si>
+    <t>['ME_3901', 'ME_3902']</t>
+  </si>
+  <si>
     <t>['ME_EXP']</t>
   </si>
   <si>
-    <t>['ME_3901', 'ME_3902']</t>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>BME_1004, CS_1004, CS_1101, ME_2312, ME_4512</t>
+  </si>
+  <si>
+    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
   </si>
   <si>
     <t>['ME_PROG']</t>
   </si>
   <si>
-    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
+    <t>THERMO_INTRO</t>
+  </si>
+  <si>
+    <t>ES_3001</t>
+  </si>
+  <si>
+    <t>['ES_3001']</t>
   </si>
   <si>
     <t>['ME_E', 'ME_ES_3001_EQ']</t>
   </si>
   <si>
-    <t>['ES_3001']</t>
+    <t>['ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT', 'CE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT']</t>
   </si>
   <si>
     <t>['ME_E']</t>
   </si>
   <si>
-    <t>['ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT', 'CE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT']</t>
+    <t>ECE_NOT</t>
+  </si>
+  <si>
+    <t>HOW DID THIS SHOW UP</t>
+  </si>
+  <si>
+    <t>['ECE_1799']</t>
   </si>
   <si>
     <t>['ME_OTHER_ECE']</t>
   </si>
   <si>
-    <t>['ECE_1799']</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>PH_2101</t>
-  </si>
-  <si>
-    <t>CH_3510</t>
-  </si>
-  <si>
-    <t>Math Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math or Basic Science </t>
-  </si>
-  <si>
-    <t>Mechanical Systems Core</t>
-  </si>
-  <si>
-    <t>ME_4320, ME_4322, RBE_4322, ME_4323, ME_4324</t>
-  </si>
-  <si>
-    <t>Thermofluid Systems Core</t>
-  </si>
-  <si>
-    <t>ME_4222 OR ME_4429</t>
-  </si>
-  <si>
-    <t>ES_2001</t>
-  </si>
-  <si>
-    <t>['ECE_DEPT', 'ECE_2010']</t>
-  </si>
-  <si>
-    <t>ECE classes</t>
-  </si>
-  <si>
-    <t>ME_3901 OR ME_3902</t>
-  </si>
-  <si>
-    <t>BME_1004, CS_1004, CS_1101, ME_2312, ME_4512</t>
-  </si>
-  <si>
-    <t>ES_3001</t>
-  </si>
-  <si>
-    <t>CHEM</t>
-  </si>
-  <si>
-    <t>PHYS</t>
-  </si>
-  <si>
-    <t>CHEM_THERMO</t>
-  </si>
-  <si>
-    <t>PH_THERMO</t>
-  </si>
-  <si>
-    <t>MABS</t>
-  </si>
-  <si>
-    <t>MECH_SYS_CORE</t>
-  </si>
-  <si>
-    <t>MECH_SYS_4000</t>
-  </si>
-  <si>
-    <t>THERMO_CORE</t>
-  </si>
-  <si>
-    <t>THERMO_4000</t>
-  </si>
-  <si>
-    <t>MAT_SCI</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>ME_EXP</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
-    <t>THERMO_INTRO</t>
-  </si>
-  <si>
-    <t>ECE_NOT</t>
-  </si>
-  <si>
-    <t>HOW DID THIS SHOW UP</t>
+    <t>['CS_CORE', 'DS_CS', 'CS_1000_REST', 'DS_CS_1000_L']</t>
+  </si>
+  <si>
+    <t>['CS_2011', 'CS_3516']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_CS', 'CS_OBJ_OR_REST']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_ALGOS']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_SYS_REST']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS']</t>
+  </si>
+  <si>
+    <t>['CS_3041']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_THRY']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_DESIGN']</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4300', 'IMGD_4300', 'CS_4401', 'CS_4404', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'BCB_502', 'BCB_503', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_529', 'ECE_581', 'CS_538', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_673', 'ECE_673', 'CS_5008', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS', 'CS_UPLVL_MIN', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>['CS_4032']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS', 'CS_UPLVL_MIN']</t>
+  </si>
+  <si>
+    <t>['MA_3257']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_THRY', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>['CS_4123', 'CS_4533', 'CS_4536', 'CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_DESIGN', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>['CS_4233', 'CS_561']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>['CS_4241', 'CS_4341', 'CS_4804', 'CS_582', 'CS_583', 'CS_528', 'CS_534', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_541', 'DS_541']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER', 'DS_DMML']</t>
+  </si>
+  <si>
+    <t>['CS_4342', 'CS_4445', 'CS_539', 'CS_548']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>['CS_509', 'CS_546', 'CS_562']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_DESIGN', 'DS_4LDER', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>['CS_PROB', 'CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>['CS_STATS', 'CS_GEN_MATH', 'DS_STATS']</t>
+  </si>
+  <si>
+    <t>['MA_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>['MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>['MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_LA']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_0']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_1']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_2']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_3']</t>
+  </si>
+  <si>
+    <t>['CS_SCI_ENG', 'DS_NES']</t>
+  </si>
+  <si>
+    <t>['BME_DEPT', 'CE_DEPT', 'CHE_DEPT', 'ECE_DEPT', 'ME_DEPT', 'RBE_DEPT']</t>
+  </si>
+  <si>
+    <t>['ES_DEPT']</t>
+  </si>
+  <si>
+    <t>['SOC_SCI_REQ', 'CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>['GOV_2313']</t>
+  </si>
+  <si>
+    <t>['BCB_4004', 'MIS_4720', 'MIS_4741', 'MIS_571', 'MIS_587', 'MKT_568']</t>
+  </si>
+  <si>
+    <t>['MIS_4084', 'OIE_4430', 'MIS_584', 'OIE_559']</t>
+  </si>
+  <si>
+    <t>['AE_DEPT', 'AREN_DEPT']</t>
+  </si>
+  <si>
+    <t>['CS_1004']</t>
+  </si>
+  <si>
+    <t>['CS_2119']</t>
+  </si>
+  <si>
+    <t>['ID_2314', 'IMGD_2000']</t>
+  </si>
+  <si>
+    <t>['CS_SOC_IMPS', 'DS_DPE']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2722,6 +2882,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2731,7 +2897,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2840,11 +3006,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2907,6 +3088,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3228,19 +3412,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3448,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3287,7 +3471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3333,7 +3517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3356,7 +3540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3379,7 +3563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3402,7 +3586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3425,7 +3609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3448,7 +3632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -3504,19 +3688,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3562,7 +3746,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -3585,7 +3769,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3608,7 +3792,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3631,7 +3815,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3654,7 +3838,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -3677,7 +3861,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>772</v>
       </c>
@@ -3688,7 +3872,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -3700,7 +3884,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>773</v>
       </c>
@@ -3711,7 +3895,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3723,7 +3907,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3746,7 +3930,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -3769,9 +3953,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>858</v>
+        <v>809</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -3783,18 +3967,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>859</v>
+        <v>813</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -3806,18 +3990,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>843</v>
+        <v>814</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>861</v>
+        <v>817</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3829,18 +4013,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3852,16 +4036,16 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>675</v>
       </c>
@@ -3875,18 +4059,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -3898,18 +4082,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3921,18 +4105,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3944,87 +4128,87 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>840</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>841</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>844</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>845</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>848</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>849</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>865</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F22" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>866</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G22" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>867</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>852</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>868</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -4036,18 +4220,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>853</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>853</v>
-      </c>
       <c r="G23" s="21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4059,18 +4243,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -4082,18 +4266,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4105,16 +4289,16 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>837</v>
+        <v>866</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>762</v>
       </c>
@@ -4131,33 +4315,1160 @@
         <v>763</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>870</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>871</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="G28" s="21" t="s">
+        <v>873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>873</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>840</v>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>906</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -4173,16 +5484,16 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="58.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="58.5" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4205,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4228,7 +5539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -4251,7 +5562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -4274,7 +5585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +5608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -4320,7 +5631,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -4343,7 +5654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -4366,7 +5677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -4389,7 +5700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -4412,7 +5723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -4435,7 +5746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -4458,7 +5769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -4481,7 +5792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -4504,7 +5815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -4527,7 +5838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -4550,7 +5861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +5884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -4596,7 +5907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -4619,7 +5930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -4642,7 +5953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4665,7 +5976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4688,7 +5999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4711,7 +6022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -4734,7 +6045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -4757,7 +6068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -4780,7 +6091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -4797,18 +6108,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +6144,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -4857,7 +6168,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4881,7 +6192,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -4905,7 +6216,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -4929,7 +6240,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -4953,7 +6264,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -4977,7 +6288,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -5001,7 +6312,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -5025,7 +6336,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -5049,7 +6360,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -5073,7 +6384,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -5097,7 +6408,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -5121,7 +6432,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -5145,7 +6456,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -5169,7 +6480,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -5193,7 +6504,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -5217,7 +6528,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -5241,7 +6552,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -5265,7 +6576,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -5289,7 +6600,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -5313,7 +6624,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -5337,7 +6648,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -5361,7 +6672,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -5385,7 +6696,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -5408,7 +6719,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -5431,7 +6742,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -5454,7 +6765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -5477,7 +6788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +6811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -5523,7 +6834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -5546,7 +6857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -5569,7 +6880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -5592,7 +6903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -5615,7 +6926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -5638,7 +6949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -5661,7 +6972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -5694,22 +7005,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5733,7 +7044,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -5757,7 +7068,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -5781,7 +7092,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5805,7 +7116,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -5829,7 +7140,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -5853,7 +7164,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -5877,7 +7188,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -5901,7 +7212,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5925,7 +7236,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -5949,7 +7260,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -5973,7 +7284,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -5997,7 +7308,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -6021,7 +7332,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -6045,7 +7356,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -6069,7 +7380,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -6093,7 +7404,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -6117,7 +7428,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -6141,7 +7452,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -6165,7 +7476,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -6189,7 +7500,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -6213,7 +7524,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -6237,7 +7548,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -6261,7 +7572,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -6285,7 +7596,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
@@ -6309,7 +7620,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -6333,7 +7644,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -6357,7 +7668,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -6381,7 +7692,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -6405,7 +7716,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -6429,7 +7740,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -6453,7 +7764,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -6477,7 +7788,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -6501,7 +7812,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -6525,7 +7836,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -6549,7 +7860,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -6573,7 +7884,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -6597,7 +7908,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -6621,7 +7932,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -6644,7 +7955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -6667,7 +7978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -6690,7 +8001,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -6713,7 +8024,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -6736,7 +8047,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -6759,7 +8070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -6782,7 +8093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -6805,7 +8116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -6828,7 +8139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -6851,7 +8162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -6874,7 +8185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -6897,7 +8208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -6920,7 +8231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -6943,7 +8254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -6966,7 +8277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -7003,17 +8314,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7036,7 +8347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -7059,7 +8370,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -7082,7 +8393,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -7105,7 +8416,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -7128,7 +8439,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7151,7 +8462,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -7174,7 +8485,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -7197,7 +8508,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -7220,7 +8531,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -7243,7 +8554,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -7266,7 +8577,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -7289,7 +8600,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -7312,7 +8623,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -7335,7 +8646,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -7358,7 +8669,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -7381,7 +8692,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -7417,15 +8728,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" customWidth="1"/>
+    <col min="7" max="7" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +8759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -7471,7 +8782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -7494,7 +8805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -7517,7 +8828,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -7540,7 +8851,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -7563,7 +8874,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -7586,7 +8897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -7609,7 +8920,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -7632,7 +8943,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -7655,7 +8966,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -7678,7 +8989,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -7701,7 +9012,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -7724,7 +9035,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -7747,7 +9058,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -7770,7 +9081,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -7793,7 +9104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -7816,7 +9127,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -7839,7 +9150,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -7862,7 +9173,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -7885,7 +9196,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -7908,7 +9219,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -7931,7 +9242,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -7954,7 +9265,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -7977,7 +9288,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -8000,7 +9311,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -8023,7 +9334,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -8046,7 +9357,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -8069,7 +9380,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -8092,7 +9403,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -8115,7 +9426,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -8138,7 +9449,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -8161,7 +9472,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -8184,7 +9495,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -8207,7 +9518,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -8230,7 +9541,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -8253,7 +9564,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -8276,7 +9587,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -8299,7 +9610,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -8322,7 +9633,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -8345,7 +9656,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -8368,7 +9679,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -8391,7 +9702,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -8414,7 +9725,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -8437,7 +9748,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -8460,7 +9771,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -8483,7 +9794,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -8506,7 +9817,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -8529,7 +9840,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -8552,7 +9863,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -8575,7 +9886,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -8598,7 +9909,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -8621,7 +9932,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -8644,7 +9955,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -8667,7 +9978,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -8690,7 +10001,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -8713,7 +10024,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -8736,7 +10047,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -8759,7 +10070,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -8782,7 +10093,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -8805,7 +10116,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -8828,7 +10139,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -8851,7 +10162,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -8874,7 +10185,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -8897,7 +10208,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -8920,7 +10231,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -8943,7 +10254,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -8966,7 +10277,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -8989,7 +10300,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -9012,7 +10323,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -9035,7 +10346,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -9058,7 +10369,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -9081,7 +10392,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -9104,7 +10415,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -9127,7 +10438,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -9150,7 +10461,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -9173,7 +10484,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -9196,7 +10507,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -9219,7 +10530,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -9255,15 +10566,15 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +10597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -9309,7 +10620,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -9332,7 +10643,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -9355,7 +10666,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -9378,7 +10689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -9401,7 +10712,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>627</v>
       </c>
@@ -9424,7 +10735,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -9447,7 +10758,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -9470,7 +10781,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -9494,7 +10805,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -9517,7 +10828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -9540,7 +10851,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -9563,7 +10874,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -9586,7 +10897,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>630</v>
       </c>
@@ -9609,7 +10920,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -9632,7 +10943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>634</v>
       </c>
@@ -9655,7 +10966,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -9678,7 +10989,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>637</v>
       </c>
@@ -9701,7 +11012,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>640</v>
       </c>
@@ -9724,7 +11035,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -9747,7 +11058,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>647</v>
       </c>
@@ -9770,7 +11081,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>649</v>
       </c>
@@ -9793,7 +11104,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -9816,7 +11127,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>655</v>
       </c>
@@ -9839,7 +11150,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>658</v>
       </c>
@@ -9862,7 +11173,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>661</v>
       </c>
@@ -9885,7 +11196,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>664</v>
       </c>
@@ -9908,7 +11219,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>667</v>
       </c>
@@ -9931,7 +11242,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -9954,7 +11265,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>668</v>
       </c>
@@ -9977,7 +11288,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>672</v>
       </c>
@@ -10000,7 +11311,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>675</v>
       </c>
@@ -10023,7 +11334,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>677</v>
       </c>
@@ -10046,7 +11357,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -10069,7 +11380,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>679</v>
       </c>
@@ -10092,7 +11403,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -10115,7 +11426,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -10138,7 +11449,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>680</v>
       </c>
@@ -10161,7 +11472,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>682</v>
       </c>
@@ -10184,7 +11495,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -10207,7 +11518,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>683</v>
       </c>
@@ -10239,22 +11550,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A19" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10277,7 +11588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -10300,7 +11611,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>689</v>
       </c>
@@ -10323,7 +11634,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>693</v>
       </c>
@@ -10346,7 +11657,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -10369,7 +11680,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>698</v>
       </c>
@@ -10392,7 +11703,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>702</v>
       </c>
@@ -10415,7 +11726,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>706</v>
       </c>
@@ -10438,7 +11749,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>710</v>
       </c>
@@ -10461,7 +11772,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>713</v>
       </c>
@@ -10484,7 +11795,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>717</v>
       </c>
@@ -10507,7 +11818,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>721</v>
       </c>
@@ -10530,7 +11841,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>724</v>
       </c>
@@ -10553,7 +11864,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>728</v>
       </c>
@@ -10576,7 +11887,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>731</v>
       </c>
@@ -10599,7 +11910,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>735</v>
       </c>
@@ -10622,7 +11933,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>738</v>
       </c>
@@ -10645,7 +11956,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -10668,7 +11979,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>744</v>
       </c>
@@ -10691,7 +12002,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -10714,7 +12025,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>750</v>
       </c>
@@ -10737,7 +12048,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -10760,7 +12071,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>756</v>
       </c>
@@ -10783,7 +12094,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>759</v>
       </c>
@@ -10806,7 +12117,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>762</v>
       </c>
@@ -10829,7 +12140,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -10852,7 +12163,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>766</v>
       </c>
@@ -10875,7 +12186,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10898,7 +12209,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -10921,7 +12232,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -10944,7 +12255,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>767</v>
       </c>
@@ -10967,7 +12278,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>770</v>
       </c>
@@ -10990,7 +12301,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>772</v>
       </c>
@@ -11001,7 +12312,7 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -11013,7 +12324,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>773</v>
       </c>
@@ -11024,7 +12335,7 @@
         <v>25</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -11036,7 +12347,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -11059,7 +12370,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>774</v>
       </c>
@@ -11082,7 +12393,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>777</v>
       </c>
@@ -11105,7 +12416,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>781</v>
       </c>
@@ -11128,7 +12439,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>785</v>
       </c>
@@ -11151,7 +12462,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>789</v>
       </c>
@@ -11174,7 +12485,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>793</v>
       </c>
@@ -11210,13 +12521,13 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="73" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -11239,7 +12550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2</v>
       </c>
@@ -11256,7 +12567,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>5</v>
       </c>
@@ -11273,7 +12584,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11290,7 +12601,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -11307,7 +12618,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -11324,7 +12635,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1</v>
       </c>
@@ -11341,7 +12652,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1</v>
       </c>
@@ -11358,7 +12669,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -11375,7 +12686,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1</v>
       </c>
@@ -11392,7 +12703,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>83</v>
       </c>
@@ -11409,7 +12720,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2</v>
       </c>
@@ -11426,7 +12737,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -11443,7 +12754,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>6</v>
       </c>
@@ -11460,7 +12771,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>6</v>
       </c>
@@ -11477,7 +12788,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2</v>
       </c>
@@ -11494,7 +12805,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2</v>
       </c>
@@ -11511,7 +12822,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>35</v>
       </c>
@@ -11528,7 +12839,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1</v>
       </c>
@@ -11545,7 +12856,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -11562,7 +12873,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1</v>
       </c>
@@ -11579,7 +12890,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1</v>
       </c>
@@ -11596,7 +12907,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>7</v>
       </c>
@@ -11613,7 +12924,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>3</v>
       </c>
@@ -11630,7 +12941,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>4</v>
       </c>
@@ -11647,7 +12958,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>2</v>
       </c>
@@ -11664,7 +12975,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>3</v>
       </c>
@@ -11681,7 +12992,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2</v>
       </c>
@@ -11698,7 +13009,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>3</v>
       </c>
@@ -11715,7 +13026,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>2</v>
       </c>
@@ -11732,7 +13043,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>5</v>
       </c>
@@ -11749,7 +13060,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1</v>
       </c>
@@ -11766,7 +13077,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1</v>
       </c>
@@ -11783,7 +13094,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>10</v>
       </c>
@@ -11800,7 +13111,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>2</v>
       </c>
@@ -11817,7 +13128,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2</v>
       </c>
@@ -11834,7 +13145,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1</v>
       </c>
@@ -11851,7 +13162,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>3</v>
       </c>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D89BFB-2D29-564D-B418-0C0B94C60051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA920F-A8BD-A041-A879-FB7BAC42C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,27 @@
     <sheet name="CS_MAJOR3" sheetId="9" r:id="rId9"/>
     <sheet name="ME_MAJOR" sheetId="10" r:id="rId10"/>
     <sheet name="CS_DS_DOUBLE" sheetId="11" r:id="rId11"/>
+    <sheet name="CS_MASTER" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="957">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -2811,13 +2825,103 @@
   </si>
   <si>
     <t>['CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>['CS_502', 'CS_513', 'CS_528', 'CS_529', 'CS_533', 'ECE_581', 'CS_535', 'CS_577', 'ECE_537']</t>
+  </si>
+  <si>
+    <t>Theory: CS_503, CS_521, CS_559, CS_5003</t>
+  </si>
+  <si>
+    <t>['CS_503', 'CS_521', 'CS_559', 'CS_5003']</t>
+  </si>
+  <si>
+    <t>Algorithms: CS_504, CS_584, CS_5084</t>
+  </si>
+  <si>
+    <t>['CS_504', 'CS_584', 'CS_5084']</t>
+  </si>
+  <si>
+    <t>Elective or Thesis</t>
+  </si>
+  <si>
+    <t>Networks and Breadth: CS_558</t>
+  </si>
+  <si>
+    <t>['CS_558']</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>['CS_599']</t>
+  </si>
+  <si>
+    <t>['BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_509', 'CS_526', 'RBE_526', 'CS_534', 'CS_536', 'CS_538', 'CS_539', 'CS_540', 'CS_542', 'CS_543', 'CS_544', 'CS_545', 'ECE_545', 'CS_546', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_561', 'CS_562', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'SEME_565', 'CS_565', 'SEME_566', 'CS_566', 'SEME_567', 'CS_567', 'SEME_568', 'CS_568']</t>
+  </si>
+  <si>
+    <t>BREADTH</t>
+  </si>
+  <si>
+    <t>SYS_NET</t>
+  </si>
+  <si>
+    <t>THRY</t>
+  </si>
+  <si>
+    <t>ELECT_THESIS</t>
+  </si>
+  <si>
+    <t>ELECT</t>
+  </si>
+  <si>
+    <t>NET_BREADTH_DOUBLE</t>
+  </si>
+  <si>
+    <t>THESIS</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_BREADTH']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_SYS_NETWORKS']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_THEORY']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_ALGO']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_SYS_NETWORKS', 'CS_MS_BREADTH']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_THESIS_CAP']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_THESIS_DISP_CAP']</t>
+  </si>
+  <si>
+    <t>['CS_514', 'ECE_572', 'CS_522', 'MA_510', 'CS_525', 'CS_587', 'ECE_588', 'CS_588']</t>
+  </si>
+  <si>
+    <t>['CS_5007', 'CS_5008', 'CS_598']</t>
+  </si>
+  <si>
+    <t>CS Breadth Electives</t>
+  </si>
+  <si>
+    <t>Systems or Networks: CS_502, CS_513, CS_528, CS_529, CS_533, CS_588, ECE_581, CS_535, CS_577, ECE_537</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2888,6 +2992,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2897,7 +3007,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3021,11 +3131,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3090,6 +3215,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3688,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3700,7 +3831,7 @@
     <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3746,7 +3877,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -3769,7 +3900,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3792,7 +3923,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3815,7 +3946,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3838,7 +3969,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -3884,7 +4015,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>773</v>
       </c>
@@ -3907,7 +4038,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +4084,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>809</v>
       </c>
@@ -3976,7 +4107,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>813</v>
       </c>
@@ -3999,7 +4130,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>817</v>
       </c>
@@ -4022,7 +4153,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>821</v>
       </c>
@@ -4091,7 +4222,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>832</v>
       </c>
@@ -4137,7 +4268,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>840</v>
       </c>
@@ -4160,7 +4291,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>844</v>
       </c>
@@ -4183,7 +4314,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>848</v>
       </c>
@@ -4206,7 +4337,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>852</v>
       </c>
@@ -4229,7 +4360,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>856</v>
       </c>
@@ -4275,7 +4406,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>864</v>
       </c>
@@ -4321,7 +4452,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>870</v>
       </c>
@@ -5469,6 +5600,237 @@
       </c>
       <c r="G65" t="s">
         <v>621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>4.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>955</v>
+      </c>
+      <c r="F2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F3" t="s">
+        <v>927</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>928</v>
+      </c>
+      <c r="F4" t="s">
+        <v>929</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F5" t="s">
+        <v>931</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>941</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>932</v>
+      </c>
+      <c r="F6" t="s">
+        <v>954</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>942</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>4.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" t="s">
+        <v>953</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>933</v>
+      </c>
+      <c r="F8" t="s">
+        <v>934</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>944</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>13.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>935</v>
+      </c>
+      <c r="F9" t="s">
+        <v>936</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -7005,8 +7367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A2" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10563,7 +10925,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D89BFB-2D29-564D-B418-0C0B94C60051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_7B45F0125EB975150978B6ACE044E670E5744267" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E56D249-21FA-4563-BCD0-41804FDB0C8F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -1910,9 +1910,6 @@
     <t>['CS_568', 'SEME_568']</t>
   </si>
   <si>
-    <t>['C_REST_G_AI_AET']</t>
-  </si>
-  <si>
     <t>HUA_DPE</t>
   </si>
   <si>
@@ -2811,6 +2808,9 @@
   </si>
   <si>
     <t>['CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_AI_AET']</t>
   </si>
 </sst>
 </file>
@@ -3412,19 +3412,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -3688,19 +3688,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3746,9 +3746,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -3769,7 +3769,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3838,21 +3838,21 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>770</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>771</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>360</v>
@@ -3861,9 +3861,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -3884,9 +3884,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -3907,7 +3907,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3930,9 +3930,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -3944,18 +3944,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -3967,18 +3967,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>809</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="G12" s="21" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>813</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -3990,64 +3990,64 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>813</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="G13" s="21" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>817</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="G14" s="21" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>821</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -4059,18 +4059,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>824</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="21" t="s">
         <v>826</v>
       </c>
-      <c r="G16" s="21" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>828</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -4082,41 +4082,41 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>828</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="G17" s="21" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>832</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="G18" s="21" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>836</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -4128,87 +4128,87 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="G19" s="21" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>840</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="G20" s="21" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>844</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="21" t="s">
         <v>846</v>
       </c>
-      <c r="G21" s="21" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>848</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="21" t="s">
         <v>850</v>
       </c>
-      <c r="G22" s="21" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>852</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -4220,41 +4220,41 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>852</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="G23" s="21" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>856</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="G24" s="21" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>860</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -4266,18 +4266,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>860</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="G25" s="21" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>864</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4289,18 +4289,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>864</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4312,36 +4312,36 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>868</v>
       </c>
-      <c r="G27" s="21" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>870</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="21" t="s">
         <v>872</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -4355,9 +4355,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
@@ -4383,77 +4383,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>874</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>877</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>878</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4468,60 +4468,60 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
         <v>880</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>882</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4536,26 +4536,26 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>883</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>884</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4570,9 +4570,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4584,12 +4584,12 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -4601,46 +4601,46 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
         <v>887</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>889</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>890</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>891</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4655,9 +4655,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4669,29 +4669,29 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
         <v>893</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>895</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4703,12 +4703,12 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>897</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4720,13 +4720,13 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>899</v>
-      </c>
       <c r="C22">
         <v>3</v>
       </c>
@@ -4737,12 +4737,12 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4754,12 +4754,12 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4771,12 +4771,12 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>901</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4791,26 +4791,26 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>902</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>903</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4825,9 +4825,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4839,12 +4839,12 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>905</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4859,9 +4859,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -4873,12 +4873,12 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>908</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4890,12 +4890,12 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>909</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>910</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4910,77 +4910,77 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>913</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
         <v>914</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>915</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -4992,27 +4992,27 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>765</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>342</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>345</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>348</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>351</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>354</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>358</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>361</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>364</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>367</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>369</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>372</v>
       </c>
@@ -5199,9 +5199,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5213,10 +5213,10 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>376</v>
       </c>
@@ -5230,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>380</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>467</v>
       </c>
@@ -5264,10 +5264,10 @@
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>459</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>463</v>
       </c>
@@ -5301,9 +5301,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5315,10 +5315,10 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>547</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>551</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>567</v>
       </c>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>571</v>
       </c>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>575</v>
       </c>
@@ -5400,63 +5400,63 @@
         <v>3</v>
       </c>
       <c r="G61" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>805</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
-        <v>807</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>784</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
         <v>925</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>926</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5484,16 +5484,16 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -6108,18 +6108,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -7009,18 +7009,18 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -7740,7 +7740,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -8314,17 +8314,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -8724,19 +8724,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.5" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>625</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>626</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -10566,15 +10566,15 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -10712,9 +10712,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -10735,7 +10735,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -10851,9 +10851,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -10874,7 +10874,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F14" t="s">
         <v>379</v>
@@ -10897,9 +10897,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -10911,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F15" t="s">
         <v>383</v>
@@ -10920,9 +10920,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -10934,7 +10934,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -10943,9 +10943,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10966,9 +10966,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10986,12 +10986,12 @@
         <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>637</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -11003,18 +11003,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" t="s">
         <v>638</v>
-      </c>
-      <c r="F19" t="s">
-        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -11026,41 +11026,41 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" t="s">
         <v>641</v>
-      </c>
-      <c r="F20" t="s">
-        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>643</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>644</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="G21" s="16" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>647</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -11072,41 +11072,41 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
         <v>649</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>650</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="G23" s="16" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>653</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11118,41 +11118,41 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>655</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>656</v>
-      </c>
-      <c r="F25" t="s">
-        <v>657</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11164,18 +11164,18 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F26" t="s">
         <v>659</v>
-      </c>
-      <c r="F26" t="s">
-        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -11187,18 +11187,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F27" t="s">
         <v>662</v>
-      </c>
-      <c r="F27" t="s">
-        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -11210,18 +11210,18 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F28" t="s">
         <v>665</v>
-      </c>
-      <c r="F28" t="s">
-        <v>666</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11242,7 +11242,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -11265,32 +11265,32 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>667</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>668</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>669</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="G31" s="16" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>672</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -11302,18 +11302,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
+        <v>672</v>
+      </c>
+      <c r="F32" t="s">
         <v>673</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>674</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>675</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -11325,7 +11325,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F33" t="s">
         <v>538</v>
@@ -11334,9 +11334,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -11348,7 +11348,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F34" t="s">
         <v>546</v>
@@ -11357,7 +11357,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -11380,9 +11380,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -11403,7 +11403,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -11449,9 +11449,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -11463,7 +11463,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F39" t="s">
         <v>566</v>
@@ -11472,9 +11472,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -11495,7 +11495,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -11518,21 +11518,21 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>682</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
         <v>683</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>684</v>
       </c>
       <c r="F42" t="s">
         <v>621</v>
@@ -11554,18 +11554,18 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -11588,9 +11588,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -11602,41 +11602,41 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>687</v>
       </c>
-      <c r="G2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>689</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="G3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>693</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11648,16 +11648,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -11677,12 +11677,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>698</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11694,18 +11694,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="18" t="s">
         <v>700</v>
       </c>
-      <c r="G6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>702</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -11717,18 +11717,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="G7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>706</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -11740,18 +11740,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="G8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>710</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -11763,41 +11763,41 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
+        <v>710</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>712</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>713</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="G10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>717</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -11809,18 +11809,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>717</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="G11" s="18" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>721</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -11832,18 +11832,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
+        <v>721</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="18" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>723</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>724</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11855,18 +11855,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>724</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="G13" s="18" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>728</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -11878,18 +11878,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
+        <v>728</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="18" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>730</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>731</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -11901,18 +11901,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="G15" s="18" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>735</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -11924,39 +11924,39 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>737</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>738</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -11970,18 +11970,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>744</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -11993,18 +11993,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>744</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="G19" s="18" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>747</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>748</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -12016,18 +12016,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>749</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>750</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -12039,18 +12039,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>749</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="G21" s="18" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>753</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -12062,18 +12062,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>752</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="G22" s="18" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>756</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -12085,18 +12085,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="G23" s="18" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>758</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>759</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -12108,18 +12108,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>758</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="G24" s="18" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>762</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -12131,16 +12131,16 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>762</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -12163,9 +12163,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -12186,7 +12186,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -12255,44 +12255,44 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>767</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>770</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -12301,9 +12301,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -12324,9 +12324,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12347,7 +12347,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -12370,9 +12370,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -12384,64 +12384,64 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>774</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>776</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>777</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="G37" s="18" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>781</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="G38" s="18" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>785</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -12453,18 +12453,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
+        <v>785</v>
+      </c>
+      <c r="F39" t="s">
         <v>786</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="G39" s="20" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>789</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -12476,18 +12476,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>789</v>
+      </c>
+      <c r="F40" t="s">
         <v>790</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="G40" s="20" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>793</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -12499,13 +12499,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>793</v>
+      </c>
+      <c r="F41" t="s">
         <v>794</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" s="20" t="s">
         <v>795</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -12521,13 +12521,13 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="73" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
@@ -12561,13 +12561,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -12578,13 +12578,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -12595,13 +12595,13 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -12612,13 +12612,13 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>790</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -12629,13 +12629,13 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
+        <v>794</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>795</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -12646,13 +12646,13 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -12666,10 +12666,10 @@
         <v>390</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -12680,13 +12680,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
+        <v>699</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -12697,13 +12697,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>83</v>
       </c>
@@ -12714,13 +12714,13 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -12731,13 +12731,13 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
+        <v>714</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -12748,13 +12748,13 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>6</v>
       </c>
@@ -12765,13 +12765,13 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>6</v>
       </c>
@@ -12782,13 +12782,13 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -12799,13 +12799,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
+        <v>739</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -12819,10 +12819,10 @@
         <v>554</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>35</v>
       </c>
@@ -12833,13 +12833,13 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -12850,13 +12850,13 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>750</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -12867,13 +12867,13 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -12884,13 +12884,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
+        <v>756</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -12901,13 +12901,13 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
+        <v>759</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -12918,13 +12918,13 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
+        <v>763</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>4</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>3</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>3</v>
       </c>
@@ -13023,10 +13023,10 @@
         <v>357</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>10</v>
       </c>
@@ -13105,13 +13105,13 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2</v>
       </c>
@@ -13122,13 +13122,13 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
+        <v>778</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2</v>
       </c>
@@ -13139,30 +13139,30 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
+        <v>803</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="G36" s="20" t="s">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
@@ -13173,10 +13173,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
+        <v>782</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>783</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA920F-A8BD-A041-A879-FB7BAC42C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C7C2B-ECDF-CA4D-8196-D35DC68CADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -1924,9 +1924,6 @@
     <t>['CS_568', 'SEME_568']</t>
   </si>
   <si>
-    <t>['C_REST_G_AI_AET']</t>
-  </si>
-  <si>
     <t>HUA_DPE</t>
   </si>
   <si>
@@ -2915,6 +2912,9 @@
   </si>
   <si>
     <t>Systems or Networks: CS_502, CS_513, CS_528, CS_529, CS_533, CS_588, ECE_581, CS_535, CS_577, ECE_537</t>
+  </si>
+  <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_AI_AET']</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3221,6 +3221,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3879,7 +3882,7 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -3971,19 +3974,19 @@
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>770</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>771</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>360</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -4017,7 +4020,7 @@
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -4063,7 +4066,7 @@
     </row>
     <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -4075,10 +4078,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>372</v>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -4098,18 +4101,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>809</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="21" t="s">
         <v>811</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -4121,64 +4124,64 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>813</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="21" t="s">
         <v>815</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>817</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="21" t="s">
         <v>819</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>820</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>821</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -4190,18 +4193,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>824</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="21" t="s">
         <v>826</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -4213,41 +4216,41 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>828</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="21" t="s">
         <v>830</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>831</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>832</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="21" t="s">
         <v>834</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -4259,87 +4262,87 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="21" t="s">
         <v>838</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>839</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>840</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="21" t="s">
         <v>842</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>843</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>844</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="21" t="s">
         <v>846</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>847</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>848</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="21" t="s">
         <v>850</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -4351,41 +4354,41 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>852</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="21" t="s">
         <v>854</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>855</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>856</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="21" t="s">
         <v>858</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -4397,18 +4400,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>860</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="21" t="s">
         <v>862</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4420,18 +4423,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>864</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="21" t="s">
         <v>866</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4443,36 +4446,36 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>868</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>869</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>870</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="21" t="s">
         <v>872</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4528,12 +4531,12 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4545,12 +4548,12 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -4562,12 +4565,12 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4579,12 +4582,12 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4601,7 +4604,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -4613,12 +4616,12 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4630,29 +4633,29 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
         <v>880</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4681,12 +4684,12 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4703,7 +4706,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4715,12 +4718,12 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -4732,46 +4735,46 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
         <v>887</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>889</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4800,29 +4803,29 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
         <v>893</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4834,12 +4837,12 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4851,12 +4854,12 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -4868,12 +4871,12 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4885,12 +4888,12 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4902,12 +4905,12 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4924,7 +4927,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4936,12 +4939,12 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4958,7 +4961,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4970,12 +4973,12 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4992,7 +4995,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -5004,12 +5007,12 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -5021,12 +5024,12 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -5043,7 +5046,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5055,12 +5058,12 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5072,12 +5075,12 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5089,12 +5092,12 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5106,12 +5109,12 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5123,12 +5126,12 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -5140,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -5332,7 +5335,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5344,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5361,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5395,7 +5398,7 @@
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5434,7 +5437,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5446,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5497,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5514,7 +5517,7 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5531,12 +5534,12 @@
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -5548,12 +5551,12 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5565,12 +5568,12 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -5582,12 +5585,12 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5611,7 +5614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5651,7 +5654,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -5663,18 +5666,18 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -5686,18 +5689,18 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5709,13 +5712,13 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F4" t="s">
         <v>928</v>
       </c>
-      <c r="F4" t="s">
-        <v>929</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5732,18 +5735,18 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
+        <v>929</v>
+      </c>
+      <c r="F5" t="s">
         <v>930</v>
       </c>
-      <c r="F5" t="s">
-        <v>931</v>
-      </c>
       <c r="G5" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5755,18 +5758,18 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -5781,15 +5784,15 @@
         <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5801,18 +5804,18 @@
         <v>4.5</v>
       </c>
       <c r="E8" t="s">
+        <v>932</v>
+      </c>
+      <c r="F8" t="s">
         <v>933</v>
       </c>
-      <c r="F8" t="s">
-        <v>934</v>
-      </c>
       <c r="G8" s="25" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5824,13 +5827,13 @@
         <v>13.5</v>
       </c>
       <c r="E9" t="s">
+        <v>934</v>
+      </c>
+      <c r="F9" t="s">
         <v>935</v>
       </c>
-      <c r="F9" t="s">
-        <v>936</v>
-      </c>
       <c r="G9" s="25" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -9086,8 +9089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10911,8 +10914,8 @@
       <c r="F79" t="s">
         <v>625</v>
       </c>
-      <c r="G79" s="15" t="s">
-        <v>626</v>
+      <c r="G79" s="26" t="s">
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -11076,7 +11079,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -11215,7 +11218,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -11250,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F14" t="s">
         <v>379</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -11273,7 +11276,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F15" t="s">
         <v>383</v>
@@ -11284,7 +11287,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -11296,7 +11299,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -11307,7 +11310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -11330,7 +11333,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11348,12 +11351,12 @@
         <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -11365,10 +11368,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" t="s">
         <v>638</v>
-      </c>
-      <c r="F19" t="s">
-        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>403</v>
@@ -11376,7 +11379,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -11388,10 +11391,10 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" t="s">
         <v>641</v>
-      </c>
-      <c r="F20" t="s">
-        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>403</v>
@@ -11399,30 +11402,30 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>643</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>644</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="16" t="s">
         <v>645</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -11434,41 +11437,41 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
         <v>649</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>650</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="16" t="s">
         <v>651</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11480,33 +11483,33 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>655</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>656</v>
-      </c>
-      <c r="F25" t="s">
-        <v>657</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>467</v>
@@ -11514,7 +11517,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11526,10 +11529,10 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F26" t="s">
         <v>659</v>
-      </c>
-      <c r="F26" t="s">
-        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>467</v>
@@ -11537,7 +11540,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -11549,10 +11552,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F27" t="s">
         <v>662</v>
-      </c>
-      <c r="F27" t="s">
-        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>439</v>
@@ -11560,7 +11563,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -11572,10 +11575,10 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F28" t="s">
         <v>665</v>
-      </c>
-      <c r="F28" t="s">
-        <v>666</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>439</v>
@@ -11583,7 +11586,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11629,30 +11632,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>667</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>668</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>669</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="16" t="s">
         <v>670</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -11664,18 +11667,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
+        <v>672</v>
+      </c>
+      <c r="F32" t="s">
         <v>673</v>
       </c>
-      <c r="F32" t="s">
-        <v>674</v>
-      </c>
       <c r="G32" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -11687,7 +11690,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F33" t="s">
         <v>538</v>
@@ -11698,7 +11701,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -11710,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F34" t="s">
         <v>546</v>
@@ -11744,7 +11747,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -11813,7 +11816,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -11825,7 +11828,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F39" t="s">
         <v>566</v>
@@ -11836,7 +11839,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -11882,19 +11885,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>682</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
         <v>683</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>684</v>
       </c>
       <c r="F42" t="s">
         <v>621</v>
@@ -11952,7 +11955,7 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -11964,41 +11967,41 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>687</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>689</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>691</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12010,13 +12013,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="18" t="s">
         <v>695</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12039,12 +12042,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12056,18 +12059,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="18" t="s">
         <v>700</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -12079,18 +12082,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="18" t="s">
         <v>704</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -12102,18 +12105,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="18" t="s">
         <v>708</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -12125,41 +12128,41 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
+        <v>710</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>712</v>
-      </c>
       <c r="G9" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>713</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>715</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -12171,18 +12174,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>717</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="18" t="s">
         <v>719</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -12194,18 +12197,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
+        <v>721</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>723</v>
-      </c>
       <c r="G12" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12217,18 +12220,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>724</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="18" t="s">
         <v>726</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -12240,18 +12243,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
+        <v>728</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>730</v>
-      </c>
       <c r="G14" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -12263,18 +12266,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="18" t="s">
         <v>733</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -12286,36 +12289,36 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>737</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>737</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>738</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="18" t="s">
         <v>740</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12332,18 +12335,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -12355,18 +12358,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>744</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="18" t="s">
         <v>746</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -12378,18 +12381,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -12401,18 +12404,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>749</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="18" t="s">
         <v>751</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -12424,18 +12427,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>752</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="18" t="s">
         <v>754</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -12447,18 +12450,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="18" t="s">
         <v>757</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -12470,18 +12473,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>758</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="18" t="s">
         <v>760</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -12493,13 +12496,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>762</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="18" t="s">
         <v>764</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12527,7 +12530,7 @@
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -12619,42 +12622,42 @@
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>767</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>770</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -12665,7 +12668,7 @@
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -12688,7 +12691,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12734,7 +12737,7 @@
     </row>
     <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -12746,10 +12749,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>774</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
@@ -12757,53 +12760,53 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>776</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>777</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="18" t="s">
         <v>779</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>780</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>781</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="18" t="s">
         <v>783</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -12815,18 +12818,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
+        <v>785</v>
+      </c>
+      <c r="F39" t="s">
         <v>786</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" s="20" t="s">
         <v>787</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -12838,18 +12841,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>789</v>
+      </c>
+      <c r="F40" t="s">
         <v>790</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" s="20" t="s">
         <v>791</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -12861,13 +12864,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>793</v>
+      </c>
+      <c r="F41" t="s">
         <v>794</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" s="20" t="s">
         <v>795</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -12923,10 +12926,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>787</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -12940,10 +12943,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -12957,10 +12960,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>691</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -12974,10 +12977,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>790</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>791</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -12991,10 +12994,10 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
+        <v>794</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>795</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -13008,10 +13011,10 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>695</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -13028,7 +13031,7 @@
         <v>390</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -13042,10 +13045,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
+        <v>699</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>700</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -13059,10 +13062,10 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -13076,10 +13079,10 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -13093,10 +13096,10 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
+        <v>714</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>715</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -13110,10 +13113,10 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -13127,10 +13130,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -13144,10 +13147,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -13161,10 +13164,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
+        <v>739</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>740</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -13181,7 +13184,7 @@
         <v>554</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -13195,10 +13198,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -13212,10 +13215,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>750</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>751</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -13229,10 +13232,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>754</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -13246,10 +13249,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
+        <v>756</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>757</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -13263,10 +13266,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
+        <v>759</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>760</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -13280,10 +13283,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
+        <v>763</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>764</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -13385,7 +13388,7 @@
         <v>357</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -13467,7 +13470,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>372</v>
@@ -13484,10 +13487,10 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
+        <v>778</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>779</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -13501,10 +13504,10 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
+        <v>803</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>804</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -13518,10 +13521,10 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
+        <v>805</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>806</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -13535,10 +13538,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
+        <v>782</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>783</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C7C2B-ECDF-CA4D-8196-D35DC68CADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -20,31 +20,20 @@
     <sheet name="DS_MASTER" sheetId="5" r:id="rId5"/>
     <sheet name="DS_DS_BSMS" sheetId="6" r:id="rId6"/>
     <sheet name="DS_MAJOR" sheetId="7" r:id="rId7"/>
-    <sheet name="CS_MAJOR" sheetId="8" r:id="rId8"/>
-    <sheet name="CS_MAJOR3" sheetId="9" r:id="rId9"/>
-    <sheet name="ME_MAJOR" sheetId="10" r:id="rId10"/>
-    <sheet name="CS_DS_DOUBLE" sheetId="11" r:id="rId11"/>
-    <sheet name="CS_MASTER" sheetId="13" r:id="rId12"/>
+    <sheet name="OLD_CS_MAJOR" sheetId="8" r:id="rId8"/>
+    <sheet name="OLD_ME_MAJOR" sheetId="9" r:id="rId9"/>
+    <sheet name="CS_MASTER" sheetId="10" r:id="rId10"/>
+    <sheet name="ECE_MAJOR" sheetId="11" r:id="rId11"/>
+    <sheet name="ME_MAJOR" sheetId="12" r:id="rId12"/>
+    <sheet name="CS_MAJOR" sheetId="13" r:id="rId13"/>
+    <sheet name="BME_MAJOR" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1106">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -109,7 +98,7 @@
     <t>Humanities</t>
   </si>
   <si>
-    <t>["AR_DEPT", "TH_DEPT", "MUS_DEPT", "IMGD_341X"]</t>
+    <t>["AR_DEPT", "TH_DEPT", "MU_DEPT", "IMGD_341X"]</t>
   </si>
   <si>
     <t>["HUA_CORE", "HUA_DEPTH_SL_0", "HUA_ART_MAX"]</t>
@@ -1069,7 +1058,7 @@
     <t>AR DEPT, TH DEPT, MUS_DEPT</t>
   </si>
   <si>
-    <t>['AR_DEPT', 'TH_DEPT', 'MUS_DEPT']</t>
+    <t>['AR_DEPT', 'TH_DEPT', 'MU_DEPT']</t>
   </si>
   <si>
     <t>['HUA_CORE', 'HUA_DEPTH_SL_0', 'HUA_ART_MAX']</t>
@@ -1924,6 +1913,9 @@
     <t>['CS_568', 'SEME_568']</t>
   </si>
   <si>
+    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_AI_AET']</t>
+  </si>
+  <si>
     <t>HUA_DPE</t>
   </si>
   <si>
@@ -2434,31 +2426,736 @@
     <t>['CS_CORE', 'CS_SYS_REST']</t>
   </si>
   <si>
-    <t>['CS_2011', 'CS_2223', 'CS_3041', 'CS_3431', 'CS_3516']</t>
-  </si>
-  <si>
-    <t>['CS_3733']</t>
-  </si>
-  <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'CS_4804', 'BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_528', 'CS_529', 'ECE_581', 'CS_534', 'CS_538', 'CS_539', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_5008', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
-  </si>
-  <si>
-    <t>['CS_4120', 'CS_4123', 'CS_4533', 'CS_4536', 'CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
-  </si>
-  <si>
-    <t>['CS_4233', 'CS_509', 'CS_542', 'CS_546', 'CS_561', 'CS_562']</t>
-  </si>
-  <si>
-    <t>['CS_4513', 'CS_4515', 'CS_4516', 'CS_502', 'CS_533', 'CS_535']</t>
-  </si>
-  <si>
-    <t>['MA_DEPT', 'MA_1020', 'MA_1021', 'MA_1022', 'MA_1120', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541', 'MA_2071', 'MA_2072']</t>
-  </si>
-  <si>
-    <t>['CS 3041', 'CS 3431']</t>
-  </si>
-  <si>
-    <t>['CS_DESIGN']</t>
+    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2314', 'GOV_2315', 'GOV_2313']</t>
+  </si>
+  <si>
+    <t>CHEM</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_CHEM']</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_PHY']</t>
+  </si>
+  <si>
+    <t>PH_THERMO</t>
+  </si>
+  <si>
+    <t>PH_2101</t>
+  </si>
+  <si>
+    <t>['PH_2101']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'ME_PHY']</t>
+  </si>
+  <si>
+    <t>CHEM_THERMO</t>
+  </si>
+  <si>
+    <t>CH_3510</t>
+  </si>
+  <si>
+    <t>['CH_3510']</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'ME_CHEM', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>Math Core</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
+  </si>
+  <si>
+    <t>['ME_M']</t>
+  </si>
+  <si>
+    <t>MABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math or Basic Science </t>
+  </si>
+  <si>
+    <t>['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT']</t>
+  </si>
+  <si>
+    <t>['ME_MABS']</t>
+  </si>
+  <si>
+    <t>MECH_SYS_CORE</t>
+  </si>
+  <si>
+    <t>Mechanical Systems Core</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2502', 'ES_2503']</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_MS_CORE']</t>
+  </si>
+  <si>
+    <t>MECH_SYS_4000</t>
+  </si>
+  <si>
+    <t>ME_4320, ME_4322, RBE_4322, ME_4323, ME_4324</t>
+  </si>
+  <si>
+    <t>['ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
+  </si>
+  <si>
+    <t>['ME_MS']</t>
+  </si>
+  <si>
+    <t>THERMO_CORE</t>
+  </si>
+  <si>
+    <t>Thermofluid Systems Core</t>
+  </si>
+  <si>
+    <t>['ES_3003', 'ES_3004']</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_TS_CORE']</t>
+  </si>
+  <si>
+    <t>THERMO_4000</t>
+  </si>
+  <si>
+    <t>ME_4222 OR ME_4429</t>
+  </si>
+  <si>
+    <t>['ME_4422', 'ME_4429']</t>
+  </si>
+  <si>
+    <t>['ME_TS']</t>
+  </si>
+  <si>
+    <t>MAT_SCI</t>
+  </si>
+  <si>
+    <t>ES_2001</t>
+  </si>
+  <si>
+    <t>['ES_2001']</t>
+  </si>
+  <si>
+    <t>['ME_MAT_SCI']</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ECE classes</t>
+  </si>
+  <si>
+    <t>['ECE_DEPT', 'ECE_2010']</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E']</t>
+  </si>
+  <si>
+    <t>ME_EXP</t>
+  </si>
+  <si>
+    <t>ME_3901 OR ME_3902</t>
+  </si>
+  <si>
+    <t>['ME_3901', 'ME_3902']</t>
+  </si>
+  <si>
+    <t>['ME_EXP']</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>BME_1004, CS_1004, CS_1101, ME_2312, ME_4512</t>
+  </si>
+  <si>
+    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
+  </si>
+  <si>
+    <t>['ME_PROG']</t>
+  </si>
+  <si>
+    <t>THERMO_INTRO</t>
+  </si>
+  <si>
+    <t>ES_3001</t>
+  </si>
+  <si>
+    <t>['ES_3001']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>['ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT', 'CE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT']</t>
+  </si>
+  <si>
+    <t>['ME_E']</t>
+  </si>
+  <si>
+    <t>ECE_NOT</t>
+  </si>
+  <si>
+    <t>HOW DID THIS SHOW UP</t>
+  </si>
+  <si>
+    <t>['ECE_1799']</t>
+  </si>
+  <si>
+    <t>['ME_OTHER_ECE']</t>
+  </si>
+  <si>
+    <t>BREADTH</t>
+  </si>
+  <si>
+    <t>CS Breadth Electives</t>
+  </si>
+  <si>
+    <t>['BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_509', 'CS_526', 'RBE_526', 'CS_534', 'CS_536', 'CS_538', 'CS_539', 'CS_540', 'CS_542', 'CS_543', 'CS_544', 'CS_545', 'ECE_545', 'CS_546', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_561', 'CS_562', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'SEME_565', 'CS_565', 'SEME_566', 'CS_566', 'SEME_567', 'CS_567', 'SEME_568', 'CS_568']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_BREADTH']</t>
+  </si>
+  <si>
+    <t>SYS_NET</t>
+  </si>
+  <si>
+    <t>Systems or Networks: CS_502, CS_513, CS_528, CS_529, CS_533, CS_588, ECE_581, CS_535, CS_577, ECE_537</t>
+  </si>
+  <si>
+    <t>['CS_502', 'CS_513', 'CS_528', 'CS_529', 'CS_533', 'ECE_581', 'CS_535', 'CS_577', 'ECE_537']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_SYS_NETWORKS']</t>
+  </si>
+  <si>
+    <t>THRY</t>
+  </si>
+  <si>
+    <t>Theory: CS_503, CS_521, CS_559, CS_5003</t>
+  </si>
+  <si>
+    <t>['CS_503', 'CS_521', 'CS_559', 'CS_5003']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_THEORY']</t>
+  </si>
+  <si>
+    <t>Algorithms: CS_504, CS_584, CS_5084</t>
+  </si>
+  <si>
+    <t>['CS_504', 'CS_584', 'CS_5084']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_ALGO']</t>
+  </si>
+  <si>
+    <t>ELECT_THESIS</t>
+  </si>
+  <si>
+    <t>Elective or Thesis</t>
+  </si>
+  <si>
+    <t>['CS_5007', 'CS_5008', 'CS_598']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_THESIS_DISP_CAP']</t>
+  </si>
+  <si>
+    <t>ELECT</t>
+  </si>
+  <si>
+    <t>['CS_514', 'ECE_572', 'CS_522', 'MA_510', 'CS_525', 'CS_587', 'ECE_588', 'CS_588']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS']</t>
+  </si>
+  <si>
+    <t>NET_BREADTH_DOUBLE</t>
+  </si>
+  <si>
+    <t>Networks and Breadth: CS_558</t>
+  </si>
+  <si>
+    <t>['CS_558']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_SYS_NETWORKS', 'CS_MS_BREADTH']</t>
+  </si>
+  <si>
+    <t>THESIS</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>['CS_599']</t>
+  </si>
+  <si>
+    <t>['CS_MS_TOTAL_CREDITS', 'CS_THESIS_CAP']</t>
+  </si>
+  <si>
+    <t>ETHICS_SS</t>
+  </si>
+  <si>
+    <t>IQP Off Campus</t>
+  </si>
+  <si>
+    <t>IQP On Campus</t>
+  </si>
+  <si>
+    <t>MATH_ELECT</t>
+  </si>
+  <si>
+    <t>['BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_1020', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>['ECE_MATH', 'ECE_MATH_SCI_ELECT']</t>
+  </si>
+  <si>
+    <t>DISC</t>
+  </si>
+  <si>
+    <t>Math and Engineering Electives</t>
+  </si>
+  <si>
+    <t>['ECE_MATH', 'ECE_MATH_SCI_ELECT', 'ECE_ENG']</t>
+  </si>
+  <si>
+    <t>NUM_METH</t>
+  </si>
+  <si>
+    <t>Math and CS Engineering Electives</t>
+  </si>
+  <si>
+    <t>['CS_4032', 'MA_3257', 'CS_4033', 'MA_3457']</t>
+  </si>
+  <si>
+    <t>['ECE_MATH', 'ECE_MATH_SCI_ELECT', 'ECE_CS', 'ECE_ENG']</t>
+  </si>
+  <si>
+    <t>MATH_CORE</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_2051', 'MA_2621']</t>
+  </si>
+  <si>
+    <t>['ECE_MATH', 'ECE_MATH_SCI_ELECT', 'ECE_MATH_CORE']</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'PH_511']</t>
+  </si>
+  <si>
+    <t>['ECE_PHYSICS', 'ECE_MATH_SCI_ELECT']</t>
+  </si>
+  <si>
+    <t>PH_2550</t>
+  </si>
+  <si>
+    <t>Physics and Engineering</t>
+  </si>
+  <si>
+    <t>['PH_2550', 'AE_2550']</t>
+  </si>
+  <si>
+    <t>['ECE_PHYSICS', 'ECE_MATH_SCI_ELECT', 'ECE_ENG']</t>
+  </si>
+  <si>
+    <t>CHEM_BIO</t>
+  </si>
+  <si>
+    <t>Chem and Bio</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4260', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2760', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520']</t>
+  </si>
+  <si>
+    <t>['ECE_CHEM_BIO', 'ECE_MATH_SCI_ELECT']</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Math and Science Electives</t>
+  </si>
+  <si>
+    <t>['GE_2341']</t>
+  </si>
+  <si>
+    <t>['ECE_MATH_SCI_ELECT']</t>
+  </si>
+  <si>
+    <t>ECE_ELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE Electives </t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'ECE_2010', 'ECE_2019', 'ECE_2311', 'ECE_2799', 'ECE_3501', 'ECE_3849']</t>
+  </si>
+  <si>
+    <t>['ECE_ELECTIVES', 'ECE_ENG']</t>
+  </si>
+  <si>
+    <t>CRYPTO</t>
+  </si>
+  <si>
+    <t>CS and ECE Electives</t>
+  </si>
+  <si>
+    <t>['CS_4801', 'ECE_4802']</t>
+  </si>
+  <si>
+    <t>['ECE_ELECTIVES', 'ECE_CS', 'ECE_ENG']</t>
+  </si>
+  <si>
+    <t>COMP_ENG</t>
+  </si>
+  <si>
+    <t>Computer Engineering - ECE_2029, ECE_2049, ECE_3829, ECE_4801</t>
+  </si>
+  <si>
+    <t>['ECE_2029', 'ECE_2049', 'ECE_3829', 'ECE_4801']</t>
+  </si>
+  <si>
+    <t>['ECE_ELECTIVES', 'ECE_ENG', 'ECE_COMP_ENG']</t>
+  </si>
+  <si>
+    <t>ELE_ENG</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>['ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2312', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4902', 'ECE_4904', 'ES_3011']</t>
+  </si>
+  <si>
+    <t>['ECE_ELECTIVES', 'ECE_ENG', 'ECE_ELEC_ENG']</t>
+  </si>
+  <si>
+    <t>Computer Science Electives</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4804']</t>
+  </si>
+  <si>
+    <t>['ECE_CS', 'ECE_ENG']</t>
+  </si>
+  <si>
+    <t>['CS_2011', 'CS_3043', 'AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4701', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4814', 'ME_4814', 'CHE_2301', 'ME_2301', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['ECE_ENG']</t>
+  </si>
+  <si>
+    <t>Humanities - Ethics</t>
+  </si>
+  <si>
+    <t>CH_1010, CH_1020</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'ME_CHEM']</t>
+  </si>
+  <si>
+    <t>PH_1110, PH_1120</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1120']</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2051', 'MA_2071']</t>
+  </si>
+  <si>
+    <t>['ME_M', 'ME_MABS']</t>
+  </si>
+  <si>
+    <t>Math and Basic Science Electives</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1111', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'MA_1020', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_2611', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>CH_THERMO</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'ME_CHEM', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'ME_PHY', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>PHY_AERO</t>
+  </si>
+  <si>
+    <t>Science and Engineering</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'ME_E']</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_E', 'ME_MS_CORE']</t>
+  </si>
+  <si>
+    <t>ME_4320, ME_4323, ME_4324, ME_4322, RBE_4322</t>
+  </si>
+  <si>
+    <t>['ME_4320', 'ME_4323', 'ME_4324', 'ME_4322', 'RBE_4322']</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_E']</t>
+  </si>
+  <si>
+    <t>THERMO_SYS_CORE</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_E', 'ME_TS_CORE']</t>
+  </si>
+  <si>
+    <t>THERMO_SYS_4000</t>
+  </si>
+  <si>
+    <t>ME_4222, ME_4429</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_E']</t>
+  </si>
+  <si>
+    <t>['ME_MAT_SCI', 'ME_E']</t>
+  </si>
+  <si>
+    <t>ECE_2010 or other 2000+ ECE</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904']</t>
+  </si>
+  <si>
+    <t>ENG_EXP</t>
+  </si>
+  <si>
+    <t>['ME_EXP', 'ME_E']</t>
+  </si>
+  <si>
+    <t>Programming - BME_1004, CS_1004, CS_1101, ME_2312, ME_4512</t>
+  </si>
+  <si>
+    <t>['BME_1004', 'CS_1004', 'CS_1101']</t>
+  </si>
+  <si>
+    <t>PROG_ENG</t>
+  </si>
+  <si>
+    <t>Engineering Programming</t>
+  </si>
+  <si>
+    <t>['ME_2312', 'ME_4512']</t>
+  </si>
+  <si>
+    <t>['ME_PROG', 'ME_E']</t>
+  </si>
+  <si>
+    <t>['AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'ES_2800', 'ES_3002', 'ES_3011', 'ES_3323', 'ES_3501', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'ME_2300', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>CS_INTRO</t>
+  </si>
+  <si>
+    <t>Intro CS - CS_1101 OR CS_1102</t>
+  </si>
+  <si>
+    <t>CS Electives</t>
+  </si>
+  <si>
+    <t>CS_DISC</t>
+  </si>
+  <si>
+    <t>Discrete Math - CS_2022 OR MA_2201</t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming - CS_2102 OR CS_2103</t>
+  </si>
+  <si>
+    <t>CS_SYS_PROG</t>
+  </si>
+  <si>
+    <t>Systems Programming</t>
+  </si>
+  <si>
+    <t>CS_DESIGN</t>
+  </si>
+  <si>
+    <t>Design - CS_3041, CS_3431, CS_3733, CS_4233</t>
+  </si>
+  <si>
+    <t>['CS_3041', 'CS_3431', 'CS_3733']</t>
+  </si>
+  <si>
+    <t>CS_SOC_IMPS</t>
+  </si>
+  <si>
+    <t>CS_THRY</t>
+  </si>
+  <si>
+    <t>Theory - CS_3133, CS_4120, CS_4123, CS_4533, CS_4536</t>
+  </si>
+  <si>
+    <t>CS 4000+ Level Electives</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4804', 'BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_528', 'CS_529', 'ECE_581', 'CS_534', 'CS_538', 'CS_539', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_5008', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>CS_NUM_MET</t>
+  </si>
+  <si>
+    <t>CS_4_THRY</t>
+  </si>
+  <si>
+    <t>CS 4000 Level Theory - CS_4120, CS_4123, CS_4533, CS_4536</t>
+  </si>
+  <si>
+    <t>CS_G_THRY</t>
+  </si>
+  <si>
+    <t>CS Grad Level Theory - CS_503, CS_536, CS_544, CS_584, CS_5003, CS_5084</t>
+  </si>
+  <si>
+    <t>CS_4_DESIGN</t>
+  </si>
+  <si>
+    <t>CS 4000 Level Design - CS_4233</t>
+  </si>
+  <si>
+    <t>CS_G_DESIGN</t>
+  </si>
+  <si>
+    <t>CS Grad Level Design - CS_509, CS_542, CS_546, CS_561, CS_562</t>
+  </si>
+  <si>
+    <t>CS_4_SYS</t>
+  </si>
+  <si>
+    <t>CS 4000 Level Systems - CS_4513, CS_4515, CS_4516</t>
+  </si>
+  <si>
+    <t>CS_G_SYS</t>
+  </si>
+  <si>
+    <t>CS Grad Level Systems - CS_502, CS_533, CS_535</t>
+  </si>
+  <si>
+    <t>CS_CRYPT</t>
+  </si>
+  <si>
+    <t>Cryptography - CS_4801 OR ECE_4802</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_SCI_ENG', 'CS_UPLVL_MIN']</t>
+  </si>
+  <si>
+    <t>Probability - MA_2621 OR MA_2631</t>
+  </si>
+  <si>
+    <t>Statistics - MA_2611, MA_2612</t>
+  </si>
+  <si>
+    <t>1000_MATH</t>
+  </si>
+  <si>
+    <t>1000 Level Math</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_1120', 'MA_1801', 'MA_1971']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'CS_MATH_1000L_REST']</t>
+  </si>
+  <si>
+    <t>['MA_2051', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2610', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
+  </si>
+  <si>
+    <t>BIO_CHEM_LAP</t>
+  </si>
+  <si>
+    <t>BB_4170, CH_4170', BB_4190, CH_4190</t>
+  </si>
+  <si>
+    <t>['BB_4170', 'CH_4170', 'BB_4190', 'CH_4190']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'CS_SCI_DPTH_SL_1', 'CS_SCI_DPTH_SL_2']</t>
+  </si>
+  <si>
+    <t>['CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520']</t>
+  </si>
+  <si>
+    <t>Geology</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>Science and Engineering Electives</t>
+  </si>
+  <si>
+    <t>['BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_1030', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CHE_1011', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ES_1020', 'ES_1310', 'ES_1500', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'ME_1520', 'ME_1800', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_4540', 'RBE_4815', 'RBE_1001']</t>
+  </si>
+  <si>
+    <t>Robotics Data Privacy - RBE_3100</t>
+  </si>
+  <si>
+    <t>['CS_SCI_ENG', 'CS_SOC_IMPS']</t>
+  </si>
+  <si>
+    <t>DPE_HU</t>
+  </si>
+  <si>
+    <t>Data Privacy Humanitites - PY_2731, RE_2731, PY_2713</t>
+  </si>
+  <si>
+    <t>DPE_GOV</t>
+  </si>
+  <si>
+    <t>Data Privacy Social Science - GOV_2314, GOV_2315</t>
+  </si>
+  <si>
+    <t>['GOV_2314', 'ID_2314', 'GOV_2315']</t>
+  </si>
+  <si>
+    <t>OO_REST</t>
+  </si>
+  <si>
+    <t>Object Oriented</t>
   </si>
   <si>
     <t>['CS_210X']</t>
@@ -2467,461 +3164,200 @@
     <t>['CS_OBJ_OR_REST']</t>
   </si>
   <si>
-    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2314', 'GOV_2315', 'GOV_2313']</t>
-  </si>
-  <si>
-    <t>CHEM</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>['CH_1010', 'CH_1020']</t>
-  </si>
-  <si>
-    <t>['ME_BSCAP', 'ME_CHEM']</t>
-  </si>
-  <si>
-    <t>PHYS</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>['PH_1110', 'PH_1120', 'PH_1111', 'PH_1121']</t>
-  </si>
-  <si>
-    <t>['ME_BSCAP', 'ME_PHY']</t>
-  </si>
-  <si>
-    <t>PH_THERMO</t>
-  </si>
-  <si>
-    <t>PH_2101</t>
-  </si>
-  <si>
-    <t>['PH_2101']</t>
-  </si>
-  <si>
-    <t>['ME_BSCAP', 'ME_MABS', 'ME_PHY']</t>
-  </si>
-  <si>
-    <t>CHEM_THERMO</t>
-  </si>
-  <si>
-    <t>CH_3510</t>
-  </si>
-  <si>
-    <t>['CH_3510']</t>
-  </si>
-  <si>
-    <t>['ME_BSCAP', 'ME_MABS', 'ME_CHEM', 'ME_ES_3001_EQ']</t>
-  </si>
-  <si>
-    <t>Math Core</t>
-  </si>
-  <si>
-    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_2071', 'MA_2051']</t>
-  </si>
-  <si>
-    <t>['ME_M']</t>
-  </si>
-  <si>
-    <t>MABS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Math or Basic Science </t>
-  </si>
-  <si>
-    <t>['MA_DEPT', 'CH_DEPT', 'PH_DEPT', 'GE_DEPT', 'BB_DEPT']</t>
-  </si>
-  <si>
-    <t>['ME_MABS']</t>
-  </si>
-  <si>
-    <t>MECH_SYS_CORE</t>
-  </si>
-  <si>
-    <t>Mechanical Systems Core</t>
-  </si>
-  <si>
-    <t>['ES_2501', 'ES_2502', 'ES_2503']</t>
-  </si>
-  <si>
-    <t>['ME_MS', 'ME_MS_CORE']</t>
-  </si>
-  <si>
-    <t>MECH_SYS_4000</t>
-  </si>
-  <si>
-    <t>ME_4320, ME_4322, RBE_4322, ME_4323, ME_4324</t>
-  </si>
-  <si>
-    <t>['ME_4320', 'ME_4322', 'ME_4323', 'ME_4324', 'RBE_4322']</t>
-  </si>
-  <si>
-    <t>['ME_MS']</t>
-  </si>
-  <si>
-    <t>THERMO_CORE</t>
-  </si>
-  <si>
-    <t>Thermofluid Systems Core</t>
-  </si>
-  <si>
-    <t>['ES_3003', 'ES_3004']</t>
-  </si>
-  <si>
-    <t>['ME_TS', 'ME_TS_CORE']</t>
-  </si>
-  <si>
-    <t>THERMO_4000</t>
-  </si>
-  <si>
-    <t>ME_4222 OR ME_4429</t>
-  </si>
-  <si>
-    <t>['ME_4422', 'ME_4429']</t>
-  </si>
-  <si>
-    <t>['ME_TS']</t>
-  </si>
-  <si>
-    <t>MAT_SCI</t>
-  </si>
-  <si>
-    <t>ES_2001</t>
-  </si>
-  <si>
-    <t>['ES_2001']</t>
-  </si>
-  <si>
-    <t>['ME_MAT_SCI']</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>ECE classes</t>
-  </si>
-  <si>
-    <t>['ECE_DEPT', 'ECE_2010']</t>
-  </si>
-  <si>
-    <t>['ME_ECE', 'ME_E']</t>
-  </si>
-  <si>
-    <t>ME_EXP</t>
-  </si>
-  <si>
-    <t>ME_3901 OR ME_3902</t>
-  </si>
-  <si>
-    <t>['ME_3901', 'ME_3902']</t>
-  </si>
-  <si>
-    <t>['ME_EXP']</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
-    <t>BME_1004, CS_1004, CS_1101, ME_2312, ME_4512</t>
-  </si>
-  <si>
-    <t>['ME_2312', 'ME_4512', 'BME_1004', 'CS_1101', 'CS_1004']</t>
-  </si>
-  <si>
-    <t>['ME_PROG']</t>
-  </si>
-  <si>
-    <t>THERMO_INTRO</t>
-  </si>
-  <si>
-    <t>ES_3001</t>
-  </si>
-  <si>
-    <t>['ES_3001']</t>
-  </si>
-  <si>
-    <t>['ME_E', 'ME_ES_3001_EQ']</t>
-  </si>
-  <si>
-    <t>['ES_DEPT', 'ME_DEPT', 'AREN_DEPT', 'CHE_DEPT', 'RBE_DEPT', 'CE_DEPT', 'AE_DEPT', 'OIE_DEPT', 'FP_DEPT']</t>
-  </si>
-  <si>
-    <t>['ME_E']</t>
-  </si>
-  <si>
-    <t>ECE_NOT</t>
-  </si>
-  <si>
-    <t>HOW DID THIS SHOW UP</t>
-  </si>
-  <si>
-    <t>['ECE_1799']</t>
-  </si>
-  <si>
-    <t>['ME_OTHER_ECE']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_CS', 'CS_1000_REST', 'DS_CS_1000_L']</t>
-  </si>
-  <si>
-    <t>['CS_2011', 'CS_3516']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_CS', 'CS_OBJ_OR_REST']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_ALGOS']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_SYS_REST']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS']</t>
-  </si>
-  <si>
-    <t>['CS_3041']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'CS_SOC_IMPS', 'DS_DPE']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_THRY']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'DS_DAM']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_DESIGN']</t>
-  </si>
-  <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4300', 'IMGD_4300', 'CS_4401', 'CS_4404', 'CS_4518', 'CS_4731', 'CS_4732', 'CS_4801', 'ECE_4802', 'BCB_502', 'BCB_503', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_529', 'ECE_581', 'CS_538', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_673', 'ECE_673', 'CS_5008', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS', 'CS_UPLVL_MIN', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>['CS_4032']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS', 'CS_UPLVL_MIN']</t>
-  </si>
-  <si>
-    <t>['MA_3257']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_THRY', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>['CS_4123', 'CS_4533', 'CS_4536', 'CS_503', 'CS_536', 'CS_544', 'CS_584', 'CS_5003', 'CS_5084']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_DESIGN', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>['CS_4233', 'CS_561']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>['CS_4241', 'CS_4341', 'CS_4804', 'CS_582', 'CS_583', 'CS_528', 'CS_534', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_541', 'DS_541']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER', 'DS_DMML']</t>
-  </si>
-  <si>
-    <t>['CS_4342', 'CS_4445', 'CS_539', 'CS_548']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER', 'DS_DAM']</t>
-  </si>
-  <si>
-    <t>['CS_509', 'CS_546', 'CS_562']</t>
-  </si>
-  <si>
-    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_DESIGN', 'DS_4LDER', 'DS_DAM']</t>
-  </si>
-  <si>
-    <t>['CS_PROB', 'CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
-  </si>
-  <si>
-    <t>['CS_STATS', 'CS_GEN_MATH', 'DS_STATS']</t>
-  </si>
-  <si>
-    <t>['MA_DEPT']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_MATH', 'DS_MS']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS', 'DS_4LDER']</t>
-  </si>
-  <si>
-    <t>['MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632', 'DS_502', 'MA_543', 'MA_542', 'MA_554', 'MA_540', 'MA_541']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
-  </si>
-  <si>
-    <t>['MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_MATH', 'DS_LA']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_0']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_1']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_2']</t>
-  </si>
-  <si>
-    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_3']</t>
-  </si>
-  <si>
-    <t>['CS_SCI_ENG', 'DS_NES']</t>
-  </si>
-  <si>
-    <t>['BME_DEPT', 'CE_DEPT', 'CHE_DEPT', 'ECE_DEPT', 'ME_DEPT', 'RBE_DEPT']</t>
-  </si>
-  <si>
-    <t>['ES_DEPT']</t>
-  </si>
-  <si>
-    <t>['SOC_SCI_REQ', 'CS_SOC_IMPS', 'DS_DPE']</t>
-  </si>
-  <si>
-    <t>['GOV_2313']</t>
-  </si>
-  <si>
-    <t>['BCB_4004', 'MIS_4720', 'MIS_4741', 'MIS_571', 'MIS_587', 'MKT_568']</t>
-  </si>
-  <si>
-    <t>['MIS_4084', 'OIE_4430', 'MIS_584', 'OIE_559']</t>
-  </si>
-  <si>
-    <t>['AE_DEPT', 'AREN_DEPT']</t>
-  </si>
-  <si>
-    <t>['CS_1004']</t>
-  </si>
-  <si>
-    <t>['CS_2119']</t>
-  </si>
-  <si>
-    <t>['ID_2314', 'IMGD_2000']</t>
-  </si>
-  <si>
-    <t>['CS_SOC_IMPS', 'DS_DPE']</t>
-  </si>
-  <si>
-    <t>['CS_502', 'CS_513', 'CS_528', 'CS_529', 'CS_533', 'ECE_581', 'CS_535', 'CS_577', 'ECE_537']</t>
-  </si>
-  <si>
-    <t>Theory: CS_503, CS_521, CS_559, CS_5003</t>
-  </si>
-  <si>
-    <t>['CS_503', 'CS_521', 'CS_559', 'CS_5003']</t>
-  </si>
-  <si>
-    <t>Algorithms: CS_504, CS_584, CS_5084</t>
-  </si>
-  <si>
-    <t>['CS_504', 'CS_584', 'CS_5084']</t>
-  </si>
-  <si>
-    <t>Elective or Thesis</t>
-  </si>
-  <si>
-    <t>Networks and Breadth: CS_558</t>
-  </si>
-  <si>
-    <t>['CS_558']</t>
-  </si>
-  <si>
-    <t>Thesis</t>
-  </si>
-  <si>
-    <t>['CS_599']</t>
-  </si>
-  <si>
-    <t>['BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'CS_509', 'CS_526', 'RBE_526', 'CS_534', 'CS_536', 'CS_538', 'CS_539', 'CS_540', 'CS_542', 'CS_543', 'CS_544', 'CS_545', 'ECE_545', 'CS_546', 'CS_548', 'CS_549', 'RBE_549', 'CS_557', 'CS_561', 'CS_562', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_578', 'ECE_578', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_673', 'ECE_673', 'CS_541', 'DS_541', 'CS_547', 'DS_547', 'SEME_565', 'CS_565', 'SEME_566', 'CS_566', 'SEME_567', 'CS_567', 'SEME_568', 'CS_568']</t>
-  </si>
-  <si>
-    <t>BREADTH</t>
-  </si>
-  <si>
-    <t>SYS_NET</t>
-  </si>
-  <si>
-    <t>THRY</t>
-  </si>
-  <si>
-    <t>ELECT_THESIS</t>
-  </si>
-  <si>
-    <t>ELECT</t>
-  </si>
-  <si>
-    <t>NET_BREADTH_DOUBLE</t>
-  </si>
-  <si>
-    <t>THESIS</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_BREADTH']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_SYS_NETWORKS']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_THEORY']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_ALGO']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_MS_SYS_NETWORKS', 'CS_MS_BREADTH']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_THESIS_CAP']</t>
-  </si>
-  <si>
-    <t>['CS_MS_TOTAL_CREDITS', 'CS_THESIS_DISP_CAP']</t>
-  </si>
-  <si>
-    <t>['CS_514', 'ECE_572', 'CS_522', 'MA_510', 'CS_525', 'CS_587', 'ECE_588', 'CS_588']</t>
-  </si>
-  <si>
-    <t>['CS_5007', 'CS_5008', 'CS_598']</t>
-  </si>
-  <si>
-    <t>CS Breadth Electives</t>
-  </si>
-  <si>
-    <t>Systems or Networks: CS_502, CS_513, CS_528, CS_529, CS_533, CS_588, ECE_581, CS_535, CS_577, ECE_537</t>
-  </si>
-  <si>
-    <t>['DS_M_TOTAL_CREDITS', 'C_REST_G_AI_AET']</t>
+    <t>IMGD</t>
+  </si>
+  <si>
+    <t>IMGD_2000, IMGD_2001</t>
+  </si>
+  <si>
+    <t>['IMGD_2000', 'IMGD_2001']</t>
+  </si>
+  <si>
+    <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2314', 'GOV_2315', 'GOV_2313', 'ID_2314']</t>
+  </si>
+  <si>
+    <t>['BME_M', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1120', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2610', 'MA_2611']</t>
+  </si>
+  <si>
+    <t>['BME_B', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
+  </si>
+  <si>
+    <t>['BME_B', 'BME_SS', 'BME_HP']</t>
+  </si>
+  <si>
+    <t>['BB_3101', 'BB_3102', 'BB_3515']</t>
+  </si>
+  <si>
+    <t>['BME_B', 'BME_C', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['BME_P', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['BME_C', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['BME_SS']</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4804', 'MA_1801', 'MA_1971', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2612', 'MA_2621', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>['BME_SS', 'BME_CP']</t>
+  </si>
+  <si>
+    <t>['CS_2301', 'CS_2303', 'CS_1101', 'CS_1102', 'CS_1004']</t>
+  </si>
+  <si>
+    <t>['BME_SS', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['BME_CP', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_1004']</t>
+  </si>
+  <si>
+    <t>['BME_HP', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME', 'BME_LIV_SYST']</t>
+  </si>
+  <si>
+    <t>['BME_3111']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_BME', 'BME_STRESS_REST']</t>
+  </si>
+  <si>
+    <t>['BME_2502']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_3610']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMECH', 'BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2503']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_STRESS_REST']</t>
+  </si>
+  <si>
+    <t>['ES_2502']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ES_3004']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMAT', 'BME_2000_L_ENG', 'BME_BME', 'BME_MAT_REST']</t>
+  </si>
+  <si>
+    <t>['BME_2001']</t>
+  </si>
+  <si>
+    <t>['BME_BIOMAT', 'BME_2000_L_ENG', 'BME_MAT_REST']</t>
+  </si>
+  <si>
+    <t>['BME_BIOINS', 'BME_2000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_2210']</t>
+  </si>
+  <si>
+    <t>['BME_BIOINS', 'BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ECE_2010']</t>
+  </si>
+  <si>
+    <t>['BME_A', 'BME_2000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_2211']</t>
+  </si>
+  <si>
+    <t>['BME_A', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ME_3901']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_2610']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_L', 'BME_3000_L_ENG', 'BME_BME', 'BME_LIV_SYST']</t>
+  </si>
+  <si>
+    <t>['BME_3012', 'BME_3503', 'BME_3813']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_L', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_3013', 'BME_3014', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3811']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_3112']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_ED', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_3300']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_4000_L_BME', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ES_2800', 'ME_2300', 'ME_2312', 'ME_2820', 'RBE_2001', 'RBE_2002', 'RBE_3100']</t>
+  </si>
+  <si>
+    <t>['BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_3001', 'RBE_3002', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_1001']</t>
+  </si>
+  <si>
+    <t>['BME_GRAD_REST']</t>
+  </si>
+  <si>
+    <t>['BME_520', 'RBE_520', 'BME_523', 'BME_330', 'ME_5359', 'MTE_559', 'BME_531', 'BME_532', 'BME_533', 'ME_5503', 'BME_535', 'BME_553', 'BME_555', 'BME_560', 'BME_562', 'BME_564', 'BME_580', 'RBE_580', 'ME_5205', 'BME_581', 'BME_583', 'BME_591', 'BME_592', 'BME_593', 'BME_594', 'BME_595', 'BME_596', 'BME_597', 'BME_598', 'BME_599', 'BME_698']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2998,6 +3434,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3007,7 +3461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3146,11 +3600,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3217,13 +3716,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3542,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3820,1802 +4331,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>769</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>770</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>771</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>772</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>773</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>774</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>808</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>809</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>812</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>813</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>816</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>817</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>820</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>821</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>674</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>824</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>828</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>831</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>832</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>835</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>839</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>840</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>843</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>844</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>847</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>848</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>851</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>852</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>855</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>856</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>859</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>860</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>863</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>80</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>864</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>761</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>762</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>869</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>870</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>872</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>873</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>687</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>875</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>876</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>877</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>878</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>695</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>879</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>881</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>882</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>883</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>884</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="C14">
-        <v>63</v>
-      </c>
-      <c r="D14">
-        <v>63</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>886</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>890</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>892</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>894</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>896</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>898</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>733</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>726</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>900</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>901</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>902</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>904</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>905</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>907</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>909</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>910</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>912</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>913</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>914</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
-        <v>917</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
-        <v>806</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>783</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>925</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="G65" t="s">
-        <v>621</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5630,31 +4349,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>937</v>
+        <v>863</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -5666,18 +4385,18 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>954</v>
+        <v>864</v>
       </c>
       <c r="F2" t="s">
-        <v>936</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>944</v>
+        <v>865</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -5689,18 +4408,18 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>955</v>
+        <v>868</v>
       </c>
       <c r="F3" t="s">
-        <v>926</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>945</v>
+        <v>869</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>939</v>
+        <v>871</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5712,13 +4431,13 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="s">
-        <v>927</v>
+        <v>872</v>
       </c>
       <c r="F4" t="s">
-        <v>928</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>946</v>
+        <v>873</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5735,18 +4454,18 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="F5" t="s">
-        <v>930</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>947</v>
+        <v>876</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>940</v>
+        <v>878</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5758,18 +4477,18 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>931</v>
+        <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>953</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>951</v>
+        <v>880</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>941</v>
+        <v>882</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -5784,15 +4503,15 @@
         <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>952</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>948</v>
+        <v>883</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>942</v>
+        <v>885</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5804,18 +4523,18 @@
         <v>4.5</v>
       </c>
       <c r="E8" t="s">
-        <v>932</v>
+        <v>886</v>
       </c>
       <c r="F8" t="s">
-        <v>933</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>949</v>
+        <v>887</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>943</v>
+        <v>889</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5827,13 +4546,3163 @@
         <v>13.5</v>
       </c>
       <c r="E9" t="s">
+        <v>890</v>
+      </c>
+      <c r="F9" t="s">
+        <v>891</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="48.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>772</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>894</v>
+      </c>
+      <c r="F9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>895</v>
+      </c>
+      <c r="F10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>797</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>745</v>
+      </c>
+      <c r="F13" t="s">
+        <v>897</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>900</v>
+      </c>
+      <c r="F14" t="s">
+        <v>691</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>902</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>903</v>
+      </c>
+      <c r="F15" t="s">
+        <v>904</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>906</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>814</v>
+      </c>
+      <c r="F16" t="s">
+        <v>907</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>909</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F17" t="s">
+        <v>910</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>912</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>913</v>
+      </c>
+      <c r="F18" t="s">
+        <v>914</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F19" t="s">
+        <v>918</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>920</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>921</v>
+      </c>
+      <c r="F20" t="s">
+        <v>922</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>924</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>925</v>
+      </c>
+      <c r="F21" t="s">
+        <v>926</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>928</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>929</v>
+      </c>
+      <c r="F22" t="s">
+        <v>930</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>932</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>933</v>
+      </c>
+      <c r="F23" t="s">
         <v>934</v>
       </c>
+      <c r="G23" s="26" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>936</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>937</v>
+      </c>
+      <c r="F24" t="s">
+        <v>938</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>940</v>
+      </c>
+      <c r="F25" t="s">
+        <v>941</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="C26">
+        <v>158</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>763</v>
+      </c>
+      <c r="F26" t="s">
+        <v>943</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>772</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>894</v>
+      </c>
       <c r="F9" t="s">
-        <v>935</v>
-      </c>
-      <c r="G9" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>895</v>
+      </c>
+      <c r="F10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>797</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>946</v>
+      </c>
+      <c r="F13" t="s">
+        <v>800</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>948</v>
+      </c>
+      <c r="F14" t="s">
+        <v>949</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>906</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>814</v>
+      </c>
+      <c r="F15" t="s">
         <v>950</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>817</v>
+      </c>
+      <c r="B16">
+        <v>156</v>
+      </c>
+      <c r="C16">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>952</v>
+      </c>
+      <c r="F16" t="s">
+        <v>953</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>954</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>811</v>
+      </c>
+      <c r="F17" t="s">
+        <v>812</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>806</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>807</v>
+      </c>
+      <c r="F18" t="s">
+        <v>808</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>957</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>958</v>
+      </c>
+      <c r="F19" t="s">
+        <v>914</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>821</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>822</v>
+      </c>
+      <c r="F20" t="s">
+        <v>823</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>825</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>961</v>
+      </c>
+      <c r="F21" t="s">
+        <v>962</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>964</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>830</v>
+      </c>
+      <c r="F22" t="s">
+        <v>831</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>966</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>967</v>
+      </c>
+      <c r="F23" t="s">
+        <v>835</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>837</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>838</v>
+      </c>
+      <c r="F24" t="s">
+        <v>839</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>841</v>
+      </c>
+      <c r="B25">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>970</v>
+      </c>
+      <c r="F25" t="s">
+        <v>971</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>972</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>846</v>
+      </c>
+      <c r="F26" t="s">
+        <v>847</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>849</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>974</v>
+      </c>
+      <c r="F27" t="s">
+        <v>975</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>976</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>977</v>
+      </c>
+      <c r="F28" t="s">
+        <v>978</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>762</v>
+      </c>
+      <c r="B29">
+        <v>140</v>
+      </c>
+      <c r="C29">
+        <v>140</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>763</v>
+      </c>
+      <c r="F29" t="s">
+        <v>980</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>854</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>854</v>
+      </c>
+      <c r="F30" t="s">
+        <v>855</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>982</v>
+      </c>
+      <c r="F2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F3" t="s">
+        <v>687</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>985</v>
+      </c>
+      <c r="F4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>986</v>
+      </c>
+      <c r="F5" t="s">
+        <v>791</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F6" t="s">
+        <v>795</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>989</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>990</v>
+      </c>
+      <c r="F8" t="s">
+        <v>991</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>992</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>994</v>
+      </c>
+      <c r="F10" t="s">
+        <v>700</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F11" t="s">
+        <v>996</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>904</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>998</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>719</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>723</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>726</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>730</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F17" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F18" t="s">
+        <v>737</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F19" t="s">
+        <v>930</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>738</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F20" t="s">
+        <v>740</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F21" t="s">
+        <v>554</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>896</v>
+      </c>
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>745</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B24">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>798</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>799</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>920</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F27" t="s">
+        <v>922</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>909</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>803</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>564</v>
+      </c>
+      <c r="B29">
+        <v>165</v>
+      </c>
+      <c r="C29">
+        <v>165</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>620</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F30" t="s">
+        <v>621</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>766</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>344</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>347</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>350</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>770</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>771</v>
+      </c>
+      <c r="F37" t="s">
+        <v>360</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>772</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>894</v>
+      </c>
+      <c r="F38" t="s">
+        <v>363</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>773</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>895</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>774</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>776</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>930</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>839</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -5846,7 +7715,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6469,8 +8338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A22" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7370,8 +9239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B36" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9089,8 +10958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10914,8 +12783,8 @@
       <c r="F79" t="s">
         <v>625</v>
       </c>
-      <c r="G79" s="26" t="s">
-        <v>956</v>
+      <c r="G79" s="25" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -10927,16 +12796,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11079,7 +12951,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -11218,7 +13090,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -11253,7 +13125,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F14" t="s">
         <v>379</v>
@@ -11264,7 +13136,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -11276,7 +13148,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F15" t="s">
         <v>383</v>
@@ -11287,7 +13159,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -11299,7 +13171,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -11310,7 +13182,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -11333,7 +13205,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11351,12 +13223,12 @@
         <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -11368,10 +13240,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>403</v>
@@ -11379,7 +13251,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -11391,10 +13263,10 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>403</v>
@@ -11402,7 +13274,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -11414,18 +13286,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -11437,18 +13309,18 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -11460,18 +13332,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11483,18 +13355,18 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -11506,10 +13378,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>467</v>
@@ -11517,7 +13389,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11529,10 +13401,10 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F26" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>467</v>
@@ -11540,7 +13412,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -11552,10 +13424,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F27" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>439</v>
@@ -11563,7 +13435,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -11575,10 +13447,10 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>439</v>
@@ -11586,7 +13458,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11632,7 +13504,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -11644,18 +13516,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -11667,18 +13539,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -11690,7 +13562,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F33" t="s">
         <v>538</v>
@@ -11701,7 +13573,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -11713,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F34" t="s">
         <v>546</v>
@@ -11747,7 +13619,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -11816,7 +13688,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -11828,7 +13700,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F39" t="s">
         <v>566</v>
@@ -11839,7 +13711,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -11885,7 +13757,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -11897,7 +13769,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F42" t="s">
         <v>621</v>
@@ -11915,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11955,7 +13827,7 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -11967,18 +13839,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11990,18 +13862,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12013,13 +13885,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12042,12 +13914,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12059,18 +13931,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -12082,18 +13954,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -12105,18 +13977,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -12128,18 +14000,18 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -12151,18 +14023,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -12174,18 +14046,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -12197,18 +14069,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12220,18 +14092,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -12243,18 +14115,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -12266,18 +14138,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -12289,18 +14161,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -12312,13 +14184,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12335,18 +14207,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -12358,18 +14230,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -12381,18 +14253,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -12404,18 +14276,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -12427,18 +14299,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -12450,18 +14322,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -12473,18 +14345,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -12496,13 +14368,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12530,7 +14402,7 @@
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -12622,7 +14494,7 @@
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -12634,18 +14506,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -12657,7 +14529,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -12668,7 +14540,7 @@
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -12691,7 +14563,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12737,7 +14609,7 @@
     </row>
     <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -12749,10 +14621,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
@@ -12760,7 +14632,7 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12772,18 +14644,18 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -12795,18 +14667,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -12818,18 +14690,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F39" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -12841,18 +14713,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -12864,13 +14736,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F41" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -12880,382 +14752,507 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="73" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="43" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>786</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>796</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>790</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>794</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>694</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>699</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>775</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>83</v>
-      </c>
-      <c r="C11">
-        <v>83</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>798</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
-        <v>714</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>799</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>802</v>
+      </c>
       <c r="B13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>799</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>803</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>806</v>
+      </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>807</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>811</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B16">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>800</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>801</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>739</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>814</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>817</v>
+      </c>
       <c r="B17">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>554</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>818</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>821</v>
+      </c>
       <c r="B18">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>802</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>822</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>825</v>
+      </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>750</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>829</v>
+      </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>753</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>830</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>833</v>
+      </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>756</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>834</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>837</v>
+      </c>
       <c r="B22">
         <v>1</v>
       </c>
@@ -13265,283 +15262,152 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
-        <v>759</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>838</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>841</v>
+      </c>
       <c r="B23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
+        <v>842</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>845</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>846</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>849</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>850</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>853</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>854</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
         <v>763</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>341</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>347</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>350</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>859</v>
+      </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
-        <v>353</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>357</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>360</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>363</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>366</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>368</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>775</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>778</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>803</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>805</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>782</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>783</v>
+      <c r="E28" t="s">
+        <v>860</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C546001-5291-6D41-893C-234DACB1720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1107">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -1928,9 +1928,6 @@
     <t>MA_ELECT</t>
   </si>
   <si>
-    <t>Math Disciplinary Electives</t>
-  </si>
-  <si>
     <t>CS_ELECT</t>
   </si>
   <si>
@@ -3351,6 +3348,12 @@
   </si>
   <si>
     <t>['BME_520', 'RBE_520', 'BME_523', 'BME_330', 'ME_5359', 'MTE_559', 'BME_531', 'BME_532', 'BME_533', 'ME_5503', 'BME_535', 'BME_553', 'BME_555', 'BME_560', 'BME_562', 'BME_564', 'BME_580', 'RBE_580', 'ME_5205', 'BME_581', 'BME_583', 'BME_591', 'BME_592', 'BME_593', 'BME_594', 'BME_595', 'BME_596', 'BME_597', 'BME_598', 'BME_599', 'BME_698']</t>
+  </si>
+  <si>
+    <t>Systems - CS_3013, CS_4513, CS_4515, CS_4516</t>
+  </si>
+  <si>
+    <t>Disciplinary Electives</t>
   </si>
 </sst>
 </file>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -4385,18 +4388,18 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
+        <v>863</v>
+      </c>
+      <c r="F2" t="s">
         <v>864</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="24" t="s">
         <v>865</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -4408,18 +4411,18 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
+        <v>867</v>
+      </c>
+      <c r="F3" t="s">
         <v>868</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="24" t="s">
         <v>869</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4431,13 +4434,13 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="s">
+        <v>871</v>
+      </c>
+      <c r="F4" t="s">
         <v>872</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="24" t="s">
         <v>873</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4454,18 +4457,18 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
+        <v>874</v>
+      </c>
+      <c r="F5" t="s">
         <v>875</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="24" t="s">
         <v>876</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4477,18 +4480,18 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F6" t="s">
         <v>879</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="24" t="s">
         <v>880</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -4503,15 +4506,15 @@
         <v>277</v>
       </c>
       <c r="F7" t="s">
+        <v>882</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>883</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4523,18 +4526,18 @@
         <v>4.5</v>
       </c>
       <c r="E8" t="s">
+        <v>885</v>
+      </c>
+      <c r="F8" t="s">
         <v>886</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="24" t="s">
         <v>887</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4546,13 +4549,13 @@
         <v>13.5</v>
       </c>
       <c r="E9" t="s">
+        <v>889</v>
+      </c>
+      <c r="F9" t="s">
         <v>890</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="24" t="s">
         <v>891</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4630,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4737,12 +4740,12 @@
         <v>357</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4754,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -4765,7 +4768,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -4777,7 +4780,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4800,7 +4803,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -4834,7 +4837,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4849,7 +4852,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>372</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B13">
         <v>53</v>
@@ -4869,41 +4872,41 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F13" t="s">
+        <v>896</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>897</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>899</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>690</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>900</v>
-      </c>
-      <c r="F14" t="s">
-        <v>691</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -4915,18 +4918,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>902</v>
+      </c>
+      <c r="F15" t="s">
         <v>903</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" s="26" t="s">
         <v>904</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4938,18 +4941,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F16" t="s">
+        <v>906</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>907</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -4961,41 +4964,41 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F17" t="s">
+        <v>909</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>910</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>911</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>912</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>913</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="26" t="s">
         <v>914</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B19">
         <v>77</v>
@@ -5007,18 +5010,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>916</v>
+      </c>
+      <c r="F19" t="s">
         <v>917</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="26" t="s">
         <v>918</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5030,18 +5033,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
+        <v>920</v>
+      </c>
+      <c r="F20" t="s">
         <v>921</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="26" t="s">
         <v>922</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -5053,41 +5056,41 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>924</v>
+      </c>
+      <c r="F21" t="s">
         <v>925</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="26" t="s">
         <v>926</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>927</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>928</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>929</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="26" t="s">
         <v>930</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5099,18 +5102,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>932</v>
+      </c>
+      <c r="F23" t="s">
         <v>933</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="26" t="s">
         <v>934</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -5122,18 +5125,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>936</v>
+      </c>
+      <c r="F24" t="s">
         <v>937</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" s="26" t="s">
         <v>938</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B25">
         <v>42</v>
@@ -5145,18 +5148,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>939</v>
+      </c>
+      <c r="F25" t="s">
         <v>940</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="26" t="s">
         <v>941</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B26">
         <v>158</v>
@@ -5168,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F26" t="s">
+        <v>942</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>943</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5341,7 +5344,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5353,30 +5356,30 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F7" t="s">
         <v>357</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>770</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -5387,7 +5390,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5399,7 +5402,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -5410,7 +5413,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5422,7 +5425,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -5456,7 +5459,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -5471,7 +5474,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>372</v>
@@ -5479,7 +5482,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5491,18 +5494,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>945</v>
+      </c>
+      <c r="F13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>946</v>
-      </c>
-      <c r="F13" t="s">
-        <v>800</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5514,18 +5517,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
+        <v>947</v>
+      </c>
+      <c r="F14" t="s">
         <v>948</v>
       </c>
-      <c r="F14" t="s">
-        <v>949</v>
-      </c>
       <c r="G14" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5537,18 +5540,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F15" t="s">
+        <v>949</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>950</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B16">
         <v>156</v>
@@ -5560,110 +5563,110 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>951</v>
+      </c>
+      <c r="F16" t="s">
         <v>952</v>
       </c>
-      <c r="F16" t="s">
-        <v>953</v>
-      </c>
       <c r="G16" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>953</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>810</v>
+      </c>
+      <c r="F17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>954</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>811</v>
-      </c>
-      <c r="F17" t="s">
-        <v>812</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>805</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>806</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>807</v>
       </c>
-      <c r="F18" t="s">
-        <v>808</v>
-      </c>
       <c r="G18" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>956</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>957</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>913</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>958</v>
-      </c>
-      <c r="F19" t="s">
-        <v>914</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>820</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>821</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>822</v>
       </c>
-      <c r="F20" t="s">
-        <v>823</v>
-      </c>
       <c r="G20" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -5675,87 +5678,87 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>960</v>
+      </c>
+      <c r="F21" t="s">
         <v>961</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="27" t="s">
         <v>962</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>963</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>829</v>
+      </c>
+      <c r="F22" t="s">
+        <v>830</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>964</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>830</v>
-      </c>
-      <c r="F22" t="s">
-        <v>831</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>965</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
         <v>966</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>834</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>967</v>
-      </c>
-      <c r="F23" t="s">
-        <v>835</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>836</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>837</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>838</v>
       </c>
-      <c r="F24" t="s">
-        <v>839</v>
-      </c>
       <c r="G24" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B25">
         <v>31</v>
@@ -5767,41 +5770,41 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>969</v>
+      </c>
+      <c r="F25" t="s">
         <v>970</v>
       </c>
-      <c r="F25" t="s">
-        <v>971</v>
-      </c>
       <c r="G25" s="27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>971</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>845</v>
+      </c>
+      <c r="F26" t="s">
+        <v>846</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>972</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>846</v>
-      </c>
-      <c r="F26" t="s">
-        <v>847</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5813,41 +5816,41 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>973</v>
+      </c>
+      <c r="F27" t="s">
         <v>974</v>
       </c>
-      <c r="F27" t="s">
-        <v>975</v>
-      </c>
       <c r="G27" s="27" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>975</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>976</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>977</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" s="27" t="s">
         <v>978</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B29">
         <v>140</v>
@@ -5859,18 +5862,18 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5882,13 +5885,13 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
+        <v>853</v>
+      </c>
+      <c r="F30" t="s">
         <v>854</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" s="27" t="s">
         <v>855</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -5900,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5940,7 +5943,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5952,18 +5955,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>787</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5975,41 +5978,41 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>687</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>984</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>985</v>
-      </c>
       <c r="F4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>691</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6021,64 +6024,64 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F5" t="s">
+        <v>790</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>791</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>987</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>988</v>
-      </c>
       <c r="F6" t="s">
+        <v>794</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>795</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F7" t="s">
         <v>694</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="28" t="s">
         <v>695</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -6090,18 +6093,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>989</v>
+      </c>
+      <c r="F8" t="s">
         <v>990</v>
       </c>
-      <c r="F8" t="s">
-        <v>991</v>
-      </c>
       <c r="G8" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6119,15 +6122,15 @@
         <v>390</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -6136,18 +6139,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>700</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B11">
         <v>79</v>
@@ -6159,18 +6162,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>994</v>
+      </c>
+      <c r="F11" t="s">
         <v>995</v>
       </c>
-      <c r="F11" t="s">
-        <v>996</v>
-      </c>
       <c r="G11" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -6185,15 +6188,15 @@
         <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -6205,18 +6208,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F13" t="s">
+        <v>718</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>719</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -6228,41 +6231,41 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>1002</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1003</v>
-      </c>
       <c r="F15" t="s">
+        <v>725</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>726</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -6274,41 +6277,41 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>1006</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1007</v>
-      </c>
       <c r="F17" t="s">
+        <v>732</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>733</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6320,41 +6323,41 @@
         <v>4.5</v>
       </c>
       <c r="E18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>1010</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>929</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>1011</v>
-      </c>
-      <c r="F19" t="s">
-        <v>930</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -6366,13 +6369,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F20" t="s">
+        <v>739</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>740</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6389,18 +6392,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F21" t="s">
         <v>554</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6412,18 +6415,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F22" t="s">
         <v>1016</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="28" t="s">
         <v>1017</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B23">
         <v>49</v>
@@ -6435,18 +6438,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B24">
         <v>47</v>
@@ -6458,18 +6461,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F24" t="s">
         <v>1021</v>
       </c>
-      <c r="F24" t="s">
-        <v>1022</v>
-      </c>
       <c r="G24" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6481,18 +6484,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F25" t="s">
         <v>1024</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="28" t="s">
         <v>1025</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -6504,18 +6507,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6527,18 +6530,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F27" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -6550,13 +6553,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6573,13 +6576,13 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F29" t="s">
         <v>1030</v>
       </c>
-      <c r="F29" t="s">
-        <v>1031</v>
-      </c>
       <c r="G29" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -6596,13 +6599,13 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F30" t="s">
         <v>621</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6630,7 +6633,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -6722,42 +6725,42 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
         <v>1034</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1035</v>
       </c>
       <c r="F36" t="s">
         <v>357</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>769</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>770</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>771</v>
       </c>
       <c r="F37" t="s">
         <v>360</v>
@@ -6768,7 +6771,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -6780,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F38" t="s">
         <v>363</v>
@@ -6791,7 +6794,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6803,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F39" t="s">
         <v>366</v>
@@ -6837,7 +6840,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -6852,7 +6855,7 @@
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>372</v>
@@ -6860,71 +6863,71 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
         <v>1036</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>1037</v>
       </c>
-      <c r="F42" t="s">
-        <v>1038</v>
-      </c>
       <c r="G42" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
         <v>1039</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>1040</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="28" t="s">
         <v>1041</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
         <v>1043</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>1044</v>
       </c>
-      <c r="F44" t="s">
-        <v>1045</v>
-      </c>
       <c r="G44" s="28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -7073,7 +7076,7 @@
         <v>357</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7155,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>372</v>
@@ -7172,10 +7175,10 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7189,10 +7192,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7206,10 +7209,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7223,10 +7226,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -7240,10 +7243,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -7257,10 +7260,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -7274,10 +7277,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -7291,10 +7294,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -7308,10 +7311,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -7325,10 +7328,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -7342,10 +7345,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -7359,10 +7362,10 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -7376,10 +7379,10 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -7393,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -7410,10 +7413,10 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -7427,10 +7430,10 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -7444,10 +7447,10 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -7461,10 +7464,10 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -7478,10 +7481,10 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -7495,10 +7498,10 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -7512,10 +7515,10 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -7529,10 +7532,10 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -7546,10 +7549,10 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -7563,10 +7566,10 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -7580,10 +7583,10 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -7597,10 +7600,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
@@ -7614,10 +7617,10 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
@@ -7631,10 +7634,10 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -7648,10 +7651,10 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -7665,10 +7668,10 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
@@ -7682,10 +7685,10 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
@@ -7699,10 +7702,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -12796,8 +12799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13148,7 +13151,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>631</v>
+        <v>1106</v>
       </c>
       <c r="F15" t="s">
         <v>383</v>
@@ -13159,7 +13162,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13171,7 +13174,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -13182,7 +13185,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -13205,7 +13208,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -13223,12 +13226,12 @@
         <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -13240,10 +13243,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" t="s">
         <v>638</v>
-      </c>
-      <c r="F19" t="s">
-        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>403</v>
@@ -13251,7 +13254,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -13263,10 +13266,10 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" t="s">
         <v>641</v>
-      </c>
-      <c r="F20" t="s">
-        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>403</v>
@@ -13274,30 +13277,30 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>643</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>644</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="16" t="s">
         <v>645</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -13309,41 +13312,41 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
         <v>649</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>650</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" s="16" t="s">
         <v>651</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -13355,33 +13358,33 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>655</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>656</v>
-      </c>
-      <c r="F25" t="s">
-        <v>657</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>467</v>
@@ -13389,7 +13392,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -13401,10 +13404,10 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F26" t="s">
         <v>659</v>
-      </c>
-      <c r="F26" t="s">
-        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>467</v>
@@ -13412,7 +13415,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -13424,10 +13427,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
+        <v>661</v>
+      </c>
+      <c r="F27" t="s">
         <v>662</v>
-      </c>
-      <c r="F27" t="s">
-        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>439</v>
@@ -13435,7 +13438,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -13447,10 +13450,10 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
+        <v>664</v>
+      </c>
+      <c r="F28" t="s">
         <v>665</v>
-      </c>
-      <c r="F28" t="s">
-        <v>666</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>439</v>
@@ -13458,7 +13461,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -13504,30 +13507,30 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>667</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>668</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>669</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="16" t="s">
         <v>670</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -13539,18 +13542,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
+        <v>672</v>
+      </c>
+      <c r="F32" t="s">
         <v>673</v>
       </c>
-      <c r="F32" t="s">
-        <v>674</v>
-      </c>
       <c r="G32" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -13562,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F33" t="s">
         <v>538</v>
@@ -13573,7 +13576,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -13585,7 +13588,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F34" t="s">
         <v>546</v>
@@ -13619,7 +13622,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -13688,7 +13691,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -13700,7 +13703,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F39" t="s">
         <v>566</v>
@@ -13711,7 +13714,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -13757,19 +13760,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>682</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
         <v>683</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>684</v>
       </c>
       <c r="F42" t="s">
         <v>621</v>
@@ -13827,7 +13830,7 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -13839,41 +13842,41 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>687</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>689</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="18" t="s">
         <v>691</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -13885,13 +13888,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="18" t="s">
         <v>695</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13914,12 +13917,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -13931,18 +13934,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="18" t="s">
         <v>700</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -13954,18 +13957,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="18" t="s">
         <v>704</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -13977,18 +13980,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="18" t="s">
         <v>708</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -14000,41 +14003,41 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
+        <v>710</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>712</v>
-      </c>
       <c r="G9" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>713</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>715</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -14046,18 +14049,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>717</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="18" t="s">
         <v>719</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -14069,18 +14072,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
+        <v>721</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>723</v>
-      </c>
       <c r="G12" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14092,18 +14095,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>724</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="18" t="s">
         <v>726</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -14115,18 +14118,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
+        <v>728</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>730</v>
-      </c>
       <c r="G14" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -14138,18 +14141,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="18" t="s">
         <v>733</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -14161,36 +14164,36 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>737</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>737</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>738</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="18" t="s">
         <v>740</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14207,18 +14210,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -14230,18 +14233,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>744</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="18" t="s">
         <v>746</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -14253,18 +14256,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -14276,18 +14279,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>749</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="18" t="s">
         <v>751</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -14299,18 +14302,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>752</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="18" t="s">
         <v>754</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -14322,18 +14325,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="18" t="s">
         <v>757</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -14345,18 +14348,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>758</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="18" t="s">
         <v>760</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -14368,13 +14371,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>762</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="18" t="s">
         <v>764</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14402,7 +14405,7 @@
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -14494,42 +14497,42 @@
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>767</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
         <v>770</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -14540,7 +14543,7 @@
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -14563,7 +14566,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -14609,7 +14612,7 @@
     </row>
     <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -14621,10 +14624,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>774</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
@@ -14632,53 +14635,53 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>776</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>777</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="18" t="s">
         <v>779</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>780</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>781</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="18" t="s">
         <v>783</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -14690,18 +14693,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
+        <v>785</v>
+      </c>
+      <c r="F39" t="s">
         <v>786</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" s="20" t="s">
         <v>787</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -14713,18 +14716,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>789</v>
+      </c>
+      <c r="F40" t="s">
         <v>790</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" s="20" t="s">
         <v>791</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -14736,13 +14739,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>793</v>
+      </c>
+      <c r="F41" t="s">
         <v>794</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" s="20" t="s">
         <v>795</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -14814,7 +14817,7 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -14906,19 +14909,19 @@
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>770</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>771</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>360</v>
@@ -14929,7 +14932,7 @@
     </row>
     <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -14952,7 +14955,7 @@
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -14998,7 +15001,7 @@
     </row>
     <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -15010,10 +15013,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>372</v>
@@ -15021,7 +15024,7 @@
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -15033,18 +15036,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="21" t="s">
         <v>800</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -15056,64 +15059,64 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>802</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="21" t="s">
         <v>804</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>806</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="21" t="s">
         <v>808</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>809</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>810</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="21" t="s">
         <v>812</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -15125,18 +15128,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>813</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="21" t="s">
         <v>815</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -15148,41 +15151,41 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>817</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="21" t="s">
         <v>819</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>820</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>821</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -15194,87 +15197,87 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="21" t="s">
         <v>827</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>828</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>829</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="21" t="s">
         <v>831</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>832</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>833</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="21" t="s">
         <v>835</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>836</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>837</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="21" t="s">
         <v>839</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -15286,41 +15289,41 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>841</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="21" t="s">
         <v>843</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>844</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>845</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="21" t="s">
         <v>847</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -15332,18 +15335,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>849</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="21" t="s">
         <v>851</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -15355,18 +15358,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>853</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="21" t="s">
         <v>855</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -15378,36 +15381,36 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>858</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>859</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="21" t="s">
         <v>861</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C546001-5291-6D41-893C-234DACB1720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E494C891-82B2-4B94-899C-51D9E8EDB808}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1106">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -1928,6 +1928,9 @@
     <t>MA_ELECT</t>
   </si>
   <si>
+    <t>Math Disciplinary Electives</t>
+  </si>
+  <si>
     <t>CS_ELECT</t>
   </si>
   <si>
@@ -3348,12 +3351,6 @@
   </si>
   <si>
     <t>['BME_520', 'RBE_520', 'BME_523', 'BME_330', 'ME_5359', 'MTE_559', 'BME_531', 'BME_532', 'BME_533', 'ME_5503', 'BME_535', 'BME_553', 'BME_555', 'BME_560', 'BME_562', 'BME_564', 'BME_580', 'RBE_580', 'ME_5205', 'BME_581', 'BME_583', 'BME_591', 'BME_592', 'BME_593', 'BME_594', 'BME_595', 'BME_596', 'BME_597', 'BME_598', 'BME_599', 'BME_698']</t>
-  </si>
-  <si>
-    <t>Systems - CS_3013, CS_4513, CS_4515, CS_4516</t>
-  </si>
-  <si>
-    <t>Disciplinary Electives</t>
   </si>
 </sst>
 </file>
@@ -4060,19 +4057,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4093,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4119,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -4188,7 +4185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -4257,7 +4254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4280,7 +4277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -4303,7 +4300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4340,18 +4337,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="43.109375" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4374,9 +4371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -4388,18 +4385,18 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -4411,18 +4408,18 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4434,16 +4431,16 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>560</v>
       </c>
@@ -4457,18 +4454,18 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4480,18 +4477,18 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -4506,15 +4503,15 @@
         <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4526,18 +4523,18 @@
         <v>4.5</v>
       </c>
       <c r="E8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4549,13 +4546,13 @@
         <v>13.5</v>
       </c>
       <c r="E9" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -4571,18 +4568,18 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
-    <col min="7" max="7" width="48.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4628,9 +4625,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -4651,7 +4648,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4697,7 +4694,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4720,9 +4717,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4740,12 +4737,12 @@
         <v>357</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4757,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -4766,9 +4763,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -4780,7 +4777,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -4789,9 +4786,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4803,7 +4800,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -4812,7 +4809,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4835,9 +4832,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4852,15 +4849,15 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B13">
         <v>53</v>
@@ -4872,18 +4869,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F13" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -4895,18 +4892,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -4918,18 +4915,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F15" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4941,18 +4938,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F16" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -4964,18 +4961,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F17" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4987,18 +4984,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B19">
         <v>77</v>
@@ -5010,18 +5007,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F19" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5033,18 +5030,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F20" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -5056,18 +5053,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F21" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5079,18 +5076,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F22" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5102,18 +5099,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F23" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -5125,18 +5122,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F24" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B25">
         <v>42</v>
@@ -5148,18 +5145,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F25" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B26">
         <v>158</v>
@@ -5171,13 +5168,13 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F26" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -5193,18 +5190,18 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5250,9 +5247,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5273,7 +5270,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5296,7 +5293,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5319,7 +5316,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5342,9 +5339,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5356,18 +5353,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F7" t="s">
         <v>357</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -5379,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -5388,9 +5385,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5402,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -5411,9 +5408,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5425,7 +5422,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -5434,7 +5431,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5457,9 +5454,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -5474,15 +5471,15 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5494,18 +5491,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5517,18 +5514,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F14" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5540,18 +5537,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F15" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B16">
         <v>156</v>
@@ -5563,18 +5560,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F16" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5586,18 +5583,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5609,18 +5606,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -5632,18 +5629,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -5655,18 +5652,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -5678,18 +5675,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F21" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5701,18 +5698,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5724,18 +5721,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F23" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5747,18 +5744,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F24" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B25">
         <v>31</v>
@@ -5770,18 +5767,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F25" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -5793,18 +5790,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F26" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5816,18 +5813,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F27" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -5839,18 +5836,18 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F28" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B29">
         <v>140</v>
@@ -5862,18 +5859,18 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F29" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5885,13 +5882,13 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F30" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -5903,22 +5900,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5941,9 +5938,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5955,18 +5952,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5978,18 +5975,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6001,18 +5998,18 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6024,18 +6021,18 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6047,41 +6044,41 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>1105</v>
+        <v>694</v>
       </c>
       <c r="F7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -6093,18 +6090,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6122,15 +6119,15 @@
         <v>390</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -6139,18 +6136,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B11">
         <v>79</v>
@@ -6162,18 +6159,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F11" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -6188,15 +6185,15 @@
         <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -6208,18 +6205,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -6231,18 +6228,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6254,18 +6251,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -6277,18 +6274,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -6300,18 +6297,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F17" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6323,18 +6320,18 @@
         <v>4.5</v>
       </c>
       <c r="E18" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F18" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6346,18 +6343,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -6369,16 +6366,16 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F20" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -6392,18 +6389,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F21" t="s">
         <v>554</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6415,18 +6412,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F22" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B23">
         <v>49</v>
@@ -6438,18 +6435,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F23" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B24">
         <v>47</v>
@@ -6461,18 +6458,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F24" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6484,18 +6481,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F25" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -6507,18 +6504,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F26" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6530,18 +6527,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F27" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -6553,16 +6550,16 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F28" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>564</v>
       </c>
@@ -6576,16 +6573,16 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F29" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>620</v>
       </c>
@@ -6599,16 +6596,16 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F30" t="s">
         <v>621</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -6631,9 +6628,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -6654,7 +6651,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -6700,7 +6697,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -6723,9 +6720,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -6737,18 +6734,18 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F36" t="s">
         <v>357</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -6760,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F37" t="s">
         <v>360</v>
@@ -6769,9 +6766,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -6780,10 +6777,10 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F38" t="s">
         <v>363</v>
@@ -6792,9 +6789,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6803,10 +6800,10 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F39" t="s">
         <v>366</v>
@@ -6815,7 +6812,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -6838,9 +6835,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -6855,15 +6852,15 @@
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -6875,18 +6872,18 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F42" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6898,18 +6895,18 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F43" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -6921,13 +6918,13 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F44" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -6943,18 +6940,18 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>3</v>
       </c>
@@ -6994,7 +6991,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -7011,7 +7008,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -7028,7 +7025,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7076,10 +7073,10 @@
         <v>357</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -7096,7 +7093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -7113,7 +7110,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -7130,7 +7127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -7147,7 +7144,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>13</v>
       </c>
@@ -7158,13 +7155,13 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -7175,13 +7172,13 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>1047</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>44</v>
       </c>
@@ -7192,13 +7189,13 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>1049</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -7209,13 +7206,13 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4</v>
       </c>
@@ -7226,13 +7223,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>29</v>
       </c>
@@ -7243,13 +7240,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>26</v>
       </c>
@@ -7260,13 +7257,13 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>94</v>
       </c>
@@ -7277,13 +7274,13 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>1056</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>5</v>
       </c>
@@ -7294,13 +7291,13 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>1058</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -7311,13 +7308,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -7328,13 +7325,13 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -7345,13 +7342,13 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>1063</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -7362,13 +7359,13 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1</v>
       </c>
@@ -7379,13 +7376,13 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -7396,13 +7393,13 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>1069</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
@@ -7413,13 +7410,13 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>1071</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1</v>
       </c>
@@ -7430,13 +7427,13 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G28" s="30" t="s">
         <v>1073</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -7447,13 +7444,13 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>1075</v>
       </c>
-      <c r="G29" s="30" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -7464,13 +7461,13 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -7481,13 +7478,13 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>1078</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -7498,13 +7495,13 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>1080</v>
       </c>
-      <c r="G32" s="30" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -7515,13 +7512,13 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>1082</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -7532,13 +7529,13 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G34" s="30" t="s">
         <v>1084</v>
       </c>
-      <c r="G34" s="30" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -7549,13 +7546,13 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>1086</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3</v>
       </c>
@@ -7566,13 +7563,13 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>1088</v>
       </c>
-      <c r="G36" s="30" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>6</v>
       </c>
@@ -7583,13 +7580,13 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>1090</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>1</v>
       </c>
@@ -7600,13 +7597,13 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>1092</v>
       </c>
-      <c r="G38" s="30" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -7617,13 +7614,13 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G39" s="30" t="s">
         <v>1094</v>
       </c>
-      <c r="G39" s="30" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>16</v>
       </c>
@@ -7634,13 +7631,13 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G40" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>24</v>
       </c>
@@ -7651,13 +7648,13 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G41" s="30" t="s">
         <v>1098</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>87</v>
       </c>
@@ -7668,13 +7665,13 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>1100</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -7685,13 +7682,13 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G43" s="30" t="s">
         <v>1102</v>
       </c>
-      <c r="G43" s="30" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>31</v>
       </c>
@@ -7702,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G44" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -7721,16 +7718,16 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7753,7 +7750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -7776,7 +7773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -7799,7 +7796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -7845,7 +7842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -7868,7 +7865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -7891,7 +7888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -7914,7 +7911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -7960,7 +7957,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -7983,7 +7980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -8006,7 +8003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -8029,7 +8026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -8052,7 +8049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -8075,7 +8072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -8098,7 +8095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -8121,7 +8118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -8144,7 +8141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -8167,7 +8164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8190,7 +8187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -8213,7 +8210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -8236,7 +8233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -8282,7 +8279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -8305,7 +8302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -8328,7 +8325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8345,18 +8342,18 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8381,7 +8378,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -8405,7 +8402,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -8429,7 +8426,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -8453,7 +8450,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -8477,7 +8474,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -8501,7 +8498,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -8525,7 +8522,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -8549,7 +8546,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -8573,7 +8570,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -8597,7 +8594,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -8621,7 +8618,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -8645,7 +8642,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -8669,7 +8666,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -8693,7 +8690,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -8717,7 +8714,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -8741,7 +8738,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -8765,7 +8762,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -8789,7 +8786,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -8813,7 +8810,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -8837,7 +8834,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -8861,7 +8858,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -8885,7 +8882,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -8909,7 +8906,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -8933,7 +8930,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -8956,7 +8953,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -8979,7 +8976,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -9002,7 +8999,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -9025,7 +9022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -9048,7 +9045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -9071,7 +9068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -9117,7 +9114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -9140,7 +9137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -9163,7 +9160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -9186,7 +9183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -9209,7 +9206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -9246,18 +9243,18 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9281,7 +9278,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -9305,7 +9302,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -9329,7 +9326,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9353,7 +9350,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -9377,7 +9374,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -9401,7 +9398,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -9425,7 +9422,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -9449,7 +9446,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -9473,7 +9470,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -9497,7 +9494,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -9521,7 +9518,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -9545,7 +9542,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -9569,7 +9566,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -9593,7 +9590,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -9617,7 +9614,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -9641,7 +9638,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -9665,7 +9662,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -9689,7 +9686,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -9713,7 +9710,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -9737,7 +9734,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -9761,7 +9758,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -9785,7 +9782,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -9809,7 +9806,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -9833,7 +9830,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
@@ -9857,7 +9854,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -9881,7 +9878,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -9905,7 +9902,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -9929,7 +9926,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -9953,7 +9950,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -9977,7 +9974,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -10001,7 +9998,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -10025,7 +10022,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -10049,7 +10046,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -10073,7 +10070,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -10097,7 +10094,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -10121,7 +10118,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -10145,7 +10142,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -10169,7 +10166,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -10192,7 +10189,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -10215,7 +10212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -10238,7 +10235,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -10261,7 +10258,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -10284,7 +10281,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -10307,7 +10304,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -10330,7 +10327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -10353,7 +10350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -10376,7 +10373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -10399,7 +10396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -10422,7 +10419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -10445,7 +10442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -10468,7 +10465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -10491,7 +10488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -10514,7 +10511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -10551,17 +10548,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10584,7 +10581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -10607,7 +10604,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -10630,7 +10627,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -10653,7 +10650,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -10676,7 +10673,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -10699,7 +10696,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -10722,7 +10719,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -10745,7 +10742,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -10768,7 +10765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -10791,7 +10788,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -10814,7 +10811,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -10837,7 +10834,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -10860,7 +10857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -10883,7 +10880,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -10906,7 +10903,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -10929,7 +10926,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -10965,15 +10962,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.5" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10996,7 +10993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -11019,7 +11016,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -11042,7 +11039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -11065,7 +11062,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -11088,7 +11085,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -11111,7 +11108,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -11134,7 +11131,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -11157,7 +11154,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -11180,7 +11177,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -11203,7 +11200,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -11226,7 +11223,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -11272,7 +11269,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -11295,7 +11292,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -11318,7 +11315,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -11341,7 +11338,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -11364,7 +11361,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -11387,7 +11384,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -11410,7 +11407,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -11433,7 +11430,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -11456,7 +11453,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -11479,7 +11476,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -11502,7 +11499,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -11525,7 +11522,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -11548,7 +11545,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -11571,7 +11568,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -11594,7 +11591,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -11617,7 +11614,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -11640,7 +11637,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -11663,7 +11660,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -11686,7 +11683,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -11709,7 +11706,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -11732,7 +11729,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -11755,7 +11752,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -11778,7 +11775,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -11801,7 +11798,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -11824,7 +11821,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -11847,7 +11844,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -11870,7 +11867,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -11893,7 +11890,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -11916,7 +11913,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -11939,7 +11936,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -11962,7 +11959,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -11985,7 +11982,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -12008,7 +12005,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -12031,7 +12028,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -12054,7 +12051,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -12077,7 +12074,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -12100,7 +12097,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -12123,7 +12120,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -12146,7 +12143,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -12169,7 +12166,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -12192,7 +12189,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -12215,7 +12212,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -12238,7 +12235,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -12261,7 +12258,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -12284,7 +12281,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -12307,7 +12304,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -12330,7 +12327,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -12353,7 +12350,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -12376,7 +12373,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -12399,7 +12396,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -12422,7 +12419,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -12445,7 +12442,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -12468,7 +12465,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -12491,7 +12488,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -12514,7 +12511,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -12537,7 +12534,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -12560,7 +12557,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -12583,7 +12580,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -12606,7 +12603,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -12629,7 +12626,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -12652,7 +12649,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -12675,7 +12672,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -12698,7 +12695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -12721,7 +12718,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -12744,7 +12741,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -12767,7 +12764,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -12799,22 +12796,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -12860,7 +12857,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -12883,7 +12880,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -12906,7 +12903,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -12929,7 +12926,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -12952,7 +12949,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>627</v>
       </c>
@@ -12975,7 +12972,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -12998,7 +12995,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -13021,7 +13018,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -13045,7 +13042,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -13068,7 +13065,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -13091,7 +13088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -13114,7 +13111,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -13137,7 +13134,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>630</v>
       </c>
@@ -13151,7 +13148,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>1106</v>
+        <v>631</v>
       </c>
       <c r="F15" t="s">
         <v>383</v>
@@ -13160,9 +13157,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13174,7 +13171,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -13183,9 +13180,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -13206,9 +13203,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -13226,12 +13223,12 @@
         <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -13243,18 +13240,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -13266,18 +13263,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -13289,18 +13286,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -13312,18 +13309,18 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -13335,18 +13332,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -13358,18 +13355,18 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -13381,18 +13378,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -13404,18 +13401,18 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F26" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -13427,18 +13424,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F27" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -13450,18 +13447,18 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -13482,7 +13479,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -13505,9 +13502,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -13519,18 +13516,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -13542,18 +13539,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -13565,7 +13562,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F33" t="s">
         <v>538</v>
@@ -13574,9 +13571,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -13588,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F34" t="s">
         <v>546</v>
@@ -13597,7 +13594,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -13620,9 +13617,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -13643,7 +13640,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -13666,7 +13663,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -13689,9 +13686,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -13703,7 +13700,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F39" t="s">
         <v>566</v>
@@ -13712,9 +13709,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -13735,7 +13732,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -13758,9 +13755,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -13772,7 +13769,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F42" t="s">
         <v>621</v>
@@ -13794,18 +13791,18 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -13828,9 +13825,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -13842,18 +13839,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13865,18 +13862,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -13888,16 +13885,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -13917,12 +13914,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -13934,18 +13931,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -13957,18 +13954,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -13980,18 +13977,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -14003,18 +14000,18 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -14026,18 +14023,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -14049,18 +14046,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -14072,18 +14069,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14095,18 +14092,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -14118,18 +14115,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -14141,18 +14138,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -14164,18 +14161,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -14187,16 +14184,16 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -14210,18 +14207,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -14233,18 +14230,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -14256,18 +14253,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -14279,18 +14276,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -14302,18 +14299,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -14325,18 +14322,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -14348,18 +14345,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -14371,16 +14368,16 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -14403,9 +14400,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -14426,7 +14423,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -14449,7 +14446,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -14472,7 +14469,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -14495,9 +14492,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -14509,18 +14506,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -14532,7 +14529,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -14541,9 +14538,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -14564,9 +14561,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -14587,7 +14584,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -14610,9 +14607,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -14624,18 +14621,18 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -14647,18 +14644,18 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -14670,18 +14667,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -14693,18 +14690,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F39" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -14716,18 +14713,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -14739,13 +14736,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F41" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -14761,15 +14758,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -14792,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -14815,9 +14812,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -14838,7 +14835,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -14861,7 +14858,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -14884,7 +14881,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -14907,9 +14904,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -14921,7 +14918,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>360</v>
@@ -14930,9 +14927,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -14953,9 +14950,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -14976,7 +14973,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -14999,9 +14996,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -15013,18 +15010,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -15036,18 +15033,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -15059,18 +15056,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -15082,18 +15079,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -15105,18 +15102,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -15128,18 +15125,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -15151,18 +15148,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -15174,18 +15171,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -15197,18 +15194,18 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -15220,18 +15217,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -15243,18 +15240,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -15266,18 +15263,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -15289,18 +15286,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -15312,18 +15309,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -15335,18 +15332,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -15358,18 +15355,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -15381,18 +15378,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -15404,13 +15401,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C546001-5291-6D41-893C-234DACB1720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1106">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -1928,6 +1928,9 @@
     <t>MA_ELECT</t>
   </si>
   <si>
+    <t>Math Disciplinary Electives</t>
+  </si>
+  <si>
     <t>CS_ELECT</t>
   </si>
   <si>
@@ -3348,12 +3351,6 @@
   </si>
   <si>
     <t>['BME_520', 'RBE_520', 'BME_523', 'BME_330', 'ME_5359', 'MTE_559', 'BME_531', 'BME_532', 'BME_533', 'ME_5503', 'BME_535', 'BME_553', 'BME_555', 'BME_560', 'BME_562', 'BME_564', 'BME_580', 'RBE_580', 'ME_5205', 'BME_581', 'BME_583', 'BME_591', 'BME_592', 'BME_593', 'BME_594', 'BME_595', 'BME_596', 'BME_597', 'BME_598', 'BME_599', 'BME_698']</t>
-  </si>
-  <si>
-    <t>Systems - CS_3013, CS_4513, CS_4515, CS_4516</t>
-  </si>
-  <si>
-    <t>Disciplinary Electives</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4373,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -4388,18 +4385,18 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -4411,18 +4408,18 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4434,13 +4431,13 @@
         <v>4.5</v>
       </c>
       <c r="E4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4457,18 +4454,18 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4480,18 +4477,18 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -4506,15 +4503,15 @@
         <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4526,18 +4523,18 @@
         <v>4.5</v>
       </c>
       <c r="E8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4549,13 +4546,13 @@
         <v>13.5</v>
       </c>
       <c r="E9" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4627,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4740,12 +4737,12 @@
         <v>357</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4757,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -4768,7 +4765,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -4780,7 +4777,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -4791,7 +4788,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4803,7 +4800,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -4837,7 +4834,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4852,7 +4849,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>372</v>
@@ -4860,7 +4857,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B13">
         <v>53</v>
@@ -4872,18 +4869,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F13" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -4895,18 +4892,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -4918,18 +4915,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F15" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4941,18 +4938,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F16" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -4964,18 +4961,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F17" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4987,18 +4984,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B19">
         <v>77</v>
@@ -5010,18 +5007,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F19" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5033,18 +5030,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F20" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -5056,18 +5053,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F21" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5079,18 +5076,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F22" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5102,18 +5099,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F23" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -5125,18 +5122,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F24" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B25">
         <v>42</v>
@@ -5148,18 +5145,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F25" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B26">
         <v>158</v>
@@ -5171,13 +5168,13 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F26" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -5252,7 +5249,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5344,7 +5341,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5356,18 +5353,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F7" t="s">
         <v>357</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -5379,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -5390,7 +5387,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5402,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -5413,7 +5410,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5425,7 +5422,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -5474,7 +5471,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>372</v>
@@ -5482,7 +5479,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5494,18 +5491,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5517,18 +5514,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F14" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5540,18 +5537,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F15" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B16">
         <v>156</v>
@@ -5563,18 +5560,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F16" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5586,18 +5583,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5609,18 +5606,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -5632,18 +5629,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -5655,18 +5652,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -5678,18 +5675,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F21" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5701,18 +5698,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5724,18 +5721,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F23" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5747,18 +5744,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F24" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B25">
         <v>31</v>
@@ -5770,18 +5767,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F25" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -5793,18 +5790,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F26" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5816,18 +5813,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F27" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -5839,18 +5836,18 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F28" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B29">
         <v>140</v>
@@ -5862,18 +5859,18 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F29" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5885,13 +5882,13 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F30" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -5903,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5943,7 +5940,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5955,18 +5952,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5978,18 +5975,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6001,18 +5998,18 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6024,18 +6021,18 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6047,41 +6044,41 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>1105</v>
+        <v>694</v>
       </c>
       <c r="F7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -6093,18 +6090,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6122,15 +6119,15 @@
         <v>390</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -6139,18 +6136,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B11">
         <v>79</v>
@@ -6162,18 +6159,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F11" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -6188,15 +6185,15 @@
         <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -6208,18 +6205,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -6231,18 +6228,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6254,18 +6251,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -6277,18 +6274,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -6300,18 +6297,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F17" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6323,18 +6320,18 @@
         <v>4.5</v>
       </c>
       <c r="E18" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F18" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6346,18 +6343,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -6369,13 +6366,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F20" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6392,18 +6389,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F21" t="s">
         <v>554</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6415,18 +6412,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F22" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B23">
         <v>49</v>
@@ -6438,18 +6435,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F23" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B24">
         <v>47</v>
@@ -6461,18 +6458,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F24" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6484,18 +6481,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F25" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -6507,18 +6504,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F26" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6530,18 +6527,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F27" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -6553,13 +6550,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F28" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6576,13 +6573,13 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F29" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -6599,13 +6596,13 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F30" t="s">
         <v>621</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6633,7 +6630,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -6725,7 +6722,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -6737,18 +6734,18 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F36" t="s">
         <v>357</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -6760,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F37" t="s">
         <v>360</v>
@@ -6771,7 +6768,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -6783,7 +6780,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F38" t="s">
         <v>363</v>
@@ -6794,7 +6791,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6806,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F39" t="s">
         <v>366</v>
@@ -6840,7 +6837,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -6855,7 +6852,7 @@
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>372</v>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -6875,18 +6872,18 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F42" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6898,18 +6895,18 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F43" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -6921,13 +6918,13 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F44" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -7076,7 +7073,7 @@
         <v>357</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7158,7 +7155,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>372</v>
@@ -7175,10 +7172,10 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>1047</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7192,10 +7189,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>1049</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7209,10 +7206,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>1051</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7226,10 +7223,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -7243,10 +7240,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -7260,10 +7257,10 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -7277,10 +7274,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>1056</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -7294,10 +7291,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>1058</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -7311,10 +7308,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -7328,10 +7325,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>1061</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -7345,10 +7342,10 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>1063</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -7362,10 +7359,10 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>1065</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -7379,10 +7376,10 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>1067</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -7396,10 +7393,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>1069</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -7413,10 +7410,10 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>1071</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -7430,10 +7427,10 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G28" s="30" t="s">
         <v>1073</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -7447,10 +7444,10 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>1075</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -7464,10 +7461,10 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -7481,10 +7478,10 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>1078</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -7498,10 +7495,10 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>1080</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -7515,10 +7512,10 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>1082</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -7532,10 +7529,10 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G34" s="30" t="s">
         <v>1084</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -7549,10 +7546,10 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>1086</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -7566,10 +7563,10 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>1088</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -7583,10 +7580,10 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>1090</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -7600,10 +7597,10 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>1092</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
@@ -7617,10 +7614,10 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G39" s="30" t="s">
         <v>1094</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
@@ -7634,10 +7631,10 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G40" s="30" t="s">
         <v>1096</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -7651,10 +7648,10 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G41" s="30" t="s">
         <v>1098</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -7668,10 +7665,10 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>1100</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
@@ -7685,10 +7682,10 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G43" s="30" t="s">
         <v>1102</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
@@ -7702,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G44" s="30" t="s">
         <v>1104</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -12799,8 +12796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13151,7 +13148,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>1106</v>
+        <v>631</v>
       </c>
       <c r="F15" t="s">
         <v>383</v>
@@ -13162,7 +13159,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -13174,7 +13171,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -13185,7 +13182,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -13208,7 +13205,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -13226,12 +13223,12 @@
         <v>394</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -13243,10 +13240,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>403</v>
@@ -13254,7 +13251,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -13266,10 +13263,10 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>403</v>
@@ -13277,7 +13274,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -13289,18 +13286,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -13312,18 +13309,18 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F22" t="s">
         <v>290</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -13335,18 +13332,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -13358,18 +13355,18 @@
         <v>4.5</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -13381,10 +13378,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>467</v>
@@ -13392,7 +13389,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -13404,10 +13401,10 @@
         <v>4.5</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F26" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>467</v>
@@ -13415,7 +13412,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -13427,10 +13424,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F27" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>439</v>
@@ -13438,7 +13435,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -13450,10 +13447,10 @@
         <v>4.5</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>439</v>
@@ -13461,7 +13458,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -13519,18 +13516,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -13542,18 +13539,18 @@
         <v>4.5</v>
       </c>
       <c r="E32" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -13565,7 +13562,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F33" t="s">
         <v>538</v>
@@ -13576,7 +13573,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -13588,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F34" t="s">
         <v>546</v>
@@ -13622,7 +13619,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -13691,7 +13688,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B39">
         <v>150</v>
@@ -13703,7 +13700,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F39" t="s">
         <v>566</v>
@@ -13714,7 +13711,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -13760,7 +13757,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -13772,7 +13769,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F42" t="s">
         <v>621</v>
@@ -13830,7 +13827,7 @@
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -13842,18 +13839,18 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13865,18 +13862,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -13888,13 +13885,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13917,12 +13914,12 @@
         <v>390</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -13934,18 +13931,18 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -13957,18 +13954,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -13980,18 +13977,18 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -14003,18 +14000,18 @@
         <v>4.5</v>
       </c>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -14026,18 +14023,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -14049,18 +14046,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -14072,18 +14069,18 @@
         <v>4.5</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14095,18 +14092,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -14118,18 +14115,18 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -14141,18 +14138,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -14164,18 +14161,18 @@
         <v>4.5</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -14187,13 +14184,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14210,18 +14207,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>554</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -14233,18 +14230,18 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -14256,18 +14253,18 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -14279,18 +14276,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -14302,18 +14299,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -14325,18 +14322,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -14348,18 +14345,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -14371,13 +14368,13 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -14405,7 +14402,7 @@
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -14497,7 +14494,7 @@
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -14509,18 +14506,18 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>357</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -14532,7 +14529,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>360</v>
@@ -14543,7 +14540,7 @@
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -14566,7 +14563,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -14612,7 +14609,7 @@
     </row>
     <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -14624,10 +14621,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>372</v>
@@ -14635,7 +14632,7 @@
     </row>
     <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -14647,18 +14644,18 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -14670,18 +14667,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -14693,18 +14690,18 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F39" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -14716,18 +14713,18 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F40" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -14739,13 +14736,13 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F41" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -14817,7 +14814,7 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -14909,7 +14906,7 @@
     </row>
     <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -14921,7 +14918,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>360</v>
@@ -14932,7 +14929,7 @@
     </row>
     <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -14955,7 +14952,7 @@
     </row>
     <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -15001,7 +14998,7 @@
     </row>
     <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -15013,10 +15010,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>372</v>
@@ -15024,7 +15021,7 @@
     </row>
     <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -15036,18 +15033,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -15059,18 +15056,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -15082,18 +15079,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -15105,18 +15102,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -15128,18 +15125,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -15151,18 +15148,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -15174,18 +15171,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -15197,18 +15194,18 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -15220,18 +15217,18 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -15243,18 +15240,18 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -15266,18 +15263,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -15289,18 +15286,18 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -15312,18 +15309,18 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -15335,18 +15332,18 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -15358,18 +15355,18 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -15381,18 +15378,18 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -15404,13 +15401,13 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E71C7A9B-BD75-47FF-B62B-497BDE66A7FF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -4057,19 +4057,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4337,18 +4337,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="43.109375" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>863</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>867</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>871</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>560</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>878</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>882</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>885</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>889</v>
       </c>
@@ -4568,18 +4568,18 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
-    <col min="7" max="7" width="48.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>893</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>770</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>774</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>896</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>899</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>902</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>906</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>909</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>912</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>916</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>920</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>924</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>928</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>932</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>936</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>632</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>762</v>
       </c>
@@ -5190,18 +5190,18 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>893</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>770</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>774</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>798</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>802</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>906</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>817</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>954</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>806</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>957</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>821</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>825</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>964</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>966</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>837</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>841</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>972</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>849</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>976</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>762</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>854</v>
       </c>
@@ -5900,22 +5900,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>981</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>632</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>984</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>789</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>987</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>693</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>989</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>992</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>993</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>706</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>997</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>998</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1000</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1002</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1004</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1006</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1008</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1010</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>738</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1015</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>896</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1020</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1023</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>909</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>564</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>620</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>766</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1034</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>770</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>772</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
         <v>894</v>
@@ -6789,7 +6789,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>773</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
         <v>895</v>
@@ -6812,7 +6812,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>774</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1036</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1039</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1043</v>
       </c>
@@ -6940,18 +6940,18 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>3</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>13</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>44</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>29</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>26</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>94</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>5</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>6</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>1</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>16</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>24</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>87</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>31</v>
       </c>
@@ -7718,16 +7718,16 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8342,18 +8342,18 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -8450,7 +8450,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -9243,18 +9243,18 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -9950,7 +9950,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -10548,17 +10548,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -10962,15 +10962,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.5" customWidth="1"/>
+    <col min="7" max="7" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -12796,22 +12796,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>627</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>630</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>634</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>637</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>640</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>647</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>649</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>655</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>658</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>661</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>664</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>667</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>668</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>672</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>675</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>677</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>679</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>680</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>682</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>683</v>
       </c>
@@ -13791,18 +13791,18 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>689</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>693</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>698</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>702</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>706</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>710</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>713</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>717</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>721</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>724</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>728</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>731</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>735</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>738</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>744</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>750</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>756</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>759</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>762</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>766</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>767</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>770</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>772</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>773</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>774</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>777</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>781</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>785</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>789</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>793</v>
       </c>
@@ -14758,15 +14758,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>772</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>773</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>798</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>802</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>806</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>810</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>675</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>817</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>821</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>825</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>829</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>833</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>837</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>841</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>845</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>849</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>853</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>762</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>859</v>
       </c>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/mrsuyer_wpi_edu/Documents/MQP/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{158B91A1-D73B-4F40-823B-6C0F23890F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E71C7A9B-BD75-47FF-B62B-497BDE66A7FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9027636-3637-294F-842C-365BD29075BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16280" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="ME_MAJOR" sheetId="12" r:id="rId12"/>
     <sheet name="CS_MAJOR" sheetId="13" r:id="rId13"/>
     <sheet name="BME_MAJOR" sheetId="14" r:id="rId14"/>
+    <sheet name="RBE_MASTER" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1194">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -3173,28 +3174,91 @@
     <t>['IMGD_2000', 'IMGD_2001']</t>
   </si>
   <si>
+    <t xml:space="preserve">Humanities </t>
+  </si>
+  <si>
+    <t>DPE_H</t>
+  </si>
+  <si>
+    <t>DPE Humanities</t>
+  </si>
+  <si>
     <t>['ECON_DEPT', 'ENV_DEPT', 'GOV_DEPT', 'PSY_DEPT', 'SD_DEPT', 'SOC_DEPT', 'SS_DEPT', 'STS_DEPT', 'DEV_DEPT', 'GOV_2314', 'GOV_2315', 'GOV_2313', 'ID_2314']</t>
   </si>
   <si>
+    <t>CALC</t>
+  </si>
+  <si>
+    <t>Calculus I-IV</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1120', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034']</t>
+  </si>
+  <si>
     <t>['BME_M', 'BME_SS']</t>
   </si>
   <si>
-    <t>['MA_1020', 'MA_1120', 'MA_1021', 'MA_1022', 'MA_1023', 'MA_1024', 'MA_1033', 'MA_1034', 'MA_2051', 'MA_2610', 'MA_2611']</t>
+    <t>ODE</t>
+  </si>
+  <si>
+    <t>Differential Equations - MA_2051</t>
+  </si>
+  <si>
+    <t>['MA_2051']</t>
+  </si>
+  <si>
+    <t>['BME_M', 'BME_SS', 'BME_ODE']</t>
+  </si>
+  <si>
+    <t>Statistics - MA_2610 OR MA_2611</t>
+  </si>
+  <si>
+    <t>['MA_2610', 'MA_2611']</t>
+  </si>
+  <si>
+    <t>['BME_M', 'BME_SS', 'BME_STATS']</t>
+  </si>
+  <si>
+    <t>1000_BIO</t>
+  </si>
+  <si>
+    <t>1000+ Level Biology</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045']</t>
   </si>
   <si>
     <t>['BME_B', 'BME_SS']</t>
   </si>
   <si>
-    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
-  </si>
-  <si>
-    <t>['BME_B', 'BME_SS', 'BME_HP']</t>
+    <t>2000+_BIO</t>
+  </si>
+  <si>
+    <t>2000+ Level Biology</t>
+  </si>
+  <si>
+    <t>['BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900']</t>
+  </si>
+  <si>
+    <t>['BME_B', 'BME_SS', 'BME_BIO_2000']</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Human Physiology - BB_3101, BB_3102, BB_3515, BME_3111</t>
   </si>
   <si>
     <t>['BB_3101', 'BB_3102', 'BB_3515']</t>
   </si>
   <si>
-    <t>['BME_B', 'BME_C', 'BME_SS']</t>
+    <t>['BME_B', 'BME_SS', 'BME_HP', 'BME_BIO_2000']</t>
+  </si>
+  <si>
+    <t>Chem and Bio Cross Listed Courses</t>
+  </si>
+  <si>
+    <t>['BME_B', 'BME_C', 'BME_SS', 'BME_BIO_2000']</t>
   </si>
   <si>
     <t>['BME_P', 'BME_SS']</t>
@@ -3203,161 +3267,362 @@
     <t>['BME_C', 'BME_SS']</t>
   </si>
   <si>
+    <t>SUP_SCI</t>
+  </si>
+  <si>
+    <t>Supplemental Science - BB, CH, CS, MA, PY</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4804', 'MA_1801', 'MA_1971', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2612', 'MA_2621', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
     <t>['BME_SS']</t>
   </si>
   <si>
-    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4804', 'MA_1801', 'MA_1971', 'MA_2071', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2612', 'MA_2621', 'MA_2631', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+    <t>COMP_PROG</t>
+  </si>
+  <si>
+    <t>Computer Programming - BME_1004, CS_1004, CS_1101, CS_1102, CS_2301, CS_2303</t>
+  </si>
+  <si>
+    <t>['CS_2301', 'CS_2303', 'CS_1101', 'CS_1102', 'CS_1004']</t>
   </si>
   <si>
     <t>['BME_SS', 'BME_CP']</t>
   </si>
   <si>
-    <t>['CS_2301', 'CS_2303', 'CS_1101', 'CS_1102', 'CS_1004']</t>
+    <t>CRYPT</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
   </si>
   <si>
     <t>['BME_SS', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
   </si>
   <si>
+    <t>BME_1004</t>
+  </si>
+  <si>
+    <t>['BME_1004']</t>
+  </si>
+  <si>
     <t>['BME_CP', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_1004']</t>
+    <t>BME_3111</t>
+  </si>
+  <si>
+    <t>['BME_3111']</t>
   </si>
   <si>
     <t>['BME_HP', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME', 'BME_LIV_SYST']</t>
   </si>
   <si>
-    <t>['BME_3111']</t>
+    <t>BME_2502</t>
+  </si>
+  <si>
+    <t>BME Biomechanics - BME_2502, BME_3610</t>
+  </si>
+  <si>
+    <t>['BME_2502']</t>
   </si>
   <si>
     <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_BME', 'BME_STRESS_REST']</t>
   </si>
   <si>
-    <t>['BME_2502']</t>
+    <t>BME_3610</t>
+  </si>
+  <si>
+    <t>['BME_3610']</t>
   </si>
   <si>
     <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_3610']</t>
+    <t>BIOMECH</t>
+  </si>
+  <si>
+    <t>BME or ES Biomechanics - BME_2502, BME_3610, ES_2501, ES_2502, ES_2503, ES_3004</t>
+  </si>
+  <si>
+    <t>['ES_2501', 'ES_2503']</t>
   </si>
   <si>
     <t>['BME_BIOMECH', 'BME_2000_L_ENG']</t>
   </si>
   <si>
-    <t>['ES_2501', 'ES_2503']</t>
+    <t>ES_2502</t>
+  </si>
+  <si>
+    <t>['ES_2502']</t>
   </si>
   <si>
     <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_STRESS_REST']</t>
   </si>
   <si>
-    <t>['ES_2502']</t>
+    <t>ES_3004</t>
+  </si>
+  <si>
+    <t>['ES_3004']</t>
   </si>
   <si>
     <t>['BME_BIOMECH', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
   </si>
   <si>
-    <t>['ES_3004']</t>
+    <t>BME_2001</t>
+  </si>
+  <si>
+    <t>BME Biomaterials - BME_2001</t>
+  </si>
+  <si>
+    <t>['BME_2001']</t>
   </si>
   <si>
     <t>['BME_BIOMAT', 'BME_2000_L_ENG', 'BME_BME', 'BME_MAT_REST']</t>
   </si>
   <si>
-    <t>['BME_2001']</t>
+    <t>BME or ES Biomaterials - BME_2001 OR ES_2001</t>
   </si>
   <si>
     <t>['BME_BIOMAT', 'BME_2000_L_ENG', 'BME_MAT_REST']</t>
   </si>
   <si>
+    <t>BME_2210</t>
+  </si>
+  <si>
+    <t>BME Bioinstrumentation - BME_2210</t>
+  </si>
+  <si>
+    <t>['BME_2210']</t>
+  </si>
+  <si>
     <t>['BME_BIOINS', 'BME_2000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_2210']</t>
+    <t>BIOINST</t>
+  </si>
+  <si>
+    <t>BME or ECE Bioinstrumentation - BME_2210 OR ECE_2010</t>
+  </si>
+  <si>
+    <t>['ECE_2010']</t>
   </si>
   <si>
     <t>['BME_BIOINS', 'BME_2000_L_ENG']</t>
   </si>
   <si>
-    <t>['ECE_2010']</t>
+    <t>BME_2111</t>
+  </si>
+  <si>
+    <t>BME Analysis - BME_2211</t>
+  </si>
+  <si>
+    <t>['BME_2211']</t>
   </si>
   <si>
     <t>['BME_A', 'BME_2000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_2211']</t>
+    <t>ME_3901</t>
+  </si>
+  <si>
+    <t>BME or ME Analysis - ME_3901</t>
+  </si>
+  <si>
+    <t>['ME_3901']</t>
   </si>
   <si>
     <t>['BME_A', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
   </si>
   <si>
-    <t>['ME_3901']</t>
+    <t>BME_2000</t>
+  </si>
+  <si>
+    <t>BME 2000+ Level</t>
+  </si>
+  <si>
+    <t>['BME_2610']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_2610']</t>
+    <t>LS_LABS</t>
+  </si>
+  <si>
+    <t>Living Systems Labs - BME_3012, BME_3503, BME_3813</t>
+  </si>
+  <si>
+    <t>['BME_3012', 'BME_3503', 'BME_3813']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_L', 'BME_3000_L_ENG', 'BME_BME', 'BME_LIV_SYST']</t>
   </si>
   <si>
-    <t>['BME_3012', 'BME_3503', 'BME_3813']</t>
+    <t>LABS</t>
+  </si>
+  <si>
+    <t>BME Labs - BME_3012, BME_3013, BME_3014, BME_3503, BME_3505, BME_3506, BME_3605, BME_3811, BME_3813</t>
+  </si>
+  <si>
+    <t>['BME_3013', 'BME_3014', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3811']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_L', 'BME_3000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_3013', 'BME_3014', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3811']</t>
+    <t>BME_3000</t>
+  </si>
+  <si>
+    <t>BME 3000+ Level</t>
+  </si>
+  <si>
+    <t>['BME_3112']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_3112']</t>
+    <t>BME_3300</t>
+  </si>
+  <si>
+    <t>Engineering Design - BME_3300</t>
+  </si>
+  <si>
+    <t>['BME_3300']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_ED', 'BME_3000_L_ENG', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_3300']</t>
+    <t>4000_BME</t>
+  </si>
+  <si>
+    <t>4000 Level BME</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_4000_L_BME', 'BME_BME']</t>
   </si>
   <si>
-    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831']</t>
+    <t>2000_ENG</t>
+  </si>
+  <si>
+    <t>2000+ Level Engineering - CE, CHE, ECE, ES, ME, RBE</t>
+  </si>
+  <si>
+    <t>['CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ES_2800', 'ME_2300', 'ME_2312', 'ME_2820', 'RBE_2001', 'RBE_2002', 'RBE_3100']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG']</t>
   </si>
   <si>
-    <t>['CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ES_2800', 'ME_2300', 'ME_2312', 'ME_2820', 'RBE_2001', 'RBE_2002', 'RBE_3100']</t>
+    <t>3000_ENG</t>
+  </si>
+  <si>
+    <t>3000+ Level Engineering - CE, CHE, ECE, ES, ME, RBE</t>
+  </si>
+  <si>
+    <t>['CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_3001', 'RBE_3002', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
   </si>
   <si>
     <t>['BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
   </si>
   <si>
-    <t>['CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_3001', 'RBE_3002', 'RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
+    <t>BME_1001</t>
+  </si>
+  <si>
+    <t>['BME_1001']</t>
   </si>
   <si>
     <t>['BME_BME']</t>
   </si>
   <si>
-    <t>['BME_1001']</t>
+    <t>GRAD_BME</t>
+  </si>
+  <si>
+    <t>Graduate BME Courses</t>
+  </si>
+  <si>
+    <t>['BME_520', 'RBE_520', 'BME_523', 'BME_330', 'ME_5359', 'MTE_559', 'BME_531', 'BME_532', 'BME_533', 'ME_5503', 'BME_535', 'BME_553', 'BME_555', 'BME_560', 'BME_562', 'BME_564', 'BME_580', 'RBE_580', 'ME_5205', 'BME_581', 'BME_583', 'BME_591', 'BME_592', 'BME_593', 'BME_594', 'BME_595', 'BME_596', 'BME_597', 'BME_598', 'BME_599', 'BME_698']</t>
   </si>
   <si>
     <t>['BME_GRAD_REST']</t>
   </si>
   <si>
-    <t>['BME_520', 'RBE_520', 'BME_523', 'BME_330', 'ME_5359', 'MTE_559', 'BME_531', 'BME_532', 'BME_533', 'ME_5503', 'BME_535', 'BME_553', 'BME_555', 'BME_560', 'BME_562', 'BME_564', 'BME_580', 'RBE_580', 'ME_5205', 'BME_581', 'BME_583', 'BME_591', 'BME_592', 'BME_593', 'BME_594', 'BME_595', 'BME_596', 'BME_597', 'BME_598', 'BME_599', 'BME_698']</t>
+    <t>['RBE_MS_FOUND']</t>
+  </si>
+  <si>
+    <t>['RBE_500', 'RBE_502']</t>
+  </si>
+  <si>
+    <t>['RBE_MS_FOUND', 'RBE_MS_FOUND_CR']</t>
+  </si>
+  <si>
+    <t>['RBE_501', 'ME_501']</t>
+  </si>
+  <si>
+    <t>['RBE_MS_CORE_ELECTIVES']</t>
+  </si>
+  <si>
+    <t>['BME_520', 'RBE_520', 'BME_580', 'RBE_580', 'ME_5205', 'CS_526', 'RBE_526', 'CS_549', 'RBE_549', 'ME_521', 'RBE_521', 'ME_530', 'RBE_530', 'RBE_510', 'ME_5204', 'RBE_522', 'RBE_533', 'RBE_550', 'RBE_597']</t>
+  </si>
+  <si>
+    <t>['RBE_CAPSTONE']</t>
+  </si>
+  <si>
+    <t>['RBE_594', 'RBE_596', 'RBE_598']</t>
+  </si>
+  <si>
+    <t>['RBE_CAPSTONE', 'RBE_THESIS_CAP']</t>
+  </si>
+  <si>
+    <t>['RBE_599']</t>
+  </si>
+  <si>
+    <t>['RBE_MS_CTXT']</t>
+  </si>
+  <si>
+    <t>['ETR_500', 'ETR_593', 'MIS_576', 'OBC_506', 'BUS_546', 'SYS_501', 'SYS_502', 'SYS_510', 'SYS_511', 'SYS_512', 'SYS_520', 'SYS_521', 'SYS_540', 'SYS_579C', 'SYS_579D', 'SYS_579R', 'SYS_579S', 'SYS_585', 'SYS_596A', 'SYS_596B', 'SYS_597', 'SYS_598']</t>
+  </si>
+  <si>
+    <t>RBE Foundations - RBE_500 AND RBE_502</t>
+  </si>
+  <si>
+    <t>RBE_501/ME_501</t>
+  </si>
+  <si>
+    <t>Core Electives</t>
+  </si>
+  <si>
+    <t>Capstone or Thesis</t>
+  </si>
+  <si>
+    <t>Thesis or Elective</t>
+  </si>
+  <si>
+    <t>Engineering Context - ETR_500, ETR_593, MIS_576, OBC_506, BUS_546, OR SYS_DEPT</t>
+  </si>
+  <si>
+    <t>FOUND</t>
+  </si>
+  <si>
+    <t>ROB_DYN</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>CONTEXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3452,6 +3717,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3461,7 +3739,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3645,11 +3923,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3735,6 +4028,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4054,22 +4351,22 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4390,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4139,7 +4436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4162,7 +4459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4208,7 +4505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -4231,7 +4528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -4254,7 +4551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4277,7 +4574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -4300,7 +4597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4337,18 +4634,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>863</v>
       </c>
@@ -4394,7 +4691,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>867</v>
       </c>
@@ -4417,7 +4714,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>871</v>
       </c>
@@ -4440,7 +4737,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>560</v>
       </c>
@@ -4463,7 +4760,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>878</v>
       </c>
@@ -4486,7 +4783,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>882</v>
       </c>
@@ -4509,7 +4806,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>885</v>
       </c>
@@ -4532,7 +4829,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>889</v>
       </c>
@@ -4568,18 +4865,18 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4602,7 +4899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4625,7 +4922,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -4648,7 +4945,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +4968,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4694,7 +4991,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4717,7 +5014,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>893</v>
       </c>
@@ -4740,7 +5037,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>770</v>
       </c>
@@ -4763,7 +5060,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -4786,7 +5083,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -4809,7 +5106,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4832,7 +5129,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>774</v>
       </c>
@@ -4855,7 +5152,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>896</v>
       </c>
@@ -4878,7 +5175,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>899</v>
       </c>
@@ -4901,7 +5198,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>902</v>
       </c>
@@ -4924,7 +5221,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>906</v>
       </c>
@@ -4947,7 +5244,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>909</v>
       </c>
@@ -4970,7 +5267,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>912</v>
       </c>
@@ -4993,7 +5290,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>916</v>
       </c>
@@ -5016,7 +5313,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>920</v>
       </c>
@@ -5039,7 +5336,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>924</v>
       </c>
@@ -5062,7 +5359,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>928</v>
       </c>
@@ -5085,7 +5382,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>932</v>
       </c>
@@ -5108,7 +5405,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>936</v>
       </c>
@@ -5131,7 +5428,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>632</v>
       </c>
@@ -5154,7 +5451,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>762</v>
       </c>
@@ -5190,18 +5487,18 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5247,7 +5544,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -5270,7 +5567,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5293,7 +5590,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5316,7 +5613,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5339,7 +5636,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>893</v>
       </c>
@@ -5362,7 +5659,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>770</v>
       </c>
@@ -5385,7 +5682,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>772</v>
       </c>
@@ -5408,7 +5705,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -5431,7 +5728,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5454,7 +5751,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>774</v>
       </c>
@@ -5477,7 +5774,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>798</v>
       </c>
@@ -5500,7 +5797,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>802</v>
       </c>
@@ -5523,7 +5820,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>906</v>
       </c>
@@ -5546,7 +5843,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>817</v>
       </c>
@@ -5569,7 +5866,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>954</v>
       </c>
@@ -5592,7 +5889,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>806</v>
       </c>
@@ -5615,7 +5912,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>957</v>
       </c>
@@ -5638,7 +5935,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>821</v>
       </c>
@@ -5661,7 +5958,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>825</v>
       </c>
@@ -5684,7 +5981,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>964</v>
       </c>
@@ -5707,7 +6004,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>966</v>
       </c>
@@ -5730,7 +6027,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>837</v>
       </c>
@@ -5753,7 +6050,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>841</v>
       </c>
@@ -5776,7 +6073,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>972</v>
       </c>
@@ -5799,7 +6096,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>849</v>
       </c>
@@ -5822,7 +6119,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>976</v>
       </c>
@@ -5845,7 +6142,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>762</v>
       </c>
@@ -5868,7 +6165,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>854</v>
       </c>
@@ -5900,22 +6197,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="140" workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +6235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>981</v>
       </c>
@@ -5961,7 +6258,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>632</v>
       </c>
@@ -5984,7 +6281,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>984</v>
       </c>
@@ -6007,7 +6304,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>789</v>
       </c>
@@ -6030,7 +6327,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>987</v>
       </c>
@@ -6053,7 +6350,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>693</v>
       </c>
@@ -6076,7 +6373,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>989</v>
       </c>
@@ -6099,7 +6396,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>992</v>
       </c>
@@ -6122,7 +6419,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>993</v>
       </c>
@@ -6145,7 +6442,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>706</v>
       </c>
@@ -6168,7 +6465,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>997</v>
       </c>
@@ -6191,7 +6488,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>998</v>
       </c>
@@ -6214,7 +6511,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1000</v>
       </c>
@@ -6237,7 +6534,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1002</v>
       </c>
@@ -6260,7 +6557,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1004</v>
       </c>
@@ -6283,7 +6580,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1006</v>
       </c>
@@ -6306,7 +6603,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1008</v>
       </c>
@@ -6329,7 +6626,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1010</v>
       </c>
@@ -6352,7 +6649,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>738</v>
       </c>
@@ -6375,7 +6672,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -6398,7 +6695,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1015</v>
       </c>
@@ -6421,7 +6718,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>896</v>
       </c>
@@ -6444,7 +6741,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1020</v>
       </c>
@@ -6467,7 +6764,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1023</v>
       </c>
@@ -6490,7 +6787,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -6513,7 +6810,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -6536,7 +6833,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>909</v>
       </c>
@@ -6559,7 +6856,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>564</v>
       </c>
@@ -6582,7 +6879,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>620</v>
       </c>
@@ -6605,7 +6902,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -6628,7 +6925,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>766</v>
       </c>
@@ -6651,7 +6948,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6674,7 +6971,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -6697,7 +6994,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -6720,7 +7017,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1034</v>
       </c>
@@ -6743,7 +7040,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>770</v>
       </c>
@@ -6766,7 +7063,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>772</v>
       </c>
@@ -6789,7 +7086,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>773</v>
       </c>
@@ -6812,7 +7109,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -6835,7 +7132,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>774</v>
       </c>
@@ -6858,7 +7155,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1036</v>
       </c>
@@ -6881,7 +7178,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1039</v>
       </c>
@@ -6904,7 +7201,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1043</v>
       </c>
@@ -6934,24 +7231,24 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="67.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="68.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6974,15 +7271,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1046</v>
       </c>
       <c r="F2" t="s">
         <v>341</v>
@@ -6991,15 +7294,21 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
       <c r="B3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1046</v>
       </c>
       <c r="F3" t="s">
         <v>344</v>
@@ -7008,15 +7317,21 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
       <c r="B4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1046</v>
       </c>
       <c r="F4" t="s">
         <v>347</v>
@@ -7025,15 +7340,21 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
       <c r="B5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1046</v>
       </c>
       <c r="F5" t="s">
         <v>350</v>
@@ -7042,15 +7363,21 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
       <c r="B6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1046</v>
       </c>
       <c r="F6" t="s">
         <v>353</v>
@@ -7059,7 +7386,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1047</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
@@ -7068,6 +7398,9 @@
       </c>
       <c r="D7">
         <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1048</v>
       </c>
       <c r="F7" t="s">
         <v>357</v>
@@ -7076,7 +7409,10 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>770</v>
+      </c>
       <c r="B8">
         <v>2</v>
       </c>
@@ -7085,6 +7421,9 @@
       </c>
       <c r="D8">
         <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>359</v>
       </c>
       <c r="F8" t="s">
         <v>360</v>
@@ -7093,15 +7432,21 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>772</v>
+      </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>894</v>
       </c>
       <c r="F9" t="s">
         <v>363</v>
@@ -7110,7 +7455,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>773</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -7119,6 +7467,9 @@
       </c>
       <c r="D10">
         <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>895</v>
       </c>
       <c r="F10" t="s">
         <v>366</v>
@@ -7127,7 +7478,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -7136,6 +7490,9 @@
       </c>
       <c r="D11">
         <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>368</v>
@@ -7144,9 +7501,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>774</v>
+      </c>
       <c r="B12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -7154,218 +7514,296 @@
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1050</v>
+      </c>
       <c r="B13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
+      <c r="E13" t="s">
+        <v>1051</v>
+      </c>
       <c r="F13" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1054</v>
+      </c>
       <c r="B14">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
+      <c r="E14" t="s">
+        <v>1055</v>
+      </c>
       <c r="F14" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>552</v>
+      </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
+      <c r="E15" t="s">
+        <v>1058</v>
+      </c>
       <c r="F15" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1061</v>
+      </c>
       <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F19" t="s">
         <v>1025</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="G19" s="30" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>909</v>
+      </c>
+      <c r="B20">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>29</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>803</v>
+      </c>
+      <c r="F20" t="s">
         <v>1029</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18">
+      <c r="G20" s="30" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>798</v>
+      </c>
+      <c r="B21">
         <v>26</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F21" t="s">
         <v>1027</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19">
+      <c r="G21" s="30" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B22">
         <v>94</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>94</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F24" t="s">
         <v>930</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1066</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1088</v>
+      </c>
       <c r="B25">
         <v>1</v>
       </c>
@@ -7375,31 +7813,43 @@
       <c r="D25">
         <v>3</v>
       </c>
+      <c r="E25" t="s">
+        <v>1082</v>
+      </c>
       <c r="F25" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1091</v>
+      </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
+      <c r="E26" t="s">
+        <v>1070</v>
+      </c>
       <c r="F26" t="s">
-        <v>1070</v>
+        <v>1092</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1094</v>
+      </c>
       <c r="B27">
         <v>1</v>
       </c>
@@ -7409,14 +7859,20 @@
       <c r="D27">
         <v>3</v>
       </c>
+      <c r="E27" t="s">
+        <v>1095</v>
+      </c>
       <c r="F27" t="s">
-        <v>1072</v>
+        <v>1096</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1098</v>
+      </c>
       <c r="B28">
         <v>1</v>
       </c>
@@ -7426,31 +7882,43 @@
       <c r="D28">
         <v>3</v>
       </c>
+      <c r="E28" t="s">
+        <v>1095</v>
+      </c>
       <c r="F28" t="s">
-        <v>1074</v>
+        <v>1099</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1101</v>
+      </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
+      <c r="E29" t="s">
+        <v>1102</v>
+      </c>
       <c r="F29" t="s">
-        <v>1076</v>
+        <v>1103</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1105</v>
+      </c>
       <c r="B30">
         <v>1</v>
       </c>
@@ -7460,65 +7928,89 @@
       <c r="D30">
         <v>3</v>
       </c>
+      <c r="E30" t="s">
+        <v>1102</v>
+      </c>
       <c r="F30" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>838</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F33" t="s">
         <v>839</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1083</v>
-      </c>
       <c r="G33" s="30" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1117</v>
+      </c>
       <c r="B34">
         <v>1</v>
       </c>
@@ -7528,181 +8020,498 @@
       <c r="D34">
         <v>3</v>
       </c>
+      <c r="E34" t="s">
+        <v>1118</v>
+      </c>
       <c r="F34" t="s">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1121</v>
+      </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
+      <c r="E35" t="s">
+        <v>1122</v>
+      </c>
       <c r="F35" t="s">
-        <v>1087</v>
+        <v>1123</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1125</v>
+      </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
+      <c r="E36" t="s">
+        <v>1126</v>
+      </c>
       <c r="F36" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1129</v>
+      </c>
       <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B40">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>6</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40">
+      <c r="D40">
+        <v>1.5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B43">
         <v>16</v>
       </c>
-      <c r="C40">
+      <c r="C43">
         <v>16</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B44">
         <v>24</v>
       </c>
-      <c r="C41">
+      <c r="C44">
         <v>24</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B45">
         <v>87</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <v>87</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B47">
         <v>31</v>
       </c>
-      <c r="C44">
+      <c r="C47">
         <v>31</v>
       </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>1104</v>
+      <c r="D47">
+        <v>4.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -7718,16 +8527,16 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="58.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="58.5" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7750,7 +8559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -7773,7 +8582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -7796,7 +8605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -7819,7 +8628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -7842,7 +8651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +8674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -7888,7 +8697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -7911,7 +8720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -7934,7 +8743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -7957,7 +8766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -7980,7 +8789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -8003,7 +8812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>87</v>
       </c>
@@ -8026,7 +8835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -8049,7 +8858,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -8072,7 +8881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -8095,7 +8904,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -8141,7 +8950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -8164,7 +8973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8187,7 +8996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -8210,7 +9019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -8233,7 +9042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -8256,7 +9065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -8279,7 +9088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -8302,7 +9111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -8325,7 +9134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
     </row>
   </sheetData>
@@ -8342,18 +9151,18 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="71.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="71.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8378,7 +9187,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -8402,7 +9211,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -8426,7 +9235,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
@@ -8450,7 +9259,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -8474,7 +9283,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>117</v>
       </c>
@@ -8498,7 +9307,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -8522,7 +9331,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
@@ -8546,7 +9355,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -8570,7 +9379,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="44.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="44.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -8594,7 +9403,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -8618,7 +9427,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -8642,7 +9451,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -8666,7 +9475,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>149</v>
       </c>
@@ -8690,7 +9499,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="58.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>153</v>
       </c>
@@ -8714,7 +9523,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -8738,7 +9547,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
@@ -8762,7 +9571,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
@@ -8786,7 +9595,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -8810,7 +9619,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -8834,7 +9643,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
@@ -8858,7 +9667,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>180</v>
       </c>
@@ -8882,7 +9691,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -8906,7 +9715,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>187</v>
       </c>
@@ -8930,7 +9739,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>190</v>
       </c>
@@ -8953,7 +9762,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -8976,7 +9785,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -8999,7 +9808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -9022,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -9045,7 +9854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -9068,7 +9877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -9091,7 +9900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -9114,7 +9923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -9137,7 +9946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -9160,7 +9969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -9183,7 +9992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -9206,7 +10015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -9239,22 +10048,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="117" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="13.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" style="10" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="63.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9278,7 +10087,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -9302,7 +10111,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -9326,7 +10135,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9350,7 +10159,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -9374,7 +10183,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -9398,7 +10207,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -9422,7 +10231,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -9446,7 +10255,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -9470,7 +10279,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -9494,7 +10303,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -9518,7 +10327,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>215</v>
       </c>
@@ -9542,7 +10351,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -9566,7 +10375,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -9590,7 +10399,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -9614,7 +10423,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>133</v>
       </c>
@@ -9638,7 +10447,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
@@ -9662,7 +10471,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -9686,7 +10495,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>234</v>
       </c>
@@ -9710,7 +10519,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>236</v>
       </c>
@@ -9734,7 +10543,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -9758,7 +10567,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -9782,7 +10591,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -9806,7 +10615,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
@@ -9830,7 +10639,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>244</v>
       </c>
@@ -9854,7 +10663,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -9878,7 +10687,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -9902,7 +10711,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -9926,7 +10735,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>161</v>
       </c>
@@ -9950,7 +10759,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
@@ -9974,7 +10783,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>198</v>
       </c>
@@ -9998,7 +10807,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -10022,7 +10831,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -10046,7 +10855,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -10070,7 +10879,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -10094,7 +10903,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>262</v>
       </c>
@@ -10118,7 +10927,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -10142,7 +10951,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>172</v>
       </c>
@@ -10166,7 +10975,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>190</v>
       </c>
@@ -10189,7 +10998,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>267</v>
       </c>
@@ -10212,7 +11021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
@@ -10235,7 +11044,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -10258,7 +11067,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>169</v>
       </c>
@@ -10281,7 +11090,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -10304,7 +11113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -10327,7 +11136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -10350,7 +11159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -10373,7 +11182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
@@ -10396,7 +11205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -10419,7 +11228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
@@ -10442,7 +11251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -10465,7 +11274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -10488,7 +11297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -10511,7 +11320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -10548,17 +11357,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="8" max="8" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10581,7 +11390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -10604,7 +11413,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -10627,7 +11436,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -10650,7 +11459,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -10673,7 +11482,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -10696,7 +11505,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -10719,7 +11528,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -10742,7 +11551,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -10765,7 +11574,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -10788,7 +11597,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -10811,7 +11620,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -10834,7 +11643,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -10857,7 +11666,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -10880,7 +11689,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -10903,7 +11712,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -10926,7 +11735,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -10962,15 +11771,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" customWidth="1"/>
+    <col min="7" max="7" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10993,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -11016,7 +11825,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -11039,7 +11848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -11062,7 +11871,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -11085,7 +11894,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -11108,7 +11917,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>355</v>
       </c>
@@ -11131,7 +11940,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -11154,7 +11963,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -11177,7 +11986,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -11200,7 +12009,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -11223,7 +12032,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -11246,7 +12055,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>373</v>
       </c>
@@ -11269,7 +12078,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>377</v>
       </c>
@@ -11292,7 +12101,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>381</v>
       </c>
@@ -11315,7 +12124,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>385</v>
       </c>
@@ -11338,7 +12147,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>389</v>
       </c>
@@ -11361,7 +12170,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>392</v>
       </c>
@@ -11384,7 +12193,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>396</v>
       </c>
@@ -11407,7 +12216,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>400</v>
       </c>
@@ -11430,7 +12239,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>404</v>
       </c>
@@ -11453,7 +12262,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>408</v>
       </c>
@@ -11476,7 +12285,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>412</v>
       </c>
@@ -11499,7 +12308,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -11522,7 +12331,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>420</v>
       </c>
@@ -11545,7 +12354,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -11568,7 +12377,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -11591,7 +12400,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>432</v>
       </c>
@@ -11614,7 +12423,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -11637,7 +12446,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -11660,7 +12469,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -11683,7 +12492,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -11706,7 +12515,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>452</v>
       </c>
@@ -11729,7 +12538,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>456</v>
       </c>
@@ -11752,7 +12561,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -11775,7 +12584,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>464</v>
       </c>
@@ -11798,7 +12607,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -11821,7 +12630,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>472</v>
       </c>
@@ -11844,7 +12653,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -11867,7 +12676,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>480</v>
       </c>
@@ -11890,7 +12699,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -11913,7 +12722,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>488</v>
       </c>
@@ -11936,7 +12745,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>492</v>
       </c>
@@ -11959,7 +12768,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -11982,7 +12791,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -12005,7 +12814,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>504</v>
       </c>
@@ -12028,7 +12837,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>507</v>
       </c>
@@ -12051,7 +12860,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>510</v>
       </c>
@@ -12074,7 +12883,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>514</v>
       </c>
@@ -12097,7 +12906,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>518</v>
       </c>
@@ -12120,7 +12929,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>521</v>
       </c>
@@ -12143,7 +12952,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -12166,7 +12975,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>528</v>
       </c>
@@ -12189,7 +12998,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -12212,7 +13021,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -12235,7 +13044,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>540</v>
       </c>
@@ -12258,7 +13067,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -12281,7 +13090,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -12304,7 +13113,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -12327,7 +13136,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>556</v>
       </c>
@@ -12350,7 +13159,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>560</v>
       </c>
@@ -12373,7 +13182,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>564</v>
       </c>
@@ -12396,7 +13205,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -12419,7 +13228,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>572</v>
       </c>
@@ -12442,7 +13251,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>576</v>
       </c>
@@ -12465,7 +13274,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -12488,7 +13297,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -12511,7 +13320,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -12534,7 +13343,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>591</v>
       </c>
@@ -12557,7 +13366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>593</v>
       </c>
@@ -12580,7 +13389,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>595</v>
       </c>
@@ -12603,7 +13412,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>599</v>
       </c>
@@ -12626,7 +13435,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -12649,7 +13458,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -12672,7 +13481,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>609</v>
       </c>
@@ -12695,7 +13504,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>611</v>
       </c>
@@ -12718,7 +13527,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -12741,7 +13550,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>619</v>
       </c>
@@ -12764,7 +13573,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>623</v>
       </c>
@@ -12800,18 +13609,18 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -12834,7 +13643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -12857,7 +13666,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -12880,7 +13689,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -12903,7 +13712,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -12926,7 +13735,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -12949,7 +13758,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>627</v>
       </c>
@@ -12972,7 +13781,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -12995,7 +13804,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -13018,7 +13827,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -13042,7 +13851,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -13065,7 +13874,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -13088,7 +13897,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>628</v>
       </c>
@@ -13111,7 +13920,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -13134,7 +13943,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>630</v>
       </c>
@@ -13157,7 +13966,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>632</v>
       </c>
@@ -13180,7 +13989,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>634</v>
       </c>
@@ -13203,7 +14012,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -13226,7 +14035,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>637</v>
       </c>
@@ -13249,7 +14058,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>640</v>
       </c>
@@ -13272,7 +14081,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -13295,7 +14104,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>647</v>
       </c>
@@ -13318,7 +14127,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>649</v>
       </c>
@@ -13341,7 +14150,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>653</v>
       </c>
@@ -13364,7 +14173,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>655</v>
       </c>
@@ -13387,7 +14196,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>658</v>
       </c>
@@ -13410,7 +14219,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>661</v>
       </c>
@@ -13433,7 +14242,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>664</v>
       </c>
@@ -13456,7 +14265,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>667</v>
       </c>
@@ -13479,7 +14288,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>460</v>
       </c>
@@ -13502,7 +14311,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>668</v>
       </c>
@@ -13525,7 +14334,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>672</v>
       </c>
@@ -13548,7 +14357,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>675</v>
       </c>
@@ -13571,7 +14380,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>677</v>
       </c>
@@ -13594,7 +14403,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>548</v>
       </c>
@@ -13617,7 +14426,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>679</v>
       </c>
@@ -13640,7 +14449,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>556</v>
       </c>
@@ -13663,7 +14472,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>560</v>
       </c>
@@ -13686,7 +14495,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>680</v>
       </c>
@@ -13709,7 +14518,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>682</v>
       </c>
@@ -13732,7 +14541,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>572</v>
       </c>
@@ -13755,7 +14564,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>683</v>
       </c>
@@ -13791,18 +14600,18 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="72.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="72.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -13825,7 +14634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>685</v>
       </c>
@@ -13848,7 +14657,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>689</v>
       </c>
@@ -13871,7 +14680,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>693</v>
       </c>
@@ -13894,7 +14703,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>389</v>
       </c>
@@ -13917,7 +14726,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>698</v>
       </c>
@@ -13940,7 +14749,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>702</v>
       </c>
@@ -13963,7 +14772,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>706</v>
       </c>
@@ -13986,7 +14795,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>710</v>
       </c>
@@ -14009,7 +14818,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>713</v>
       </c>
@@ -14032,7 +14841,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>717</v>
       </c>
@@ -14055,7 +14864,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>721</v>
       </c>
@@ -14078,7 +14887,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>724</v>
       </c>
@@ -14101,7 +14910,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>728</v>
       </c>
@@ -14124,7 +14933,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>731</v>
       </c>
@@ -14147,7 +14956,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>735</v>
       </c>
@@ -14170,7 +14979,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>738</v>
       </c>
@@ -14193,7 +15002,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -14216,7 +15025,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>744</v>
       </c>
@@ -14239,7 +15048,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -14262,7 +15071,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>750</v>
       </c>
@@ -14285,7 +15094,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -14308,7 +15117,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>756</v>
       </c>
@@ -14331,7 +15140,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>759</v>
       </c>
@@ -14354,7 +15163,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>762</v>
       </c>
@@ -14377,7 +15186,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -14400,7 +15209,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>766</v>
       </c>
@@ -14423,7 +15232,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -14446,7 +15255,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -14469,7 +15278,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -14492,7 +15301,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>767</v>
       </c>
@@ -14515,7 +15324,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>770</v>
       </c>
@@ -14538,7 +15347,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>772</v>
       </c>
@@ -14561,7 +15370,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>773</v>
       </c>
@@ -14584,7 +15393,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -14607,7 +15416,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>774</v>
       </c>
@@ -14630,7 +15439,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>777</v>
       </c>
@@ -14653,7 +15462,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>781</v>
       </c>
@@ -14676,7 +15485,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>785</v>
       </c>
@@ -14699,7 +15508,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>789</v>
       </c>
@@ -14722,7 +15531,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>793</v>
       </c>
@@ -14758,15 +15567,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="43" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -14789,7 +15598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -14812,7 +15621,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>766</v>
       </c>
@@ -14835,7 +15644,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -14858,7 +15667,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -14881,7 +15690,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -14904,7 +15713,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>770</v>
       </c>
@@ -14927,7 +15736,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>772</v>
       </c>
@@ -14950,7 +15759,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>773</v>
       </c>
@@ -14973,7 +15782,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -14996,7 +15805,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>774</v>
       </c>
@@ -15019,7 +15828,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>798</v>
       </c>
@@ -15042,7 +15851,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>802</v>
       </c>
@@ -15065,7 +15874,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>806</v>
       </c>
@@ -15088,7 +15897,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>810</v>
       </c>
@@ -15111,7 +15920,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>675</v>
       </c>
@@ -15134,7 +15943,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>817</v>
       </c>
@@ -15157,7 +15966,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>821</v>
       </c>
@@ -15180,7 +15989,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>825</v>
       </c>
@@ -15203,7 +16012,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>829</v>
       </c>
@@ -15226,7 +16035,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>833</v>
       </c>
@@ -15249,7 +16058,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>837</v>
       </c>
@@ -15272,7 +16081,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>841</v>
       </c>
@@ -15295,7 +16104,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>845</v>
       </c>
@@ -15318,7 +16127,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>849</v>
       </c>
@@ -15341,7 +16150,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>853</v>
       </c>
@@ -15364,7 +16173,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>762</v>
       </c>
@@ -15387,7 +16196,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>859</v>
       </c>

--- a/double-major-optimization-main/Data/Sheets/Buckets.xlsx
+++ b/double-major-optimization-main/Data/Sheets/Buckets.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferkimball/WPI-Student-Course-Optimization-23-24/double-major-optimization-main/Data/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9027636-3637-294F-842C-365BD29075BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FB44C-6A29-334A-83AB-36AA8DC464EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28760" windowHeight="16280" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN_ED" sheetId="1" r:id="rId1"/>
     <sheet name="MATH_MAJOR" sheetId="2" r:id="rId2"/>
     <sheet name="OIE_MAJOR" sheetId="3" r:id="rId3"/>
     <sheet name="MATH_OIE_DOUBLE" sheetId="4" r:id="rId4"/>
-    <sheet name="DS_MASTER" sheetId="5" r:id="rId5"/>
+    <sheet name="OLD_DS_MASTER" sheetId="5" r:id="rId5"/>
     <sheet name="DS_DS_BSMS" sheetId="6" r:id="rId6"/>
-    <sheet name="DS_MAJOR" sheetId="7" r:id="rId7"/>
+    <sheet name="DS_MAJOR_OLD" sheetId="7" r:id="rId7"/>
     <sheet name="OLD_CS_MAJOR" sheetId="8" r:id="rId8"/>
     <sheet name="OLD_ME_MAJOR" sheetId="9" r:id="rId9"/>
     <sheet name="CS_MASTER" sheetId="10" r:id="rId10"/>
@@ -27,14 +27,20 @@
     <sheet name="ME_MAJOR" sheetId="12" r:id="rId12"/>
     <sheet name="CS_MAJOR" sheetId="13" r:id="rId13"/>
     <sheet name="BME_MAJOR" sheetId="14" r:id="rId14"/>
-    <sheet name="RBE_MASTER" sheetId="15" r:id="rId15"/>
+    <sheet name="RBE_MAJOR" sheetId="21" r:id="rId15"/>
+    <sheet name="2_DS_MASTER" sheetId="15" r:id="rId16"/>
+    <sheet name="RBE_MASTER" sheetId="16" r:id="rId17"/>
+    <sheet name="DS_MASTER" sheetId="17" r:id="rId18"/>
+    <sheet name="BME_ME_DOUBLE" sheetId="18" r:id="rId19"/>
+    <sheet name="DS_MAJOR" sheetId="19" r:id="rId20"/>
+    <sheet name="CS_DS_DOUBLE" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1547">
   <si>
     <t>Bucket Key</t>
   </si>
@@ -3174,9 +3180,6 @@
     <t>['IMGD_2000', 'IMGD_2001']</t>
   </si>
   <si>
-    <t xml:space="preserve">Humanities </t>
-  </si>
-  <si>
     <t>DPE_H</t>
   </si>
   <si>
@@ -3552,77 +3555,1139 @@
     <t>['BME_GRAD_REST']</t>
   </si>
   <si>
-    <t>['RBE_MS_FOUND']</t>
-  </si>
-  <si>
-    <t>['RBE_500', 'RBE_502']</t>
-  </si>
-  <si>
-    <t>['RBE_MS_FOUND', 'RBE_MS_FOUND_CR']</t>
-  </si>
-  <si>
-    <t>['RBE_501', 'ME_501']</t>
-  </si>
-  <si>
-    <t>['RBE_MS_CORE_ELECTIVES']</t>
-  </si>
-  <si>
-    <t>['BME_520', 'RBE_520', 'BME_580', 'RBE_580', 'ME_5205', 'CS_526', 'RBE_526', 'CS_549', 'RBE_549', 'ME_521', 'RBE_521', 'ME_530', 'RBE_530', 'RBE_510', 'ME_5204', 'RBE_522', 'RBE_533', 'RBE_550', 'RBE_597']</t>
-  </si>
-  <si>
-    <t>['RBE_CAPSTONE']</t>
-  </si>
-  <si>
-    <t>['RBE_594', 'RBE_596', 'RBE_598']</t>
-  </si>
-  <si>
-    <t>['RBE_CAPSTONE', 'RBE_THESIS_CAP']</t>
-  </si>
-  <si>
-    <t>['RBE_599']</t>
-  </si>
-  <si>
-    <t>['RBE_MS_CTXT']</t>
-  </si>
-  <si>
-    <t>['ETR_500', 'ETR_593', 'MIS_576', 'OBC_506', 'BUS_546', 'SYS_501', 'SYS_502', 'SYS_510', 'SYS_511', 'SYS_512', 'SYS_520', 'SYS_521', 'SYS_540', 'SYS_579C', 'SYS_579D', 'SYS_579R', 'SYS_579S', 'SYS_585', 'SYS_596A', 'SYS_596B', 'SYS_597', 'SYS_598']</t>
+    <t>DS_ELECT</t>
+  </si>
+  <si>
+    <t>['BUS_500', 'FIN_500', 'FIN_503', 'MIS_500', 'MIS_573', 'MIS_576', 'MIS_581', 'MIS_583', 'MIS_585', 'OBC_505', 'OBC_506', 'OIE_501', 'OIE_542', 'OIE_544', 'OIE_552', 'OIE_559', 'CS_5007', 'CS_5084', 'CS_504', 'CS_509', 'CS_525', 'CS_528', 'CS_534', 'CS_536', 'CS_545', 'CS_546', 'CS_547', 'DS_547', 'CS_549', 'CS_573', 'CS_584', 'MA_511', 'MA_517', 'DS_517', 'MA_529', 'MA_540', 'MA_541', 'MA_546', 'MA_547', 'MA_549', 'MA_550', 'MA_552', 'MA_556', 'CS_565', 'CS_566', 'CS_567', 'PSY_505', 'BCB_501', 'BCB_502', 'CS_582', 'BCB_503', 'CS_583', 'BCB_504', 'MA_584', 'BME_595', 'ECE_502', 'ECE_503', 'ECE_504', 'ECE_578', 'CS_578', 'ECE_630', 'ECE_673', 'CS_673', 'ECE_5311']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS']</t>
+  </si>
+  <si>
+    <t>DAMA</t>
+  </si>
+  <si>
+    <t>Data Access and Management - MIS_571, CS_542, CS_561, CS_585/DS_503</t>
+  </si>
+  <si>
+    <t>['MIS_571', 'CS_542', 'CS_561', 'CS_585', 'DS_503']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_DAT_MAN']</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Business Intelligence and Case Studies - MIS_584, MIS_587, MKT_568</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_BI_CASE']</t>
+  </si>
+  <si>
+    <t>DAMI</t>
+  </si>
+  <si>
+    <t>Data Analytics and Mining - CS_539, CS_541/DS_541, CS_548, CS_586/DS_504</t>
+  </si>
+  <si>
+    <t>['CS_539', 'CS_541', 'DS_541', 'CS_548', 'CS_586', 'DS_504']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_DAT_MIN']</t>
+  </si>
+  <si>
+    <t>MATH_A</t>
+  </si>
+  <si>
+    <t>Mathematical Analytics - MA_542, MA_543/DS_502, MA_554</t>
+  </si>
+  <si>
+    <t>['MA_542', 'MA_543', 'DS_502', 'MA_554']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_MATH_ANALYTICS']</t>
+  </si>
+  <si>
+    <t>DS_501</t>
+  </si>
+  <si>
+    <t>Integrative DS - DS_501</t>
+  </si>
+  <si>
+    <t>['DS_501']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_INT_DS']</t>
+  </si>
+  <si>
+    <t>GQP</t>
+  </si>
+  <si>
+    <t>['DS_598']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_CAP']</t>
+  </si>
+  <si>
+    <t>GQP_THESIS</t>
+  </si>
+  <si>
+    <t>GQP or Thesis</t>
+  </si>
+  <si>
+    <t>['DS_599']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_CAP', 'DS_THESIS_CAP']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>FOUND</t>
   </si>
   <si>
     <t>RBE Foundations - RBE_500 AND RBE_502</t>
   </si>
   <si>
+    <t>["RBE_500", "RBE_502"]</t>
+  </si>
+  <si>
+    <t>["RBE_MS_TOTAL_CREDITS", "RBE_MS_FOUND"]</t>
+  </si>
+  <si>
+    <t>ROB_DYN</t>
+  </si>
+  <si>
     <t>RBE_501/ME_501</t>
   </si>
   <si>
+    <t>["RBE_501", "ME_501"]</t>
+  </si>
+  <si>
+    <t>["RBE_MS_TOTAL_CREDITS", "RBE_MS_FOUND", "RBE_MS_FOUND_CR"]</t>
+  </si>
+  <si>
     <t>Core Electives</t>
   </si>
   <si>
+    <t>["BME_520", "RBE_520", "BME_580", "RBE_580", "ME_5205", "CS_526", "RBE_526", "CS_549", "RBE_549", "ME_521", "RBE_521", "ME_530", "RBE_530", "RBE_510", "ME_5204", "RBE_522", "RBE_533", "RBE_550", "RBE_597"]</t>
+  </si>
+  <si>
+    <t>["RBE_MS_TOTAL_CREDITS", "RBE_MS_CORE_ELECTIVES"]</t>
+  </si>
+  <si>
+    <t>CONTEXT</t>
+  </si>
+  <si>
+    <t>Engineering Context - ETR_500, ETR_593, MIS_576, OBC_506, BUS_546, OR SYS_DEPT</t>
+  </si>
+  <si>
+    <t>["ETR_500", "ETR_593", "MIS_576", "OBC_506", "BUS_546", "SYS_501", "SYS_502", "SYS_510", "SYS_511", "SYS_512", "SYS_520", "SYS_521", "SYS_540", "SYS_579C", "SYS_579D", "SYS_579R", "SYS_579S", "SYS_585", "SYS_596A", "SYS_596B", "SYS_597", "SYS_598"]</t>
+  </si>
+  <si>
+    <t>["RBE_MS_TOTAL_CREDITS", "RBE_MS_CTXT"]</t>
+  </si>
+  <si>
     <t>Capstone or Thesis</t>
   </si>
   <si>
+    <t>["RBE_599"]</t>
+  </si>
+  <si>
+    <t>["RBE_MS_TOTAL_CREDITS", "RBE_CAPSTONE", "RBE_THESIS_CAP"]</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>["RBE_594", "RBE_596", "RBE_598"]</t>
+  </si>
+  <si>
+    <t>["RBE_MS_TOTAL_CREDITS", "RBE_CAPSTONE"]</t>
+  </si>
+  <si>
+    <t>THE_ELECT</t>
+  </si>
+  <si>
     <t>Thesis or Elective</t>
   </si>
   <si>
-    <t>Engineering Context - ETR_500, ETR_593, MIS_576, OBC_506, BUS_546, OR SYS_DEPT</t>
-  </si>
-  <si>
-    <t>FOUND</t>
-  </si>
-  <si>
-    <t>ROB_DYN</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>CONTEXT</t>
+    <t>["RBE_MS_TOTAL_CREDITS"]</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_ELECTIVES']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_ELECTIVES', 'DS_MS_DAT_MAN']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_ELECTIVES', 'DS_MS_BI_CASE']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_ELECTIVES', 'DS_MS_DAT_MIN']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_ELECTIVES', 'DS_MS_MATH_ANALYTICS']</t>
+  </si>
+  <si>
+    <t>['DS_MS_TOTAL_CREDITS', 'DS_MS_ELECTIVES', 'DS_MS_INT_DS']</t>
+  </si>
+  <si>
+    <t>['DS_MS_CAP']</t>
+  </si>
+  <si>
+    <t>['DS_MS_CAP', 'DS_MS_THESIS_CAP']</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>INTRO_CH</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'BME_C', 'BME_SS', 'ME_CHEM']</t>
+  </si>
+  <si>
+    <t>INTRO_PH</t>
+  </si>
+  <si>
+    <t>['ME_BSCAP', 'ME_MABS', 'BME_P', 'BME_SS', 'ME_PHY']</t>
+  </si>
+  <si>
+    <t>['MA_1021', 'MA_1022', 'MA_1023', 'MA_1024']</t>
+  </si>
+  <si>
+    <t>['ME_M', 'ME_MABS', 'BME_M', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>MA_2051</t>
+  </si>
+  <si>
+    <t>['ME_M', 'ME_MABS', 'BME_M', 'BME_SS', 'BME_ODE']</t>
+  </si>
+  <si>
+    <t>MA_2071</t>
+  </si>
+  <si>
+    <t>['MA_2071']</t>
+  </si>
+  <si>
+    <t>['ME_M', 'ME_MABS', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_B', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_B', 'BME_SS', 'BME_BIO_2000']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_B', 'BME_SS', 'BME_HP', 'BME_BIO_2000']</t>
+  </si>
+  <si>
+    <t>CH_BIO_CL</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_B', 'BME_C', 'BME_SS', 'BME_BIO_2000']</t>
+  </si>
+  <si>
+    <t>['CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_C', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_C', 'BME_SS', 'ME_CHEM', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>['PH_1111', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_P', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_P', 'BME_SS', 'ME_PHY', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>PH_AE_CL</t>
+  </si>
+  <si>
+    <t>PH_2550/AE_2550</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'ME_E', 'BME_P', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>OTHER_CALC</t>
+  </si>
+  <si>
+    <t>Other Calculus Classes</t>
+  </si>
+  <si>
+    <t>['MA_1020', 'MA_1033', 'MA_1034', 'MA_1120']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_M', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>['MA_1801', 'MA_1971', 'CS_2022', 'MA_2201', 'MA_2072', 'MA_2073', 'MA_2210', 'MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2431', 'MA_2612', 'MA_2621', 'MA_2631', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'MA_3212', 'MA_3213', 'MA_3231', 'MA_3233', 'MA_3471', 'MA_3475', 'MA_3627', 'MA_3631', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'BCB_4004', 'MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4216', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4631', 'MA_4632', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_SS']</t>
+  </si>
+  <si>
+    <t>['ME_MABS', 'BME_M', 'BME_SS', 'BME_STATS']</t>
+  </si>
+  <si>
+    <t>ES_BMECH</t>
+  </si>
+  <si>
+    <t>ES_2501, ES_2503</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_E', 'BME_BIOMECH', 'BME_2000_L_ENG', 'ME_MS_CORE']</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_E', 'BME_BIOMECH', 'BME_2000_L_ENG', 'ME_MS_CORE', 'BME_STRESS_REST']</t>
+  </si>
+  <si>
+    <t>ME_4000</t>
+  </si>
+  <si>
+    <t>['ME_MS', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>ES_3003</t>
+  </si>
+  <si>
+    <t>['ES_3003']</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'ME_TS_CORE']</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_E', 'BME_BIOMECH', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'ME_TS_CORE']</t>
+  </si>
+  <si>
+    <t>ME_THERM</t>
+  </si>
+  <si>
+    <t>ME_4422, ME_4429</t>
+  </si>
+  <si>
+    <t>['ME_TS', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ME_MAT_SCI', 'ME_E', 'BME_BIOMAT', 'BME_2000_L_ENG', 'BME_MAT_REST']</t>
+  </si>
+  <si>
+    <t>BME_ECE_CL</t>
+  </si>
+  <si>
+    <t>BME_4011, ECE_4011, BME_4023, ECE_4023</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023']</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_4000_L_BME', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E', 'BME_SS', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>ECE_2010</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E', 'BME_BIOINS', 'BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>ECE_2019, ECE_2029, ECE_2049, ECE_2112, ECE_2201, ECE_2305, ECE_2311, ECE_2312, ECE_2799</t>
+  </si>
+  <si>
+    <t>['ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799']</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E', 'BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>3000_ECE</t>
+  </si>
+  <si>
+    <t>3000+ Level ECE</t>
+  </si>
+  <si>
+    <t>['ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904']</t>
+  </si>
+  <si>
+    <t>['ME_ECE', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ME_EXP', 'ME_E', 'BME_A', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>ME_3902</t>
+  </si>
+  <si>
+    <t>['ME_3902']</t>
+  </si>
+  <si>
+    <t>['ME_EXP', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ME_PROG', 'BME_CP', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>CS_1004, CS_1101</t>
+  </si>
+  <si>
+    <t>['CS_1004', 'CS_1101']</t>
+  </si>
+  <si>
+    <t>['ME_PROG', 'BME_SS', 'BME_CP']</t>
+  </si>
+  <si>
+    <t>ME_2312</t>
+  </si>
+  <si>
+    <t>['ME_2312']</t>
+  </si>
+  <si>
+    <t>['ME_PROG', 'ME_E', 'BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>ME_4512</t>
+  </si>
+  <si>
+    <t>['ME_4512']</t>
+  </si>
+  <si>
+    <t>['ME_PROG', 'ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'CHE_2301', 'ME_2301', 'FP_3070', 'FP_3080', 'FP_4000', 'FP_4001', 'MTE_575']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_BIOMAT', 'BME_2000_L_ENG', 'BME_BME', 'BME_MAT_REST']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_BIOINS', 'BME_2000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>BME_2211</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_A', 'BME_2000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_BIOMECH', 'BME_2000_L_ENG', 'BME_BME', 'BME_STRESS_REST']</t>
+  </si>
+  <si>
+    <t>BME_2610</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>LIV_LAB</t>
+  </si>
+  <si>
+    <t>BME_3012, BME_3503, BME_3813</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_L', 'BME_3000_L_ENG', 'BME_BME', 'BME_LIV_SYST']</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>BME_3012, BME_3013, BME_3014, BME_3503, BME_3505, BME_3506, BME_3605, BME_3811, BME_3813</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_L', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_HP', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME', 'BME_LIV_SYST']</t>
+  </si>
+  <si>
+    <t>BME_3112</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_ED', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_BIOMECH', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>['BME_4201', 'BME_4300', 'BME_4503', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4701', 'BME_4814', 'ME_4814', 'BME_4828', 'BME_4831']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'BME_4000_L_BME', 'BME_BME']</t>
+  </si>
+  <si>
+    <t>2000+_ENG_EL</t>
+  </si>
+  <si>
+    <t>2000+ Engineering Electives</t>
+  </si>
+  <si>
+    <t>['CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'ES_2800', 'ME_2300', 'ME_2820', 'RBE_2001', 'RBE_2002', 'RBE_3100']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG']</t>
+  </si>
+  <si>
+    <t>3000+_ENG_EL</t>
+  </si>
+  <si>
+    <t>3000+ Engineering Electives</t>
+  </si>
+  <si>
+    <t>['CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_4063', 'CHE_4063', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'ES_3002', 'ES_3011', 'ES_3323', 'ES_3501', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'RBE_3001', 'RBE_3002', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG']</t>
+  </si>
+  <si>
+    <t>['ME_E', 'BME_2000_L_ENG', 'BME_3000_L_ENG', 'ME_ES_3001_EQ']</t>
+  </si>
+  <si>
+    <t>Supplemental Science</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2102', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_3733', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4804']</t>
+  </si>
+  <si>
+    <t>OTHER_INTRO_CS</t>
+  </si>
+  <si>
+    <t>CS_2301, CS_2303, CS_1102</t>
+  </si>
+  <si>
+    <t>['CS_2301', 'CS_2303', 'CS_1102']</t>
+  </si>
+  <si>
+    <t>Graduate Level BME</t>
+  </si>
+  <si>
+    <t>Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>Data Access and Management - CS_3431, MIS_3720, CS_4432, CS_4433/DS_4433</t>
+  </si>
+  <si>
+    <t>Data Mining and Machine Learning - CS_4342, CS_4445</t>
+  </si>
+  <si>
+    <t>4000-Level Data Access and Management - CS_4432, CS_4433/DS_4433</t>
+  </si>
+  <si>
+    <t>Business Modeling and Prediction - MIS_4084, OIE_4430</t>
+  </si>
+  <si>
+    <t>Entrepreneurship and Innovation - BUS_1010, ETR_1100, BUS_3010, ETR_3633, OBC_1010, MIS_3010</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'BB_4170', 'CH_4170', 'BB_4190', 'CH_4190', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2550', 'AE_2550', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201', 'AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'PH_2550', 'AE_2550', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813',  'BME_4201', 'BME_4300', 'BME_4503', 'BME_4701', 'BME_4828', 'BME_4831', 'BME_1001', 'BME_1004', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CE_1030', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'CHE_1011', 'BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'CS_4801', 'ECE_4802', 'ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2049', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904', 'ECE_1799', 'ES_2001', 'ES_2501', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3011', 'ES_3323', 'ES_3501', 'ES_1020', 'ES_1310', 'ES_1500', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4814', 'ME_4814', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575', 'RBE_4322', 'ME_4322', 'ME_1520', 'ME_1800', 'RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002', 'RBE_3100', 'RBE_4540', 'RBE_4815', 'RBE_1001', 'AE_DEPT', 'AREN_DEPT', 'BB_DEPT', 'BME_DEPT', 'CHE_DEPT', 'CE_DEPT', 'CH_DEPT', 'ECE_DEPT', 'GE_DEPT', 'ME_DEPT', 'PH_DEPT', 'RBE_DEPT']</t>
+  </si>
+  <si>
+    <t>CS_1004, CS_1101, CS_1102</t>
+  </si>
+  <si>
+    <t>CS_2102, CS_2103, CS_2119</t>
+  </si>
+  <si>
+    <t>CS_1101, CS_1102</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_CS', 'CS_1000_REST', 'DS_CS_1000_L']</t>
+  </si>
+  <si>
+    <t>CS_NOT_DS</t>
+  </si>
+  <si>
+    <t>['CS_2011', 'CS_3516']</t>
+  </si>
+  <si>
+    <t>DISCRETE</t>
+  </si>
+  <si>
+    <t>CS_2022/MA_2201</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>CS_2102, CS_2103</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_CS', 'CS_OBJ_OR_REST']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_ALGOS']</t>
+  </si>
+  <si>
+    <t>SYSTEMS</t>
+  </si>
+  <si>
+    <t>CS_2201, CS_2303</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_SYS_REST']</t>
+  </si>
+  <si>
+    <t>Design - CS_3041, CS_3733</t>
+  </si>
+  <si>
+    <t>['CS_3041', 'CS_3733']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_DESIGN']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_THRY']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_DESIGN', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>4000_CS</t>
+  </si>
+  <si>
+    <t>4000 Level CS</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4300', 'IMGD_4300', 'CS_4401', 'CS_4404', 'CS_4518', 'CS_4731', 'CS_4732']</t>
+  </si>
+  <si>
+    <t>GRAD_CS</t>
+  </si>
+  <si>
+    <t>Grad CS</t>
+  </si>
+  <si>
+    <t>['BCB_502', 'BCB_503', 'CS_504', 'CS_513', 'CS_514', 'ECE_572', 'CS_521', 'CS_522', 'MA_510', 'CS_525', 'CS_526', 'RBE_526', 'CS_529', 'ECE_581', 'CS_538', 'CS_540', 'CS_543', 'CS_545', 'ECE_545', 'CS_549', 'RBE_549', 'CS_557', 'CS_558', 'CS_559', 'CS_563', 'CS_564', 'CS_571', 'CS_573', 'CS_577', 'ECE_577', 'CS_578', 'ECE_578', 'CS_673', 'ECE_673', 'CS_5008', 'CS_547', 'DS_547', 'CS_565', 'SEME_565', 'CS_566', 'SEME_566', 'CS_567', 'SEME_567', 'CS_568', 'SEME_568']</t>
+  </si>
+  <si>
+    <t>NUM_M_1</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_GEN_MATH', 'DS_DE', 'DS_MS', 'CS_UPLVL_MIN', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>NUM_M_2</t>
+  </si>
+  <si>
+    <t>['CS_4033', 'MA_3457']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_THRY', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>4000_THRY</t>
+  </si>
+  <si>
+    <t>4000 Level Theory - CS_4123, CS_4533, CS_4536</t>
+  </si>
+  <si>
+    <t>['CS_4123', 'CS_4533', 'CS_4536']</t>
+  </si>
+  <si>
+    <t>GRAD_THRY</t>
+  </si>
+  <si>
+    <t>Grad Level Theory - CS_503, CS_536, CS_544, CS_584, CS_5003, CS_5084</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_DESIGN', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>[ 'CS_561']</t>
+  </si>
+  <si>
+    <t>CS_4000_2</t>
+  </si>
+  <si>
+    <t>CS 4000 Level Electives</t>
+  </si>
+  <si>
+    <t>['CS_4241', 'CS_4341', 'CS_4804']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>CS_GRAD_MORE</t>
+  </si>
+  <si>
+    <t>CS Grad Level Electives</t>
+  </si>
+  <si>
+    <t>['CS_582', 'CS_583', 'CS_528', 'CS_534', 'CS_585', 'DS_503', 'CS_586', 'DS_504', 'CS_541', 'DS_541']</t>
+  </si>
+  <si>
+    <t>DMML</t>
+  </si>
+  <si>
+    <t>Data Mining/Machine Learning - CS_4342, CS_4445</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER', 'DS_DMML']</t>
+  </si>
+  <si>
+    <t>G_DMML</t>
+  </si>
+  <si>
+    <t>Grad Level Data Mining/Machine Learning - CS_539, CS_548</t>
+  </si>
+  <si>
+    <t>4000_DAM</t>
+  </si>
+  <si>
+    <t>4000 Level Data Access &amp; Management - CS_4432, CS_4433/DS_4433</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'DS_4LDER', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>GRAD_SYS</t>
+  </si>
+  <si>
+    <t>Grad Level Systems - CS_502, CS_533, CS_535</t>
+  </si>
+  <si>
+    <t>[ 'CS_502', 'CS_533', 'CS_535']</t>
+  </si>
+  <si>
+    <t>4000_SYS</t>
+  </si>
+  <si>
+    <t>4000 Level Systems - CS_4513, CS_4515, CS_4516</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'CS_SCI_ENG', 'DS_NES', 'CS_UPLVL_MIN']</t>
+  </si>
+  <si>
+    <t>GRAD_DES</t>
+  </si>
+  <si>
+    <t>Grad Level Design - CS_509, CS_546, CS_562</t>
+  </si>
+  <si>
+    <t>['CS_509', 'CS_546', 'CS_562']</t>
+  </si>
+  <si>
+    <t>['CS_CORE', 'DS_DE', 'DS_CS', 'CS_UPLVL_MIN', 'CS_DESIGN', 'DS_4LDER', 'DS_DAM']</t>
+  </si>
+  <si>
+    <t>['CS_PROB', 'CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>Stats - MA_2611, MA_2612</t>
+  </si>
+  <si>
+    <t>['CS_STATS', 'CS_GEN_MATH', 'DS_STATS']</t>
+  </si>
+  <si>
+    <t>CALCI_I_II</t>
+  </si>
+  <si>
+    <t>Calculus I &amp; II</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_MS', 'CS_MATH_1000L_REST']</t>
+  </si>
+  <si>
+    <t>CALC_III_IV</t>
+  </si>
+  <si>
+    <t>Calculus III &amp; IV</t>
+  </si>
+  <si>
+    <t>['MA_1023', 'MA_1024', 'MA_1033', 'MA_1034']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS', 'CS_MATH_1000L_REST']</t>
+  </si>
+  <si>
+    <t>['MA_1801', 'MA_1971']</t>
+  </si>
+  <si>
+    <t>['MA_2051', 'MA_2073', 'MA_2210', 'MA_2431', 'MA_3231', 'MA_3233', 'MA_3627', 'MA_3631']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_LA']</t>
+  </si>
+  <si>
+    <t>NON_DE_MATH</t>
+  </si>
+  <si>
+    <t>Non Disciplinary Elective Math</t>
+  </si>
+  <si>
+    <t>['MA_2211', 'MA_2212', 'MA_2251', 'MA_2271', 'MA_2273', 'MA_2610', 'MA_3212', 'MA_3213', 'MA_3471', 'MA_3475', 'MA_3823', 'MA_3825', 'MA_3831', 'MA_3832', 'MA_4216', 'MA_4291', 'MA_4411', 'MA_4451', 'MA_4473', 'MA_4891', 'MA_4892', 'MA_4895']</t>
+  </si>
+  <si>
+    <t>['BCB_4004']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_DE', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>GRAD_MATH</t>
+  </si>
+  <si>
+    <t>Grad Level Math</t>
+  </si>
+  <si>
+    <t>['CS_GEN_MATH', 'DS_DE', 'DS_MS', 'DS_4LDER']</t>
+  </si>
+  <si>
+    <t>4000_MATH_DE</t>
+  </si>
+  <si>
+    <t>4000 Level Math Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>['MA_4603', 'DS_4635', 'MA_4635', 'MA_4213', 'MA_4214', 'MA_4222', 'MA_4235', 'MA_4237', 'MA_4631', 'MA_4632']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_2']</t>
+  </si>
+  <si>
+    <t>BIO_CHEM</t>
+  </si>
+  <si>
+    <t>BB_4170/CH_4170, BB_4190/CH_4190</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'DS_NES', 'CS_SCI_DPTH_SL_1', 'CS_SCI_DPTH_SL_2']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_1']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_3']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'CS_SCI_DPTH_SL_0']</t>
+  </si>
+  <si>
+    <t>PH_AE</t>
+  </si>
+  <si>
+    <t>['CS_GEN_SCI', 'CS_SCI_ENG', 'DS_NES', 'DS_NES', 'CS_SCI_DPTH_SL_0']</t>
+  </si>
+  <si>
+    <t>NES_BOTH</t>
+  </si>
+  <si>
+    <t>['CS_SCI_ENG', 'DS_NES']</t>
+  </si>
+  <si>
+    <t>['CS_SCI_ENG', 'DS_NES', 'CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>Humanities Data Privacy &amp; Ethics - PY_2731/RE_2731, PY_2713</t>
+  </si>
+  <si>
+    <t>Data Privacy &amp; Ethics - GOV_2314, GOV_2315</t>
+  </si>
+  <si>
+    <t>['SOC_SCI_REQ', 'CS_SOC_IMPS', 'DS_DPE']</t>
+  </si>
+  <si>
+    <t>GOV_2313</t>
+  </si>
+  <si>
+    <t>['GOV_2313']</t>
+  </si>
+  <si>
+    <t>ID_2314</t>
+  </si>
+  <si>
+    <t>['ID_2314']</t>
+  </si>
+  <si>
+    <t>DS Core</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>GRAD_DE</t>
+  </si>
+  <si>
+    <t>Grad Level Disciplinary Electives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['MIS_571', 'MIS_587', 'MKT_568']</t>
+  </si>
+  <si>
+    <t>4000_DE</t>
+  </si>
+  <si>
+    <t>4000 Level Disciplinary Electives</t>
+  </si>
+  <si>
+    <t>GRAD_BMP</t>
+  </si>
+  <si>
+    <t>Grad Level Business Modeling and Prediction - MIS_584, OIE_559</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>BUS_OIE</t>
+  </si>
+  <si>
+    <t>NES_DS</t>
+  </si>
+  <si>
+    <t>['AE_2110', 'AE_2310', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'AE_DEPT', 'AREN_DEPT', 'BB_DEPT', 'BME_DEPT', 'CHE_DEPT', 'CE_DEPT', 'CH_DEPT', 'ECE_DEPT', 'GE_DEPT', 'ME_DEPT', 'PH_DEPT', 'RBE_DEPT']</t>
+  </si>
+  <si>
+    <t>CS_1004</t>
+  </si>
+  <si>
+    <t>['CS_1004']</t>
+  </si>
+  <si>
+    <t>CS_2119</t>
+  </si>
+  <si>
+    <t>['CS_2119']</t>
+  </si>
+  <si>
+    <t>CS_210X</t>
+  </si>
+  <si>
+    <t>['RBE_MATH', 'RBE_CALC']</t>
+  </si>
+  <si>
+    <t>['RBE_MATH', 'RBE_DIFF_EQS_LIN_ALG']</t>
+  </si>
+  <si>
+    <t>['MA_2051', 'MA_2071']</t>
+  </si>
+  <si>
+    <t>['RBE_MATH', 'RBE_PROB']</t>
+  </si>
+  <si>
+    <t>['RBE_PHYS', 'RBE_SCI']</t>
+  </si>
+  <si>
+    <t>['PH_1110', 'PH_1111', 'PH_1120', 'PH_1121']</t>
+  </si>
+  <si>
+    <t>['RBE_SCI']</t>
+  </si>
+  <si>
+    <t>['BB_1001', 'BB_1002', 'BB_1003', 'BCB_1003', 'BB_1025', 'BB_1035', 'BB_1045', 'BB_2002', 'BB_2003', 'BB_2030', 'BB_2040', 'BB_2050', 'BB_2550', 'BB_2902', 'BB_2903', 'BB_2904', 'BB_2915', 'BB_2917', 'BB_2920', 'BB_2950', 'BB_3003', 'BB_3010', 'BCB_3010', 'BB_3050', 'BB_3080', 'BB_3101', 'BB_3102', 'BB_3120', 'BB_3140', 'BB_3512', 'BB_3513', 'BB_3515', 'BB_3517', 'BB_3519', 'BB_3521', 'BB_3525', 'BB_3526', 'BB_3527', 'BB_3530', 'BB_3570', 'BB_3620', 'BB_3920', 'BB_4150', 'BB_4620', 'BB_4801', 'BCB_4001', 'BB_4900', 'CH_1010', 'CH_1020', 'CH_1030', 'CH_1040', 'CH_2310', 'CH_2320', 'CH_2330', 'CH_2360', 'CH_2640', 'CH_2650', 'CH_2660', 'CH_2670', 'CH_3310', 'CH_3410', 'CH_3510', 'CH_3530', 'CH_3550', 'CH_4110', 'CH_4120', 'CH_4130', 'CH_4140', 'CH_4150', 'CH_4160', 'CH_4330', 'CH_4420', 'CH_4520', 'GE_2341', 'PH_1130', 'PH_1140', 'PH_1150', 'PH_2101', 'PH_2201', 'PH_2202', 'PH_2301', 'PH_2501', 'PH_2502', 'PH_2510', 'PH_2520', 'PH_2540', 'PH_2601', 'PH_2651', 'PH_3206', 'PH_3301', 'PH_3401', 'PH_3402', 'PH_3501', 'PH_3502', 'PH_3503', 'PH_3504', 'PH_4201']</t>
+  </si>
+  <si>
+    <t>['RBE_SCI', 'RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['RBE_ETR']</t>
+  </si>
+  <si>
+    <t>['ETR_1100', 'ETR_3600']</t>
+  </si>
+  <si>
+    <t>['RBE_ROBO', 'RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['RBE_1001']</t>
+  </si>
+  <si>
+    <t>['RBE_ROBO', 'RBE_ENG_ELECT', 'RBE_RBE_CORE']</t>
+  </si>
+  <si>
+    <t>['RBE_2001', 'RBE_2002', 'RBE_3001', 'RBE_3002']</t>
+  </si>
+  <si>
+    <t>['RBE_ROBO', 'RBE_ENG_ELECT', 'RBE_4000']</t>
+  </si>
+  <si>
+    <t>['RBE_4322', 'ME_4322', 'RBE_4540', 'RBE_4815']</t>
+  </si>
+  <si>
+    <t>['RBE_CS']</t>
+  </si>
+  <si>
+    <t>['BCB_4002', 'CS_4802', 'BCB_4003', 'CS_4803', 'CS_2011', 'CS_2022', 'MA_2201', 'CS_2103', 'CS_2119', 'CS_2223', 'CS_2301', 'CS_2303', 'CS_3013', 'CS_3041', 'CS_3043', 'CS_3133', 'CS_3431', 'CS_3516', 'CS_4032', 'MA_3257', 'CS_4033', 'MA_3457', 'CS_4099', 'CS_4100', 'IMGD_4100', 'CS_4120', 'CS_4123', 'CS_4233', 'CS_4241', 'CS_4300', 'IMGD_4300', 'CS_4341', 'CS_4342', 'CS_4401', 'CS_4404', 'CS_4432', 'CS_4433', 'DS_4433', 'CS_4445', 'CS_4513', 'CS_4515', 'CS_4516', 'CS_4518', 'CS_4533', 'CS_4536', 'CS_4731', 'CS_4732', 'CS_4804', 'CS_1101', 'CS_1102', 'CS_1004']</t>
+  </si>
+  <si>
+    <t>['RBE_CS', 'RBE_OBJ_OR']</t>
+  </si>
+  <si>
+    <t>['CS_2102']</t>
+  </si>
+  <si>
+    <t>['RBE_CS', 'RBE_SOFT_ENG']</t>
+  </si>
+  <si>
+    <t>['CS_3733']</t>
+  </si>
+  <si>
+    <t>['RBE_CS', 'RBE_ECE', 'RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['RBE_ECE', 'RBE_ENG_ELECT', 'RBE_4000']</t>
+  </si>
+  <si>
+    <t>['BME_4011', 'ECE_4011', 'BME_4023', 'ECE_4023', 'ECE_4305', 'ECE_4503', 'ECE_4703', 'ECE_4801', 'ECE_4902', 'ECE_4904']</t>
+  </si>
+  <si>
+    <t>['RBE_ECE', 'RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['ECE_2010', 'ECE_2019', 'ECE_2029', 'ECE_2112', 'ECE_2201', 'ECE_2305', 'ECE_2311', 'ECE_2312', 'ECE_2799', 'ECE_3012', 'ECE_3113', 'ECE_3204', 'ECE_3308', 'ECE_3311', 'ECE_3500', 'ECE_3501', 'ECE_3829', 'ECE_3849', 'ECE_1799']</t>
+  </si>
+  <si>
+    <t>['RBE_ECE', 'RBE_ENG_ELECT', 'RBE_EMB_SYS']</t>
+  </si>
+  <si>
+    <t>['ECE_2049']</t>
+  </si>
+  <si>
+    <t>['RBE_ES_STATICS', 'RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['ES_2501']</t>
+  </si>
+  <si>
+    <t>['RBE_ES_CONTROLS', 'RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['ES_3011', 'AE_2310']</t>
+  </si>
+  <si>
+    <t>['RBE_ES_CONTROLS']</t>
+  </si>
+  <si>
+    <t>['ES_3012', 'ME_3703']</t>
+  </si>
+  <si>
+    <t>['RBE_ENG_ELECT']</t>
+  </si>
+  <si>
+    <t>['AE_2110', 'AE_2320', 'AE_2410', 'AE_3110', 'AE_3120', 'AE_3310', 'AE_3420', 'AE_3430', 'AREN_2002', 'AREN_2004', 'AREN_2023', 'AREN_2025', 'AREN_3002', 'AREN_3003', 'AREN_3005', 'AREN_3006', 'AREN_3020', 'AREN_3022', 'AREN_3024', 'AREN_3025', 'BME_2001', 'BME_2210', 'BME_2211', 'BME_2502', 'BME_2610', 'BME_3012', 'BME_3013', 'BME_3014', 'BME_3111', 'BME_3112', 'BME_3300', 'BME_3503', 'BME_3505', 'BME_3506', 'BME_3605', 'BME_3610', 'BME_3811', 'BME_3813', 'BME_1001', 'BME_1004', 'CE_2000', 'CE_2001', 'CE_2002', 'CE_2020', 'CE_3006', 'CE_3008', 'CE_3010', 'CE_3020', 'CE_3025', 'CE_3026', 'CE_3030', 'CE_3031', 'CE_3041', 'CE_3044', 'CE_3050', 'CE_3051', 'CE_3059', 'CE_3060', 'CE_3061', 'CE_3062', 'CE_3070', 'CE_3074', 'CE_1030', 'CHE_2011', 'CHE_2012', 'CHE_2013', 'CHE_2014', 'CHE_2301', 'ME_2301', 'CHE_3201', 'CHE_3301', 'CHE_3501', 'CHE_3702', 'CHE_3722', 'CHE_1011', 'ES_2001', 'ES_2502', 'ES_2503', 'ES_2800', 'ES_3001', 'ES_3002', 'ES_3003', 'ES_3004', 'ES_3323', 'ES_3501', 'ES_1020', 'ES_1310', 'ES_1500', 'ME_2300', 'ME_2312', 'ME_2820', 'ME_3310', 'ME_3311', 'ME_3320', 'ME_3411', 'ME_3501', 'ME_3506', 'ME_3801', 'ME_3820', 'ME_3901', 'ME_3902', 'ME_1520', 'ME_1800', 'RBE_3100', 'AE_DEPT', 'AREN_DEPT', 'BME_DEPT', 'CHE_DEPT', 'CE_DEPT', 'ECE_DEPT', 'ME_DEPT', 'RBE_DEPT']</t>
+  </si>
+  <si>
+    <t>['RBE_ENG_ELECT', 'RBE_4000']</t>
+  </si>
+  <si>
+    <t>['AE_4210', 'AE_4220', 'AE_4310', 'AE_4320', 'AE_4410', 'AE_4510', 'AE_4520', 'BME_4201', 'BME_4300', 'BME_4503', 'BME_4701', 'BME_4828', 'BME_4831', 'CE_4007', 'CE_4060', 'CE_4061', 'CE_4063', 'CHE_4063', 'CE_4071', 'CE_4600', 'CE_4610', 'CHE_4401', 'CHE_4402', 'CHE_4403', 'CHE_4404', 'CHE_4405', 'CHE_4410', 'BME_4504', 'ME_4504', 'BME_4606', 'ME_4606', 'BME_4814', 'ME_4814', 'ME_4320', 'ME_4323', 'ME_4324', 'ME_4422', 'ME_4429', 'ME_4430', 'ME_4505', 'ME_4506', 'ME_4512', 'ME_4710', 'ME_4813', 'ME_4832', 'ME_4840', 'ME_4875', 'MTE_575']</t>
+  </si>
+  <si>
+    <t>Diff Eqs and Lin Alg</t>
+  </si>
+  <si>
+    <t>Physics - PH_1110/1111 AND PH_1120/1121</t>
+  </si>
+  <si>
+    <t>DE_LA</t>
+  </si>
+  <si>
+    <t>Science - Biology, Chemistry, Geology, Physics</t>
+  </si>
+  <si>
+    <t>Entrepreneurship - ETR_1100, ETR_3600</t>
+  </si>
+  <si>
+    <t>RBE Core</t>
+  </si>
+  <si>
+    <t>RBE_1001</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>CS_2102</t>
+  </si>
+  <si>
+    <t>CS_3733</t>
+  </si>
+  <si>
+    <t>4000 Level ECE</t>
+  </si>
+  <si>
+    <t>ECE_2049</t>
+  </si>
+  <si>
+    <t>ES_2501</t>
+  </si>
+  <si>
+    <t>Controls - ES_3011, ES_3012, AE_2310, ME_3703</t>
+  </si>
+  <si>
+    <t>4000 Level Engineering</t>
+  </si>
+  <si>
+    <t>4000 Level RBE - RBE_4322/ME_4322, RBE_4540, RBE_4815</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>RBE_CORE</t>
+  </si>
+  <si>
+    <t>4000_RBE</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>4000_ECE</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>CONTROL_OTHER</t>
+  </si>
+  <si>
+    <t>4000_ENG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3730,16 +4795,53 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3930,6 +5032,77 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3942,7 +5115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4031,7 +5204,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7234,7 +8431,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7285,7 +8482,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1046</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>341</v>
@@ -7308,7 +8505,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>1046</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>344</v>
@@ -7331,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>1046</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>347</v>
@@ -7354,7 +8551,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>1046</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>350</v>
@@ -7377,7 +8574,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>1046</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>353</v>
@@ -7388,19 +8585,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>1047</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1048</v>
       </c>
       <c r="F7" t="s">
         <v>357</v>
@@ -7443,7 +8640,7 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>894</v>
@@ -7466,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>895</v>
@@ -7518,7 +8715,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>372</v>
@@ -7526,7 +8723,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -7538,36 +8735,36 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F13" t="s">
         <v>1051</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="30" t="s">
         <v>1052</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>1054</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>1055</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="30" t="s">
         <v>1056</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7584,18 +8781,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F15" t="s">
         <v>1058</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" s="30" t="s">
         <v>1059</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -7607,18 +8804,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F16" t="s">
         <v>1062</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="30" t="s">
         <v>1063</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B17">
         <v>37</v>
@@ -7630,36 +8827,36 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F17" t="s">
         <v>1066</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="30" t="s">
         <v>1067</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>1069</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1070</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="30" t="s">
         <v>1071</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -7676,13 +8873,13 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F19" t="s">
         <v>1025</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -7705,7 +8902,7 @@
         <v>1029</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -7728,12 +8925,12 @@
         <v>1027</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B22">
         <v>94</v>
@@ -7745,18 +8942,18 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F22" t="s">
         <v>1078</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="30" t="s">
         <v>1079</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="23" spa